--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -1956,189 +1956,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2225,6 +2042,189 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5356,7 +5356,7 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="dash"/>
           <a:tailEnd type="stealth" w="med" len="lg"/>
         </a:ln>
         <a:effectLst/>
@@ -10435,7 +10435,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7200"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10782,201 +10782,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="82" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="84"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="85" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="89" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="91"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="90" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="96" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="90" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>アプリケーションアーキテクチャ</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="92"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
@@ -11144,1098 +11144,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="97" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="97" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="99"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
       <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="112"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="108"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="109"/>
       <c r="AZ8" s="11"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="60">
+      <c r="B9" s="83">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86">
         <v>42604</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="103" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="57" t="s">
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="58"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="58"/>
-      <c r="AY9" s="59"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="100"/>
       <c r="AZ9" s="11"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="59"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="100"/>
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="59"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="100"/>
       <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="59"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="100"/>
       <c r="AZ12" s="11"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="59"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="100"/>
       <c r="AZ13" s="11"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="59"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="100"/>
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="59"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="99"/>
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="100"/>
       <c r="AZ15" s="11"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="58"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="59"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="100"/>
       <c r="AZ16" s="11"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="59"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="100"/>
       <c r="AZ17" s="11"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="59"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="100"/>
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="59"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="100"/>
       <c r="AZ19" s="11"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="59"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="100"/>
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="59"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="99"/>
+      <c r="AY21" s="100"/>
       <c r="AZ21" s="11"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="58"/>
-      <c r="AX22" s="58"/>
-      <c r="AY22" s="59"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="100"/>
       <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="59"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="100"/>
       <c r="AZ23" s="11"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="59"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="100"/>
       <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="59"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
+      <c r="AU25" s="99"/>
+      <c r="AV25" s="99"/>
+      <c r="AW25" s="99"/>
+      <c r="AX25" s="99"/>
+      <c r="AY25" s="100"/>
       <c r="AZ25" s="11"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="76"/>
-      <c r="AX26" s="76"/>
-      <c r="AY26" s="77"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="141"/>
+      <c r="AI26" s="141"/>
+      <c r="AJ26" s="141"/>
+      <c r="AK26" s="141"/>
+      <c r="AL26" s="141"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="141"/>
+      <c r="AO26" s="141"/>
+      <c r="AP26" s="141"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="141"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="141"/>
+      <c r="AW26" s="141"/>
+      <c r="AX26" s="141"/>
+      <c r="AY26" s="142"/>
       <c r="AZ26" s="9"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12348,87 +12348,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:AY20"/>
     <mergeCell ref="K21:P21"/>
@@ -12445,6 +12364,87 @@
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12476,201 +12476,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="82" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="114"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="85" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="89" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="91"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="90" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="96" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="90" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>アプリケーションアーキテクチャ</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="92"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -15262,6 +15262,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -15275,10 +15279,6 @@
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15302,7 +15302,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15311,201 +15311,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="82" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="114"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="85" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="89" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="91"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="90" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="96" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="90" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>アプリケーションアーキテクチャ</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="92"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -17358,709 +17358,709 @@
     <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="123" t="s">
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="123" t="s">
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="125"/>
-      <c r="AO38" s="124"/>
-      <c r="AP38" s="124"/>
-      <c r="AQ38" s="124"/>
-      <c r="AR38" s="124"/>
-      <c r="AS38" s="124"/>
-      <c r="AT38" s="124"/>
-      <c r="AU38" s="124"/>
-      <c r="AV38" s="124"/>
-      <c r="AW38" s="124"/>
-      <c r="AX38" s="124"/>
-      <c r="AY38" s="125"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="63"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="63"/>
+      <c r="AU38" s="63"/>
+      <c r="AV38" s="63"/>
+      <c r="AW38" s="63"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="64"/>
       <c r="AZ38" s="25"/>
     </row>
     <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="126" t="s">
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="126" t="s">
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="127"/>
-      <c r="AI39" s="127"/>
-      <c r="AJ39" s="127"/>
-      <c r="AK39" s="127"/>
-      <c r="AL39" s="127"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="127" t="s">
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="AP39" s="127"/>
-      <c r="AQ39" s="127"/>
-      <c r="AR39" s="127"/>
-      <c r="AS39" s="127"/>
-      <c r="AT39" s="127"/>
-      <c r="AU39" s="127"/>
-      <c r="AV39" s="127"/>
-      <c r="AW39" s="127"/>
-      <c r="AX39" s="127"/>
-      <c r="AY39" s="128"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="67"/>
       <c r="AZ39" s="25"/>
     </row>
     <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="121"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="115" t="s">
+      <c r="G40" s="61"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="116"/>
-      <c r="AI40" s="116"/>
-      <c r="AJ40" s="116"/>
-      <c r="AK40" s="116"/>
-      <c r="AL40" s="116"/>
-      <c r="AM40" s="116"/>
-      <c r="AN40" s="117"/>
-      <c r="AO40" s="116" t="s">
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AP40" s="116"/>
-      <c r="AQ40" s="116"/>
-      <c r="AR40" s="116"/>
-      <c r="AS40" s="116"/>
-      <c r="AT40" s="116"/>
-      <c r="AU40" s="116"/>
-      <c r="AV40" s="116"/>
-      <c r="AW40" s="116"/>
-      <c r="AX40" s="116"/>
-      <c r="AY40" s="117"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="56"/>
       <c r="AZ40" s="25"/>
     </row>
     <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="121"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="118" t="s">
+      <c r="G41" s="61"/>
+      <c r="H41" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="118" t="s">
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="119"/>
-      <c r="X41" s="119"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="119"/>
-      <c r="AB41" s="119"/>
-      <c r="AC41" s="119"/>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="119"/>
-      <c r="AF41" s="119"/>
-      <c r="AG41" s="119"/>
-      <c r="AH41" s="119"/>
-      <c r="AI41" s="119"/>
-      <c r="AJ41" s="119"/>
-      <c r="AK41" s="119"/>
-      <c r="AL41" s="119"/>
-      <c r="AM41" s="119"/>
-      <c r="AN41" s="120"/>
-      <c r="AO41" s="119"/>
-      <c r="AP41" s="119"/>
-      <c r="AQ41" s="119"/>
-      <c r="AR41" s="119"/>
-      <c r="AS41" s="119"/>
-      <c r="AT41" s="119"/>
-      <c r="AU41" s="119"/>
-      <c r="AV41" s="119"/>
-      <c r="AW41" s="119"/>
-      <c r="AX41" s="119"/>
-      <c r="AY41" s="120"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="59"/>
       <c r="AZ41" s="25"/>
     </row>
     <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="121"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="115" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="116"/>
-      <c r="AI42" s="116"/>
-      <c r="AJ42" s="116"/>
-      <c r="AK42" s="116"/>
-      <c r="AL42" s="116"/>
-      <c r="AM42" s="116"/>
-      <c r="AN42" s="117"/>
-      <c r="AO42" s="116"/>
-      <c r="AP42" s="116"/>
-      <c r="AQ42" s="116"/>
-      <c r="AR42" s="116"/>
-      <c r="AS42" s="116"/>
-      <c r="AT42" s="116"/>
-      <c r="AU42" s="116"/>
-      <c r="AV42" s="116"/>
-      <c r="AW42" s="116"/>
-      <c r="AX42" s="116"/>
-      <c r="AY42" s="117"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55"/>
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="55"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55"/>
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="56"/>
       <c r="AZ42" s="25"/>
     </row>
     <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="121"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="118" t="s">
+      <c r="G43" s="61"/>
+      <c r="H43" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="118" t="s">
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="119" t="s">
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="120"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="59"/>
       <c r="AZ43" s="25"/>
     </row>
     <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="121"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116" t="s">
+      <c r="G44" s="61"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="116"/>
-      <c r="AD44" s="116"/>
-      <c r="AE44" s="116"/>
-      <c r="AF44" s="116"/>
-      <c r="AG44" s="116"/>
-      <c r="AH44" s="116"/>
-      <c r="AI44" s="116"/>
-      <c r="AJ44" s="116"/>
-      <c r="AK44" s="116"/>
-      <c r="AL44" s="116"/>
-      <c r="AM44" s="116"/>
-      <c r="AN44" s="117"/>
-      <c r="AO44" s="116" t="s">
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="AP44" s="116"/>
-      <c r="AQ44" s="116"/>
-      <c r="AR44" s="116"/>
-      <c r="AS44" s="116"/>
-      <c r="AT44" s="116"/>
-      <c r="AU44" s="116"/>
-      <c r="AV44" s="116"/>
-      <c r="AW44" s="116"/>
-      <c r="AX44" s="116"/>
-      <c r="AY44" s="117"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="56"/>
       <c r="AZ44" s="25"/>
     </row>
     <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="136" t="s">
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="136" t="s">
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="137"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
-      <c r="S45" s="137"/>
-      <c r="T45" s="137"/>
-      <c r="U45" s="137"/>
-      <c r="V45" s="137"/>
-      <c r="W45" s="137"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="137"/>
-      <c r="Z45" s="137"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="137"/>
-      <c r="AC45" s="137"/>
-      <c r="AD45" s="137"/>
-      <c r="AE45" s="137"/>
-      <c r="AF45" s="137"/>
-      <c r="AG45" s="137"/>
-      <c r="AH45" s="137"/>
-      <c r="AI45" s="137"/>
-      <c r="AJ45" s="137"/>
-      <c r="AK45" s="137"/>
-      <c r="AL45" s="137"/>
-      <c r="AM45" s="137"/>
-      <c r="AN45" s="138"/>
-      <c r="AO45" s="137"/>
-      <c r="AP45" s="137"/>
-      <c r="AQ45" s="137"/>
-      <c r="AR45" s="137"/>
-      <c r="AS45" s="137"/>
-      <c r="AT45" s="137"/>
-      <c r="AU45" s="137"/>
-      <c r="AV45" s="137"/>
-      <c r="AW45" s="137"/>
-      <c r="AX45" s="137"/>
-      <c r="AY45" s="138"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="76"/>
+      <c r="AP45" s="76"/>
+      <c r="AQ45" s="76"/>
+      <c r="AR45" s="76"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="76"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="76"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="76"/>
+      <c r="AY45" s="77"/>
       <c r="AZ45" s="25"/>
     </row>
     <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="133" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-      <c r="R46" s="133"/>
-      <c r="S46" s="133"/>
-      <c r="T46" s="133"/>
-      <c r="U46" s="133"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="133"/>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="133"/>
-      <c r="AG46" s="133"/>
-      <c r="AH46" s="133"/>
-      <c r="AI46" s="133"/>
-      <c r="AJ46" s="133"/>
-      <c r="AK46" s="133"/>
-      <c r="AL46" s="133"/>
-      <c r="AM46" s="133"/>
-      <c r="AN46" s="135"/>
-      <c r="AO46" s="133"/>
-      <c r="AP46" s="133"/>
-      <c r="AQ46" s="133"/>
-      <c r="AR46" s="133"/>
-      <c r="AS46" s="133"/>
-      <c r="AT46" s="133"/>
-      <c r="AU46" s="133"/>
-      <c r="AV46" s="133"/>
-      <c r="AW46" s="133"/>
-      <c r="AX46" s="133"/>
-      <c r="AY46" s="135"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="74"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="72"/>
+      <c r="AW46" s="72"/>
+      <c r="AX46" s="72"/>
+      <c r="AY46" s="74"/>
       <c r="AZ46" s="25"/>
     </row>
     <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="142" t="s">
+      <c r="B47" s="72"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="142"/>
-      <c r="S47" s="142"/>
-      <c r="T47" s="142"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="142"/>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="142"/>
-      <c r="Z47" s="142"/>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="142"/>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="142"/>
-      <c r="AE47" s="142"/>
-      <c r="AF47" s="142"/>
-      <c r="AG47" s="142"/>
-      <c r="AH47" s="142"/>
-      <c r="AI47" s="142"/>
-      <c r="AJ47" s="142"/>
-      <c r="AK47" s="142"/>
-      <c r="AL47" s="142"/>
-      <c r="AM47" s="142"/>
-      <c r="AN47" s="143"/>
-      <c r="AO47" s="142"/>
-      <c r="AP47" s="142"/>
-      <c r="AQ47" s="142"/>
-      <c r="AR47" s="142"/>
-      <c r="AS47" s="142"/>
-      <c r="AT47" s="142"/>
-      <c r="AU47" s="142"/>
-      <c r="AV47" s="142"/>
-      <c r="AW47" s="142"/>
-      <c r="AX47" s="142"/>
-      <c r="AY47" s="143"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="81"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="81"/>
+      <c r="AD47" s="81"/>
+      <c r="AE47" s="81"/>
+      <c r="AF47" s="81"/>
+      <c r="AG47" s="81"/>
+      <c r="AH47" s="81"/>
+      <c r="AI47" s="81"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="81"/>
+      <c r="AL47" s="81"/>
+      <c r="AM47" s="81"/>
+      <c r="AN47" s="82"/>
+      <c r="AO47" s="81"/>
+      <c r="AP47" s="81"/>
+      <c r="AQ47" s="81"/>
+      <c r="AR47" s="81"/>
+      <c r="AS47" s="81"/>
+      <c r="AT47" s="81"/>
+      <c r="AU47" s="81"/>
+      <c r="AV47" s="81"/>
+      <c r="AW47" s="81"/>
+      <c r="AX47" s="81"/>
+      <c r="AY47" s="82"/>
       <c r="AZ47" s="25"/>
     </row>
-    <row r="48" spans="1:52" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="132"/>
+    <row r="48" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="126" t="s">
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="126" t="s">
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="127"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="127"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="127"/>
-      <c r="T48" s="127"/>
-      <c r="U48" s="127"/>
-      <c r="V48" s="127"/>
-      <c r="W48" s="127"/>
-      <c r="X48" s="127"/>
-      <c r="Y48" s="127"/>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
-      <c r="AC48" s="127"/>
-      <c r="AD48" s="127"/>
-      <c r="AE48" s="127"/>
-      <c r="AF48" s="127"/>
-      <c r="AG48" s="127"/>
-      <c r="AH48" s="127"/>
-      <c r="AI48" s="127"/>
-      <c r="AJ48" s="127"/>
-      <c r="AK48" s="127"/>
-      <c r="AL48" s="127"/>
-      <c r="AM48" s="127"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="127"/>
-      <c r="AP48" s="127"/>
-      <c r="AQ48" s="127"/>
-      <c r="AR48" s="127"/>
-      <c r="AS48" s="127"/>
-      <c r="AT48" s="127"/>
-      <c r="AU48" s="127"/>
-      <c r="AV48" s="127"/>
-      <c r="AW48" s="127"/>
-      <c r="AX48" s="127"/>
-      <c r="AY48" s="128"/>
-      <c r="AZ48" s="139"/>
-    </row>
-    <row r="49" spans="1:52" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="132"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="66"/>
+      <c r="AV48" s="66"/>
+      <c r="AW48" s="66"/>
+      <c r="AX48" s="66"/>
+      <c r="AY48" s="67"/>
+      <c r="AZ48" s="78"/>
+    </row>
+    <row r="49" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="121"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="115" t="s">
+      <c r="G49" s="61"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="116"/>
-      <c r="O49" s="116"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
-      <c r="S49" s="116"/>
-      <c r="T49" s="116"/>
-      <c r="U49" s="116"/>
-      <c r="V49" s="116"/>
-      <c r="W49" s="116"/>
-      <c r="X49" s="116"/>
-      <c r="Y49" s="116"/>
-      <c r="Z49" s="116"/>
-      <c r="AA49" s="116"/>
-      <c r="AB49" s="116"/>
-      <c r="AC49" s="116"/>
-      <c r="AD49" s="116"/>
-      <c r="AE49" s="116"/>
-      <c r="AF49" s="116"/>
-      <c r="AG49" s="116"/>
-      <c r="AH49" s="116"/>
-      <c r="AI49" s="116"/>
-      <c r="AJ49" s="116"/>
-      <c r="AK49" s="116"/>
-      <c r="AL49" s="116"/>
-      <c r="AM49" s="116"/>
-      <c r="AN49" s="117"/>
-      <c r="AO49" s="116"/>
-      <c r="AP49" s="116"/>
-      <c r="AQ49" s="116"/>
-      <c r="AR49" s="116"/>
-      <c r="AS49" s="116"/>
-      <c r="AT49" s="116"/>
-      <c r="AU49" s="116"/>
-      <c r="AV49" s="116"/>
-      <c r="AW49" s="116"/>
-      <c r="AX49" s="116"/>
-      <c r="AY49" s="117"/>
-      <c r="AZ49" s="139"/>
-    </row>
-    <row r="50" spans="1:52" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="132"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="55"/>
+      <c r="AY49" s="56"/>
+      <c r="AZ49" s="78"/>
+    </row>
+    <row r="50" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="71"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="121"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
-      <c r="G50" s="122"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="38" t="s">
         <v>133</v>
       </c>
@@ -18109,16 +18109,16 @@
       <c r="AW50" s="39"/>
       <c r="AX50" s="39"/>
       <c r="AY50" s="40"/>
-      <c r="AZ50" s="139"/>
-    </row>
-    <row r="51" spans="1:52" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="132"/>
+      <c r="AZ50" s="78"/>
+    </row>
+    <row r="51" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="121"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="122"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="38" t="s">
         <v>150</v>
       </c>
@@ -18167,16 +18167,16 @@
       <c r="AW51" s="39"/>
       <c r="AX51" s="39"/>
       <c r="AY51" s="40"/>
-      <c r="AZ51" s="139"/>
+      <c r="AZ51" s="78"/>
     </row>
     <row r="52" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="131"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="70"/>
       <c r="H52" s="41" t="s">
         <v>134</v>
       </c>
@@ -18230,61 +18230,61 @@
     <row r="53" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="129" t="s">
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="129" t="s">
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
-      <c r="U53" s="130"/>
-      <c r="V53" s="130"/>
-      <c r="W53" s="130"/>
-      <c r="X53" s="130"/>
-      <c r="Y53" s="130"/>
-      <c r="Z53" s="130"/>
-      <c r="AA53" s="130"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="130"/>
-      <c r="AD53" s="130"/>
-      <c r="AE53" s="130"/>
-      <c r="AF53" s="130"/>
-      <c r="AG53" s="130"/>
-      <c r="AH53" s="130"/>
-      <c r="AI53" s="130"/>
-      <c r="AJ53" s="130"/>
-      <c r="AK53" s="130"/>
-      <c r="AL53" s="130"/>
-      <c r="AM53" s="130"/>
-      <c r="AN53" s="131"/>
-      <c r="AO53" s="130"/>
-      <c r="AP53" s="130"/>
-      <c r="AQ53" s="130"/>
-      <c r="AR53" s="130"/>
-      <c r="AS53" s="130"/>
-      <c r="AT53" s="130"/>
-      <c r="AU53" s="130"/>
-      <c r="AV53" s="130"/>
-      <c r="AW53" s="130"/>
-      <c r="AX53" s="130"/>
-      <c r="AY53" s="131"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
+      <c r="AC53" s="69"/>
+      <c r="AD53" s="69"/>
+      <c r="AE53" s="69"/>
+      <c r="AF53" s="69"/>
+      <c r="AG53" s="69"/>
+      <c r="AH53" s="69"/>
+      <c r="AI53" s="69"/>
+      <c r="AJ53" s="69"/>
+      <c r="AK53" s="69"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="69"/>
+      <c r="AN53" s="70"/>
+      <c r="AO53" s="69"/>
+      <c r="AP53" s="69"/>
+      <c r="AQ53" s="69"/>
+      <c r="AR53" s="69"/>
+      <c r="AS53" s="69"/>
+      <c r="AT53" s="69"/>
+      <c r="AU53" s="69"/>
+      <c r="AV53" s="69"/>
+      <c r="AW53" s="69"/>
+      <c r="AX53" s="69"/>
+      <c r="AY53" s="70"/>
       <c r="AZ53" s="25"/>
     </row>
     <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21318,6 +21318,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -21330,11 +21335,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21367,201 +21367,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="82" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="82" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="114"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="85" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="89" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="91"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="90" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="96" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="90" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>アプリケーションアーキテクチャ</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="92"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -26805,11 +26805,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -26822,6 +26817,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -171,10 +171,6 @@
       <t>ナ</t>
     </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アプリケーションアーキテクチャ</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>【アプリケーション構成図】</t>
@@ -1130,6 +1126,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Webアプリケーション構成図</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -2043,6 +2043,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,132 +2077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,6 +2113,114 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10435,7 +10435,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7201"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7202"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10782,89 +10782,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="107" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
+      <c r="AY1" s="111"/>
       <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -10905,78 +10905,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AZ2" s="120"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="119" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="119" t="str">
         <f>設定情報!$C$5</f>
-        <v>アプリケーションアーキテクチャ</v>
+        <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="121"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
@@ -11144,1098 +11144,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="92" t="s">
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="94"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="127"/>
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="127"/>
+      <c r="AY7" s="128"/>
       <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="108"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="108"/>
-      <c r="AM8" s="108"/>
-      <c r="AN8" s="108"/>
-      <c r="AO8" s="108"/>
-      <c r="AP8" s="108"/>
-      <c r="AQ8" s="108"/>
-      <c r="AR8" s="108"/>
-      <c r="AS8" s="108"/>
-      <c r="AT8" s="108"/>
-      <c r="AU8" s="108"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="108"/>
-      <c r="AY8" s="109"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="140"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="140"/>
+      <c r="AJ8" s="140"/>
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="140"/>
+      <c r="AM8" s="140"/>
+      <c r="AN8" s="140"/>
+      <c r="AO8" s="140"/>
+      <c r="AP8" s="140"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="140"/>
+      <c r="AS8" s="140"/>
+      <c r="AT8" s="140"/>
+      <c r="AU8" s="140"/>
+      <c r="AV8" s="140"/>
+      <c r="AW8" s="140"/>
+      <c r="AX8" s="140"/>
+      <c r="AY8" s="141"/>
       <c r="AZ8" s="11"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="83">
+      <c r="B9" s="89">
         <v>1</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86">
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92">
         <v>42604</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="98" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="111" t="s">
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="100"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="88"/>
       <c r="AZ9" s="11"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="100"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="88"/>
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="100"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="88"/>
       <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="100"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="88"/>
       <c r="AZ12" s="11"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="100"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="88"/>
       <c r="AZ13" s="11"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="100"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="88"/>
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="99"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="100"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="88"/>
       <c r="AZ15" s="11"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="99"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="100"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="88"/>
       <c r="AZ16" s="11"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="99"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="99"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="100"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="88"/>
       <c r="AZ17" s="11"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="99"/>
-      <c r="AS18" s="99"/>
-      <c r="AT18" s="99"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="99"/>
-      <c r="AY18" s="100"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="88"/>
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="99"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="99"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="100"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="88"/>
       <c r="AZ19" s="11"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="100"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="88"/>
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="99"/>
-      <c r="AN21" s="99"/>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="99"/>
-      <c r="AQ21" s="99"/>
-      <c r="AR21" s="99"/>
-      <c r="AS21" s="99"/>
-      <c r="AT21" s="99"/>
-      <c r="AU21" s="99"/>
-      <c r="AV21" s="99"/>
-      <c r="AW21" s="99"/>
-      <c r="AX21" s="99"/>
-      <c r="AY21" s="100"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="88"/>
       <c r="AZ21" s="11"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="99"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="100"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="88"/>
       <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="99"/>
-      <c r="AN23" s="99"/>
-      <c r="AO23" s="99"/>
-      <c r="AP23" s="99"/>
-      <c r="AQ23" s="99"/>
-      <c r="AR23" s="99"/>
-      <c r="AS23" s="99"/>
-      <c r="AT23" s="99"/>
-      <c r="AU23" s="99"/>
-      <c r="AV23" s="99"/>
-      <c r="AW23" s="99"/>
-      <c r="AX23" s="99"/>
-      <c r="AY23" s="100"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="87"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
+      <c r="AX23" s="87"/>
+      <c r="AY23" s="88"/>
       <c r="AZ23" s="11"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
-      <c r="AN24" s="99"/>
-      <c r="AO24" s="99"/>
-      <c r="AP24" s="99"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="99"/>
-      <c r="AS24" s="99"/>
-      <c r="AT24" s="99"/>
-      <c r="AU24" s="99"/>
-      <c r="AV24" s="99"/>
-      <c r="AW24" s="99"/>
-      <c r="AX24" s="99"/>
-      <c r="AY24" s="100"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="87"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="87"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="87"/>
+      <c r="AU24" s="87"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
+      <c r="AX24" s="87"/>
+      <c r="AY24" s="88"/>
       <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="99"/>
-      <c r="AN25" s="99"/>
-      <c r="AO25" s="99"/>
-      <c r="AP25" s="99"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="99"/>
-      <c r="AS25" s="99"/>
-      <c r="AT25" s="99"/>
-      <c r="AU25" s="99"/>
-      <c r="AV25" s="99"/>
-      <c r="AW25" s="99"/>
-      <c r="AX25" s="99"/>
-      <c r="AY25" s="100"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="87"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
+      <c r="AX25" s="87"/>
+      <c r="AY25" s="88"/>
       <c r="AZ25" s="11"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
-      <c r="AL26" s="141"/>
-      <c r="AM26" s="141"/>
-      <c r="AN26" s="141"/>
-      <c r="AO26" s="141"/>
-      <c r="AP26" s="141"/>
-      <c r="AQ26" s="141"/>
-      <c r="AR26" s="141"/>
-      <c r="AS26" s="141"/>
-      <c r="AT26" s="141"/>
-      <c r="AU26" s="141"/>
-      <c r="AV26" s="141"/>
-      <c r="AW26" s="141"/>
-      <c r="AX26" s="141"/>
-      <c r="AY26" s="142"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="106"/>
       <c r="AZ26" s="9"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12348,6 +12348,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:AY20"/>
     <mergeCell ref="K21:P21"/>
@@ -12364,87 +12445,6 @@
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12476,89 +12476,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="107" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
+      <c r="AY1" s="111"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -12599,78 +12599,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AZ2" s="120"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="119" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="119" t="str">
         <f>設定情報!$C$5</f>
-        <v>アプリケーションアーキテクチャ</v>
+        <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="121"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -12729,7 +12729,7 @@
     <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -14205,7 +14205,7 @@
     <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -14316,7 +14316,7 @@
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
       <c r="C38" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -14325,7 +14325,7 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
@@ -14349,7 +14349,7 @@
       <c r="AD38" s="32"/>
       <c r="AE38" s="33"/>
       <c r="AF38" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
@@ -14376,7 +14376,7 @@
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
       <c r="C39" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
@@ -14385,7 +14385,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
       <c r="J39" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
@@ -14409,7 +14409,7 @@
       <c r="AD39" s="36"/>
       <c r="AE39" s="37"/>
       <c r="AF39" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG39" s="36"/>
       <c r="AH39" s="36"/>
@@ -14436,7 +14436,7 @@
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
       <c r="C40" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
@@ -14445,7 +14445,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
@@ -14469,7 +14469,7 @@
       <c r="AD40" s="39"/>
       <c r="AE40" s="40"/>
       <c r="AF40" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG40" s="39"/>
       <c r="AH40" s="39"/>
@@ -14496,7 +14496,7 @@
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
       <c r="C41" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -14505,7 +14505,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
@@ -14529,7 +14529,7 @@
       <c r="AD41" s="39"/>
       <c r="AE41" s="40"/>
       <c r="AF41" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG41" s="39"/>
       <c r="AH41" s="39"/>
@@ -14556,7 +14556,7 @@
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
       <c r="C42" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -14565,7 +14565,7 @@
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
@@ -14589,7 +14589,7 @@
       <c r="AD42" s="42"/>
       <c r="AE42" s="43"/>
       <c r="AF42" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG42" s="42"/>
       <c r="AH42" s="42"/>
@@ -15262,6 +15262,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S2:AF2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:R3"/>
@@ -15278,7 +15279,6 @@
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15311,89 +15311,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="107" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
+      <c r="AY1" s="111"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -15434,78 +15434,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AZ2" s="120"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="119" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="119" t="str">
         <f>設定情報!$C$5</f>
-        <v>アプリケーションアーキテクチャ</v>
+        <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="121"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -15564,7 +15564,7 @@
     <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -17186,7 +17186,7 @@
     <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -17297,21 +17297,21 @@
       <c r="A37" s="27"/>
       <c r="B37" s="26"/>
       <c r="C37" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
       <c r="M37" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N37" s="32"/>
       <c r="O37" s="32"/>
@@ -17341,7 +17341,7 @@
       <c r="AM37" s="32"/>
       <c r="AN37" s="33"/>
       <c r="AO37" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP37" s="32"/>
       <c r="AQ37" s="32"/>
@@ -17359,21 +17359,21 @@
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
       <c r="C38" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
       <c r="G38" s="63"/>
       <c r="H38" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>
       <c r="K38" s="63"/>
       <c r="L38" s="63"/>
       <c r="M38" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N38" s="63"/>
       <c r="O38" s="63"/>
@@ -17419,21 +17419,21 @@
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
       <c r="C39" s="65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
       <c r="G39" s="67"/>
       <c r="H39" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
       <c r="K39" s="66"/>
       <c r="L39" s="66"/>
       <c r="M39" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
@@ -17463,7 +17463,7 @@
       <c r="AM39" s="66"/>
       <c r="AN39" s="67"/>
       <c r="AO39" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP39" s="66"/>
       <c r="AQ39" s="66"/>
@@ -17491,7 +17491,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
       <c r="M40" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N40" s="55"/>
       <c r="O40" s="55"/>
@@ -17521,7 +17521,7 @@
       <c r="AM40" s="55"/>
       <c r="AN40" s="56"/>
       <c r="AO40" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP40" s="55"/>
       <c r="AQ40" s="55"/>
@@ -17544,14 +17544,14 @@
       <c r="F41" s="26"/>
       <c r="G41" s="61"/>
       <c r="H41" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="58"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
       <c r="M41" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N41" s="58"/>
       <c r="O41" s="58"/>
@@ -17607,7 +17607,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="55"/>
       <c r="M42" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N42" s="55"/>
       <c r="O42" s="55"/>
@@ -17658,14 +17658,14 @@
       <c r="F43" s="26"/>
       <c r="G43" s="61"/>
       <c r="H43" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="58"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="58"/>
       <c r="M43" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N43" s="58"/>
       <c r="O43" s="58"/>
@@ -17695,7 +17695,7 @@
       <c r="AM43" s="58"/>
       <c r="AN43" s="59"/>
       <c r="AO43" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP43" s="58"/>
       <c r="AQ43" s="58"/>
@@ -17724,7 +17724,7 @@
       <c r="L44" s="55"/>
       <c r="M44" s="54"/>
       <c r="N44" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="55"/>
       <c r="P44" s="55"/>
@@ -17753,7 +17753,7 @@
       <c r="AM44" s="55"/>
       <c r="AN44" s="56"/>
       <c r="AO44" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP44" s="55"/>
       <c r="AQ44" s="55"/>
@@ -17776,14 +17776,14 @@
       <c r="F45" s="72"/>
       <c r="G45" s="74"/>
       <c r="H45" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I45" s="76"/>
       <c r="J45" s="76"/>
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
       <c r="M45" s="75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
@@ -17840,7 +17840,7 @@
       <c r="L46" s="72"/>
       <c r="M46" s="73"/>
       <c r="N46" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O46" s="72"/>
       <c r="P46" s="72"/>
@@ -17896,7 +17896,7 @@
       <c r="L47" s="81"/>
       <c r="M47" s="80"/>
       <c r="N47" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O47" s="81"/>
       <c r="P47" s="81"/>
@@ -17941,21 +17941,21 @@
       <c r="A48" s="71"/>
       <c r="B48" s="26"/>
       <c r="C48" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="67"/>
       <c r="H48" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I48" s="66"/>
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
       <c r="L48" s="66"/>
       <c r="M48" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N48" s="66"/>
       <c r="O48" s="66"/>
@@ -18011,7 +18011,7 @@
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
       <c r="M49" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
@@ -18062,14 +18062,14 @@
       <c r="F50" s="26"/>
       <c r="G50" s="61"/>
       <c r="H50" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
       <c r="M50" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N50" s="39"/>
       <c r="O50" s="39"/>
@@ -18120,14 +18120,14 @@
       <c r="F51" s="26"/>
       <c r="G51" s="61"/>
       <c r="H51" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
       <c r="M51" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N51" s="39"/>
       <c r="O51" s="39"/>
@@ -18178,14 +18178,14 @@
       <c r="F52" s="69"/>
       <c r="G52" s="70"/>
       <c r="H52" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="42"/>
       <c r="M52" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
@@ -18231,21 +18231,21 @@
       <c r="A53" s="27"/>
       <c r="B53" s="26"/>
       <c r="C53" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="69"/>
       <c r="E53" s="69"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
       <c r="K53" s="69"/>
       <c r="L53" s="69"/>
       <c r="M53" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N53" s="69"/>
       <c r="O53" s="69"/>
@@ -18459,7 +18459,7 @@
     <row r="59" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -21318,11 +21318,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -21335,6 +21330,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21367,89 +21367,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="107" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
+      <c r="AY1" s="111"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -21490,78 +21490,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AZ2" s="120"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="119" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="119" t="str">
         <f>設定情報!$C$5</f>
-        <v>アプリケーションアーキテクチャ</v>
+        <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="121"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -21620,7 +21620,7 @@
     <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -26805,6 +26805,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -26817,11 +26822,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -26843,7 +26843,9 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26882,7 +26884,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -26915,312 +26917,312 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="45" t="s">
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="45" t="s">
+      <c r="K4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="45" t="s">
+    </row>
+    <row r="5" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E5" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E5" s="45" t="s">
+    <row r="6" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E6" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E6" s="45" t="s">
+    <row r="7" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E7" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E7" s="45" t="s">
+    <row r="8" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E8" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E8" s="45" t="s">
+    <row r="9" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E9" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E9" s="45" t="s">
+    <row r="10" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E10" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E10" s="45" t="s">
+    <row r="11" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E11" s="45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E11" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="12" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="E12" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D14" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="45" t="s">
+    </row>
+    <row r="15" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E15" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E15" s="45" t="s">
+    <row r="16" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F16" s="45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F16" s="45" t="s">
+      <c r="L16" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="45" t="s">
+    </row>
+    <row r="17" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G17" s="45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G17" s="45" t="s">
+    <row r="18" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G18" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G19" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G18" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G19" s="45" t="s">
+    <row r="20" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F20" s="45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F20" s="45" t="s">
+      <c r="L20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="45" t="s">
+    </row>
+    <row r="21" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G21" s="45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G21" s="45" t="s">
+      <c r="M21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="45" t="s">
+    </row>
+    <row r="22" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G22" s="45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G22" s="45" t="s">
+      <c r="M22" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="45" t="s">
+    </row>
+    <row r="23" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F23" s="45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F23" s="45" t="s">
+      <c r="L23" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="45" t="s">
+    </row>
+    <row r="24" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G24" s="45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G24" s="45" t="s">
+      <c r="M24" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="45" t="s">
+    </row>
+    <row r="25" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G25" s="45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G25" s="45" t="s">
+      <c r="M25" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="45" t="s">
+    </row>
+    <row r="26" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F26" s="45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F26" s="45" t="s">
+      <c r="L26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="45" t="s">
+    </row>
+    <row r="27" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G27" s="45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G27" s="45" t="s">
+      <c r="M27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="45" t="s">
+    </row>
+    <row r="28" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G28" s="45" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G28" s="45" t="s">
+      <c r="M28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="45" t="s">
+    </row>
+    <row r="29" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G29" s="45" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G29" s="45" t="s">
+      <c r="M29" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="45" t="s">
+    </row>
+    <row r="30" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G30" s="45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G30" s="45" t="s">
+      <c r="M30" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="45" t="s">
+    </row>
+    <row r="31" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G31" s="45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G31" s="45" t="s">
+      <c r="M31" s="45" t="s">
         <v>77</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:13" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D33" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="45" t="s">
+    </row>
+    <row r="34" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="E34" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F35" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G36" s="45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="E34" s="45" t="s">
-        <v>50</v>
+      <c r="M36" s="45" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="35" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F35" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G36" s="45" t="s">
+    <row r="37" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G37" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="M36" s="45" t="s">
-        <v>58</v>
+      <c r="M37" s="45" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="37" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G37" s="45" t="s">
+    <row r="38" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F38" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G39" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="45" t="s">
-        <v>60</v>
+      <c r="M39" s="45" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="38" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F38" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G39" s="45" t="s">
+    <row r="40" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G40" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="M39" s="45" t="s">
-        <v>64</v>
+      <c r="M40" s="45" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="40" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G40" s="45" t="s">
+    <row r="41" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="F41" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G42" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="45" t="s">
-        <v>66</v>
+      <c r="M42" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="41" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="F41" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G42" s="45" t="s">
+    <row r="43" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G43" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="M42" s="45" t="s">
-        <v>70</v>
+      <c r="M43" s="45" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="43" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G43" s="45" t="s">
+    <row r="44" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G44" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="45" t="s">
-        <v>72</v>
+      <c r="M44" s="45" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="44" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G44" s="45" t="s">
+    <row r="45" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G45" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="M44" s="45" t="s">
-        <v>74</v>
+      <c r="M45" s="45" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="45" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G45" s="45" t="s">
+    <row r="46" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="G46" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M45" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="G46" s="45" t="s">
-        <v>89</v>
-      </c>
       <c r="M46" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15"/>
@@ -27228,90 +27230,90 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="44"/>
       <c r="B49" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="44"/>
       <c r="C50" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="K50" s="45" t="s">
+    </row>
+    <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="45" t="s">
+      <c r="K51" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="K51" s="45" t="s">
+    </row>
+    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="45" t="s">
+      <c r="K52" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="K52" s="45" t="s">
+    </row>
+    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="45" t="s">
+      <c r="K53" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="K53" s="45" t="s">
+    </row>
+    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="45" t="s">
+      <c r="L54" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="45" t="s">
+    </row>
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="45" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="45" t="s">
+      <c r="L55" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L55" s="45" t="s">
+    </row>
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="45" t="s">
+      <c r="L56" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L56" s="45" t="s">
+    </row>
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="45" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="45" t="s">
+      <c r="L57" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L57" s="45" t="s">
+    </row>
+    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="45" t="s">
+    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E60" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -2043,24 +2043,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,6 +2059,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2113,114 +2221,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3508,7 +3508,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3625,7 +3625,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3742,7 +3742,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3853,7 +3853,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4209,7 +4209,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4660,7 +4660,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4716,7 +4716,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4833,7 +4833,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4889,7 +4889,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -5085,7 +5085,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(Entity, Model)</a:t>
+            <a:t>(Entity,Model)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5752,7 +5752,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -10435,7 +10435,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7202"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10782,89 +10782,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="111" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="111" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="111"/>
+      <c r="AY1" s="112"/>
       <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -10905,78 +10905,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="120"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="119" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="125" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="119" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="121"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
@@ -11144,1098 +11144,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="126" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="126" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="127"/>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="127"/>
-      <c r="AV7" s="127"/>
-      <c r="AW7" s="127"/>
-      <c r="AX7" s="127"/>
-      <c r="AY7" s="128"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
       <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="140"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="140"/>
-      <c r="AJ8" s="140"/>
-      <c r="AK8" s="140"/>
-      <c r="AL8" s="140"/>
-      <c r="AM8" s="140"/>
-      <c r="AN8" s="140"/>
-      <c r="AO8" s="140"/>
-      <c r="AP8" s="140"/>
-      <c r="AQ8" s="140"/>
-      <c r="AR8" s="140"/>
-      <c r="AS8" s="140"/>
-      <c r="AT8" s="140"/>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="140"/>
-      <c r="AX8" s="140"/>
-      <c r="AY8" s="141"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="108"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="109"/>
       <c r="AZ8" s="11"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="89">
+      <c r="B9" s="83">
         <v>1</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86">
         <v>42604</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="132" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="86" t="s">
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="88"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="100"/>
       <c r="AZ9" s="11"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="88"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="100"/>
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87"/>
-      <c r="AY11" s="88"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="100"/>
       <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="88"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="100"/>
       <c r="AZ12" s="11"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="100"/>
       <c r="AZ13" s="11"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="88"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="100"/>
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="99"/>
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="100"/>
       <c r="AZ15" s="11"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="100"/>
       <c r="AZ16" s="11"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="88"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="100"/>
       <c r="AZ17" s="11"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="88"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="100"/>
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="88"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="100"/>
       <c r="AZ19" s="11"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="88"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="100"/>
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="88"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="99"/>
+      <c r="AY21" s="100"/>
       <c r="AZ21" s="11"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="87"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="88"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="100"/>
       <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="88"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="100"/>
       <c r="AZ23" s="11"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="88"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="100"/>
       <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="88"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
+      <c r="AU25" s="99"/>
+      <c r="AV25" s="99"/>
+      <c r="AW25" s="99"/>
+      <c r="AX25" s="99"/>
+      <c r="AY25" s="100"/>
       <c r="AZ25" s="11"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="105"/>
-      <c r="AI26" s="105"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="105"/>
-      <c r="AT26" s="105"/>
-      <c r="AU26" s="105"/>
-      <c r="AV26" s="105"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="106"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="141"/>
+      <c r="AI26" s="141"/>
+      <c r="AJ26" s="141"/>
+      <c r="AK26" s="141"/>
+      <c r="AL26" s="141"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="141"/>
+      <c r="AO26" s="141"/>
+      <c r="AP26" s="141"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="141"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="141"/>
+      <c r="AW26" s="141"/>
+      <c r="AX26" s="141"/>
+      <c r="AY26" s="142"/>
       <c r="AZ26" s="9"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12348,87 +12348,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:AY20"/>
     <mergeCell ref="K21:P21"/>
@@ -12445,6 +12364,87 @@
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12476,89 +12476,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="111" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="111" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="111"/>
+      <c r="AY1" s="112"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -12599,78 +12599,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="120"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="119" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="125" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="119" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="121"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -15262,11 +15262,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -15279,6 +15274,11 @@
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15302,7 +15302,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15311,89 +15311,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="111" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="111" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="111"/>
+      <c r="AY1" s="112"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -15434,78 +15434,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="120"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="119" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="125" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="119" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="121"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -21318,6 +21318,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -21330,11 +21335,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21367,89 +21367,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="111" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="111" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="111"/>
+      <c r="AY1" s="112"/>
       <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
@@ -21490,78 +21490,78 @@
       <c r="AP2" s="115"/>
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
       <c r="AX2" s="115"/>
       <c r="AY2" s="115"/>
-      <c r="AZ2" s="120"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="119" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="125" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="119" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
       <c r="AG3" s="117"/>
       <c r="AH3" s="117"/>
       <c r="AI3" s="117"/>
       <c r="AJ3" s="117"/>
       <c r="AK3" s="117"/>
       <c r="AL3" s="117"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="121"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -26805,11 +26805,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -26822,6 +26817,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -26843,9 +26843,7 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26906,9 +26904,7 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
   <cols>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -15,8 +15,8 @@
     <sheet name="work" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション構成図!$A$1:$AZ$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス構成図!$A$1:$AZ$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション構成図!$A$1:$AZ$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス構成図!$A$1:$AZ$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">プロジェクト構成図!$A$1:$AZ$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">設定情報!$A$1</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>新規作成</t>
     <rPh sb="0" eb="2">
@@ -684,61 +684,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザに情報を表示し、ユーザの入力を解釈する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザの入力情報を受け取り、業務処理を呼び出す。</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務に関する処理を行う。</t>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面、帳票を表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OracleやMySQL等にアクセスする。</t>
     <rPh sb="12" eb="13">
       <t>トウ</t>
@@ -1129,6 +1074,156 @@
   <si>
     <t>Webアプリケーション構成図</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面(html)や帳票(pdf)、データ(csv, json, xml)を表現する層。
+リクエストの発信元、レスポンスの返却先を表すものは全てビュー層となる。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロントからのリクエスト、およびフロントへのレスポンスのハンドリングのみを行う層。
+画面（ビュー層）からユーザの入力情報を受け取り、業務処理（ドメイン層）を呼び出し、画面（ビュー層）に結果を返却する役割を持つ。</t>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務に関する処理を行う。
+リクエストやレスポンスに依存したような処理や、永続化処理はこのレイヤでは行わない。
+　※リクエスト/レスポンスはアプリケーション層にのみ依存させる。
+　※永続化処理はデータベース層で行う。</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>エイゾク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳票。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Json, xmlファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSV, PDFファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1809,7 +1904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1980,15 +2075,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2043,6 +2129,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,132 +2163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2223,8 +2201,149 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4965,14 +5084,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>88622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:colOff>210668</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67982</xdr:rowOff>
     </xdr:to>
@@ -4983,8 +5102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5948078" y="3618475"/>
-          <a:ext cx="1075765" cy="483625"/>
+          <a:off x="5883090" y="3618475"/>
+          <a:ext cx="1320049" cy="483625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5026,14 +5145,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>135078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:colOff>210668</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>119534</xdr:rowOff>
     </xdr:to>
@@ -5044,8 +5163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5948078" y="4505372"/>
-          <a:ext cx="1075765" cy="488721"/>
+          <a:off x="5883090" y="4505372"/>
+          <a:ext cx="1320049" cy="488721"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5386,8 +5505,8 @@
       <xdr:rowOff>78588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>162346</xdr:rowOff>
     </xdr:to>
@@ -5401,8 +5520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5169976" y="3082185"/>
-          <a:ext cx="756111" cy="800093"/>
+          <a:off x="5137482" y="3114679"/>
+          <a:ext cx="756111" cy="735105"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5440,8 +5559,8 @@
       <xdr:rowOff>78589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31371</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>43262</xdr:rowOff>
     </xdr:to>
@@ -5455,8 +5574,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4725253" y="3526908"/>
-          <a:ext cx="1645556" cy="800093"/>
+          <a:off x="4692759" y="3559402"/>
+          <a:ext cx="1645556" cy="735105"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5545,13 +5664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>31373</xdr:colOff>
+      <xdr:colOff>88527</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>67982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>31373</xdr:colOff>
+      <xdr:colOff>88527</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>135078</xdr:rowOff>
     </xdr:to>
@@ -5565,7 +5684,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6485961" y="4102100"/>
+          <a:off x="6543115" y="4102100"/>
           <a:ext cx="0" cy="403272"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5600,7 +5719,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:colOff>210668</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>162347</xdr:rowOff>
     </xdr:from>
@@ -5620,8 +5739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7023843" y="3860288"/>
-          <a:ext cx="1080244" cy="231966"/>
+          <a:off x="7203139" y="3860288"/>
+          <a:ext cx="900948" cy="231966"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5657,7 +5776,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31372</xdr:colOff>
+      <xdr:colOff>210668</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>134408</xdr:rowOff>
     </xdr:from>
@@ -5677,8 +5796,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7626347" y="3734110"/>
-          <a:ext cx="413120" cy="1618127"/>
+          <a:off x="7715995" y="3823758"/>
+          <a:ext cx="413120" cy="1438831"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10435,7 +10554,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7203"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7213"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10782,201 +10901,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="110"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="114" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115" t="str">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="113">
         <v>42608</v>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="118" t="s">
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="116" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="116" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="118"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
@@ -11144,1098 +11263,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="92" t="s">
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="94"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
+      <c r="AX7" s="124"/>
+      <c r="AY7" s="125"/>
       <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="108"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="108"/>
-      <c r="AM8" s="108"/>
-      <c r="AN8" s="108"/>
-      <c r="AO8" s="108"/>
-      <c r="AP8" s="108"/>
-      <c r="AQ8" s="108"/>
-      <c r="AR8" s="108"/>
-      <c r="AS8" s="108"/>
-      <c r="AT8" s="108"/>
-      <c r="AU8" s="108"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="108"/>
-      <c r="AY8" s="109"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="137"/>
+      <c r="AH8" s="137"/>
+      <c r="AI8" s="137"/>
+      <c r="AJ8" s="137"/>
+      <c r="AK8" s="137"/>
+      <c r="AL8" s="137"/>
+      <c r="AM8" s="137"/>
+      <c r="AN8" s="137"/>
+      <c r="AO8" s="137"/>
+      <c r="AP8" s="137"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="137"/>
+      <c r="AS8" s="137"/>
+      <c r="AT8" s="137"/>
+      <c r="AU8" s="137"/>
+      <c r="AV8" s="137"/>
+      <c r="AW8" s="137"/>
+      <c r="AX8" s="137"/>
+      <c r="AY8" s="138"/>
       <c r="AZ8" s="11"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="83">
+      <c r="B9" s="86">
         <v>1</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89">
         <v>42604</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="98" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="111" t="s">
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="100"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="85"/>
       <c r="AZ9" s="11"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="100"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="85"/>
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="100"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="85"/>
       <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="100"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="85"/>
       <c r="AZ12" s="11"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="100"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="85"/>
       <c r="AZ13" s="11"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="100"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="85"/>
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="99"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="100"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="85"/>
       <c r="AZ15" s="11"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="99"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="100"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="85"/>
       <c r="AZ16" s="11"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="99"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="99"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="100"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="85"/>
       <c r="AZ17" s="11"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="99"/>
-      <c r="AS18" s="99"/>
-      <c r="AT18" s="99"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="99"/>
-      <c r="AY18" s="100"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="85"/>
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="99"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="99"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="100"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="85"/>
       <c r="AZ19" s="11"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="100"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="85"/>
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="99"/>
-      <c r="AN21" s="99"/>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="99"/>
-      <c r="AQ21" s="99"/>
-      <c r="AR21" s="99"/>
-      <c r="AS21" s="99"/>
-      <c r="AT21" s="99"/>
-      <c r="AU21" s="99"/>
-      <c r="AV21" s="99"/>
-      <c r="AW21" s="99"/>
-      <c r="AX21" s="99"/>
-      <c r="AY21" s="100"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="85"/>
       <c r="AZ21" s="11"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="99"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="100"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
+      <c r="AS22" s="84"/>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="85"/>
       <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="99"/>
-      <c r="AN23" s="99"/>
-      <c r="AO23" s="99"/>
-      <c r="AP23" s="99"/>
-      <c r="AQ23" s="99"/>
-      <c r="AR23" s="99"/>
-      <c r="AS23" s="99"/>
-      <c r="AT23" s="99"/>
-      <c r="AU23" s="99"/>
-      <c r="AV23" s="99"/>
-      <c r="AW23" s="99"/>
-      <c r="AX23" s="99"/>
-      <c r="AY23" s="100"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="85"/>
       <c r="AZ23" s="11"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
-      <c r="AN24" s="99"/>
-      <c r="AO24" s="99"/>
-      <c r="AP24" s="99"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="99"/>
-      <c r="AS24" s="99"/>
-      <c r="AT24" s="99"/>
-      <c r="AU24" s="99"/>
-      <c r="AV24" s="99"/>
-      <c r="AW24" s="99"/>
-      <c r="AX24" s="99"/>
-      <c r="AY24" s="100"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="85"/>
       <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="99"/>
-      <c r="AN25" s="99"/>
-      <c r="AO25" s="99"/>
-      <c r="AP25" s="99"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="99"/>
-      <c r="AS25" s="99"/>
-      <c r="AT25" s="99"/>
-      <c r="AU25" s="99"/>
-      <c r="AV25" s="99"/>
-      <c r="AW25" s="99"/>
-      <c r="AX25" s="99"/>
-      <c r="AY25" s="100"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="85"/>
       <c r="AZ25" s="11"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
-      <c r="AL26" s="141"/>
-      <c r="AM26" s="141"/>
-      <c r="AN26" s="141"/>
-      <c r="AO26" s="141"/>
-      <c r="AP26" s="141"/>
-      <c r="AQ26" s="141"/>
-      <c r="AR26" s="141"/>
-      <c r="AS26" s="141"/>
-      <c r="AT26" s="141"/>
-      <c r="AU26" s="141"/>
-      <c r="AV26" s="141"/>
-      <c r="AW26" s="141"/>
-      <c r="AX26" s="141"/>
-      <c r="AY26" s="142"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="102"/>
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="102"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="102"/>
+      <c r="AO26" s="102"/>
+      <c r="AP26" s="102"/>
+      <c r="AQ26" s="102"/>
+      <c r="AR26" s="102"/>
+      <c r="AS26" s="102"/>
+      <c r="AT26" s="102"/>
+      <c r="AU26" s="102"/>
+      <c r="AV26" s="102"/>
+      <c r="AW26" s="102"/>
+      <c r="AX26" s="102"/>
+      <c r="AY26" s="103"/>
       <c r="AZ26" s="9"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12348,6 +12467,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:AY20"/>
     <mergeCell ref="K21:P21"/>
@@ -12364,87 +12564,6 @@
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12462,7 +12581,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ54"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -12476,201 +12595,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="143"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="140"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="114" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115" t="str">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="113">
         <v>42608</v>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="118" t="s">
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="116" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="116" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="118"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -14372,182 +14491,180 @@
       <c r="AY38" s="26"/>
       <c r="AZ38" s="25"/>
     </row>
-    <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="35" t="s">
-        <v>111</v>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="150" t="s">
+        <v>149</v>
       </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="37"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="142"/>
+      <c r="P39" s="142"/>
+      <c r="Q39" s="142"/>
+      <c r="R39" s="142"/>
+      <c r="S39" s="142"/>
+      <c r="T39" s="142"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="142"/>
+      <c r="W39" s="142"/>
+      <c r="X39" s="142"/>
+      <c r="Y39" s="142"/>
+      <c r="Z39" s="142"/>
+      <c r="AA39" s="142"/>
+      <c r="AB39" s="142"/>
+      <c r="AC39" s="142"/>
+      <c r="AD39" s="142"/>
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="141"/>
+      <c r="AG39" s="142"/>
+      <c r="AH39" s="142"/>
+      <c r="AI39" s="142"/>
+      <c r="AJ39" s="142"/>
+      <c r="AK39" s="142"/>
+      <c r="AL39" s="142"/>
+      <c r="AM39" s="142"/>
+      <c r="AN39" s="142"/>
+      <c r="AO39" s="142"/>
+      <c r="AP39" s="142"/>
+      <c r="AQ39" s="142"/>
+      <c r="AR39" s="142"/>
+      <c r="AS39" s="142"/>
+      <c r="AT39" s="142"/>
+      <c r="AU39" s="142"/>
+      <c r="AV39" s="142"/>
+      <c r="AW39" s="143"/>
       <c r="AX39" s="26"/>
       <c r="AY39" s="26"/>
       <c r="AZ39" s="25"/>
     </row>
-    <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" s="21" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="38" t="s">
-        <v>112</v>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="151" t="s">
+        <v>150</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="39" t="s">
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="145"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="145"/>
+      <c r="AC40" s="145"/>
+      <c r="AD40" s="145"/>
+      <c r="AE40" s="146"/>
+      <c r="AF40" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="39"/>
-      <c r="AM40" s="39"/>
-      <c r="AN40" s="39"/>
-      <c r="AO40" s="39"/>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="39"/>
-      <c r="AR40" s="39"/>
-      <c r="AS40" s="39"/>
-      <c r="AT40" s="39"/>
-      <c r="AU40" s="39"/>
-      <c r="AV40" s="39"/>
-      <c r="AW40" s="40"/>
+      <c r="AG40" s="145"/>
+      <c r="AH40" s="145"/>
+      <c r="AI40" s="145"/>
+      <c r="AJ40" s="145"/>
+      <c r="AK40" s="145"/>
+      <c r="AL40" s="145"/>
+      <c r="AM40" s="145"/>
+      <c r="AN40" s="145"/>
+      <c r="AO40" s="145"/>
+      <c r="AP40" s="145"/>
+      <c r="AQ40" s="145"/>
+      <c r="AR40" s="145"/>
+      <c r="AS40" s="145"/>
+      <c r="AT40" s="145"/>
+      <c r="AU40" s="145"/>
+      <c r="AV40" s="145"/>
+      <c r="AW40" s="146"/>
       <c r="AX40" s="26"/>
       <c r="AY40" s="26"/>
       <c r="AZ40" s="25"/>
     </row>
-    <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="38" t="s">
-        <v>113</v>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="151" t="s">
+        <v>151</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="39" t="s">
-        <v>116</v>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="145"/>
+      <c r="Y41" s="145"/>
+      <c r="Z41" s="145"/>
+      <c r="AA41" s="145"/>
+      <c r="AB41" s="145"/>
+      <c r="AC41" s="145"/>
+      <c r="AD41" s="145"/>
+      <c r="AE41" s="146"/>
+      <c r="AF41" s="144" t="s">
+        <v>112</v>
       </c>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39"/>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
-      <c r="AW41" s="40"/>
+      <c r="AG41" s="145"/>
+      <c r="AH41" s="145"/>
+      <c r="AI41" s="145"/>
+      <c r="AJ41" s="145"/>
+      <c r="AK41" s="145"/>
+      <c r="AL41" s="145"/>
+      <c r="AM41" s="145"/>
+      <c r="AN41" s="145"/>
+      <c r="AO41" s="145"/>
+      <c r="AP41" s="145"/>
+      <c r="AQ41" s="145"/>
+      <c r="AR41" s="145"/>
+      <c r="AS41" s="145"/>
+      <c r="AT41" s="145"/>
+      <c r="AU41" s="145"/>
+      <c r="AV41" s="145"/>
+      <c r="AW41" s="146"/>
       <c r="AX41" s="26"/>
       <c r="AY41" s="26"/>
       <c r="AZ41" s="25"/>
@@ -14555,59 +14672,59 @@
     <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="41" t="s">
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="42" t="s">
-        <v>115</v>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="148"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="148"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
+      <c r="AD42" s="148"/>
+      <c r="AE42" s="149"/>
+      <c r="AF42" s="147" t="s">
+        <v>111</v>
       </c>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="43"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="148"/>
+      <c r="AI42" s="148"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="148"/>
+      <c r="AL42" s="148"/>
+      <c r="AM42" s="148"/>
+      <c r="AN42" s="148"/>
+      <c r="AO42" s="148"/>
+      <c r="AP42" s="148"/>
+      <c r="AQ42" s="148"/>
+      <c r="AR42" s="148"/>
+      <c r="AS42" s="148"/>
+      <c r="AT42" s="148"/>
+      <c r="AU42" s="148"/>
+      <c r="AV42" s="148"/>
+      <c r="AW42" s="149"/>
       <c r="AX42" s="26"/>
       <c r="AY42" s="26"/>
       <c r="AZ42" s="25"/>
@@ -14828,440 +14945,78 @@
       <c r="AY46" s="26"/>
       <c r="AZ46" s="25"/>
     </row>
-    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="AO47" s="26"/>
-      <c r="AP47" s="26"/>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="26"/>
-      <c r="AS47" s="26"/>
-      <c r="AT47" s="26"/>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26"/>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="25"/>
-    </row>
-    <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="26"/>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-      <c r="AV48" s="26"/>
-      <c r="AW48" s="26"/>
-      <c r="AX48" s="26"/>
-      <c r="AY48" s="26"/>
-      <c r="AZ48" s="25"/>
-    </row>
-    <row r="49" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="26"/>
-      <c r="AN49" s="26"/>
-      <c r="AO49" s="26"/>
-      <c r="AP49" s="26"/>
-      <c r="AQ49" s="26"/>
-      <c r="AR49" s="26"/>
-      <c r="AS49" s="26"/>
-      <c r="AT49" s="26"/>
-      <c r="AU49" s="26"/>
-      <c r="AV49" s="26"/>
-      <c r="AW49" s="26"/>
-      <c r="AX49" s="26"/>
-      <c r="AY49" s="26"/>
-      <c r="AZ49" s="25"/>
-    </row>
-    <row r="50" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="26"/>
-      <c r="AP50" s="26"/>
-      <c r="AQ50" s="26"/>
-      <c r="AR50" s="26"/>
-      <c r="AS50" s="26"/>
-      <c r="AT50" s="26"/>
-      <c r="AU50" s="26"/>
-      <c r="AV50" s="26"/>
-      <c r="AW50" s="26"/>
-      <c r="AX50" s="26"/>
-      <c r="AY50" s="26"/>
-      <c r="AZ50" s="25"/>
-    </row>
-    <row r="51" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26"/>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26"/>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="26"/>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26"/>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="25"/>
-    </row>
-    <row r="52" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="26"/>
-      <c r="AL52" s="26"/>
-      <c r="AM52" s="26"/>
-      <c r="AN52" s="26"/>
-      <c r="AO52" s="26"/>
-      <c r="AP52" s="26"/>
-      <c r="AQ52" s="26"/>
-      <c r="AR52" s="26"/>
-      <c r="AS52" s="26"/>
-      <c r="AT52" s="26"/>
-      <c r="AU52" s="26"/>
-      <c r="AV52" s="26"/>
-      <c r="AW52" s="26"/>
-      <c r="AX52" s="26"/>
-      <c r="AY52" s="26"/>
-      <c r="AZ52" s="25"/>
-    </row>
-    <row r="53" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="26"/>
-      <c r="AL53" s="26"/>
-      <c r="AM53" s="26"/>
-      <c r="AN53" s="26"/>
-      <c r="AO53" s="26"/>
-      <c r="AP53" s="26"/>
-      <c r="AQ53" s="26"/>
-      <c r="AR53" s="26"/>
-      <c r="AS53" s="26"/>
-      <c r="AT53" s="26"/>
-      <c r="AU53" s="26"/>
-      <c r="AV53" s="26"/>
-      <c r="AW53" s="26"/>
-      <c r="AX53" s="26"/>
-      <c r="AY53" s="26"/>
-      <c r="AZ53" s="25"/>
-    </row>
-    <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="23"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="23"/>
-      <c r="AR54" s="23"/>
-      <c r="AS54" s="23"/>
-      <c r="AT54" s="23"/>
-      <c r="AU54" s="23"/>
-      <c r="AV54" s="23"/>
-      <c r="AW54" s="23"/>
-      <c r="AX54" s="23"/>
-      <c r="AY54" s="23"/>
-      <c r="AZ54" s="22"/>
+    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="AX47" s="23"/>
+      <c r="AY47" s="23"/>
+      <c r="AZ47" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="29">
+    <mergeCell ref="AF39:AW39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J40:AE40"/>
+    <mergeCell ref="J41:AE41"/>
+    <mergeCell ref="J42:AE42"/>
+    <mergeCell ref="AF40:AW40"/>
+    <mergeCell ref="AF41:AW41"/>
+    <mergeCell ref="AF42:AW42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="J39:AE39"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -15275,10 +15030,6 @@
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15297,7 +15048,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ111"/>
+  <dimension ref="A1:AZ107"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -15311,201 +15062,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="143"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="140"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="114" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115" t="str">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="113">
         <v>42608</v>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="118" t="s">
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="116" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="116" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="118"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -15564,7 +15315,7 @@
     <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -17186,7 +16937,7 @@
     <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -17304,7 +17055,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -17366,231 +17117,231 @@
       <c r="F38" s="63"/>
       <c r="G38" s="63"/>
       <c r="H38" s="62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>
       <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="62" t="s">
-        <v>148</v>
+      <c r="L38" s="64"/>
+      <c r="M38" s="35" t="s">
+        <v>144</v>
       </c>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="63"/>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="63"/>
-      <c r="AG38" s="63"/>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
-      <c r="AK38" s="63"/>
-      <c r="AL38" s="63"/>
-      <c r="AM38" s="63"/>
-      <c r="AN38" s="64"/>
-      <c r="AO38" s="63"/>
-      <c r="AP38" s="63"/>
-      <c r="AQ38" s="63"/>
-      <c r="AR38" s="63"/>
-      <c r="AS38" s="63"/>
-      <c r="AT38" s="63"/>
-      <c r="AU38" s="63"/>
-      <c r="AV38" s="63"/>
-      <c r="AW38" s="63"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="64"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="37"/>
       <c r="AZ38" s="25"/>
     </row>
     <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="65" t="s">
-        <v>25</v>
+      <c r="C39" s="60"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="60" t="s">
+        <v>154</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="65" t="s">
-        <v>121</v>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="38" t="s">
+        <v>152</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="67"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="40"/>
       <c r="AZ39" s="25"/>
     </row>
     <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="54" t="s">
-        <v>128</v>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="65" t="s">
+        <v>153</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="56"/>
-      <c r="AO40" s="55" t="s">
-        <v>142</v>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="41" t="s">
+        <v>155</v>
       </c>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="56"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="43"/>
       <c r="AZ40" s="25"/>
     </row>
     <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="57" t="s">
-        <v>122</v>
+      <c r="C41" s="62" t="s">
+        <v>25</v>
       </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="57" t="s">
-        <v>139</v>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="62" t="s">
+        <v>117</v>
       </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="59"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="59"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="64"/>
+      <c r="AO41" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="63"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="64"/>
       <c r="AZ41" s="25"/>
     </row>
     <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17607,7 +17358,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="55"/>
       <c r="M42" s="54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N42" s="55"/>
       <c r="O42" s="55"/>
@@ -17636,7 +17387,9 @@
       <c r="AL42" s="55"/>
       <c r="AM42" s="55"/>
       <c r="AN42" s="56"/>
-      <c r="AO42" s="55"/>
+      <c r="AO42" s="55" t="s">
+        <v>138</v>
+      </c>
       <c r="AP42" s="55"/>
       <c r="AQ42" s="55"/>
       <c r="AR42" s="55"/>
@@ -17658,14 +17411,14 @@
       <c r="F43" s="26"/>
       <c r="G43" s="61"/>
       <c r="H43" s="57" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I43" s="58"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="58"/>
       <c r="M43" s="57" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N43" s="58"/>
       <c r="O43" s="58"/>
@@ -17694,9 +17447,7 @@
       <c r="AL43" s="58"/>
       <c r="AM43" s="58"/>
       <c r="AN43" s="59"/>
-      <c r="AO43" s="58" t="s">
-        <v>135</v>
-      </c>
+      <c r="AO43" s="58"/>
       <c r="AP43" s="58"/>
       <c r="AQ43" s="58"/>
       <c r="AR43" s="58"/>
@@ -17722,10 +17473,10 @@
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
       <c r="L44" s="55"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="55" t="s">
-        <v>127</v>
+      <c r="M44" s="54" t="s">
+        <v>125</v>
       </c>
+      <c r="N44" s="55"/>
       <c r="O44" s="55"/>
       <c r="P44" s="55"/>
       <c r="Q44" s="55"/>
@@ -17752,9 +17503,7 @@
       <c r="AL44" s="55"/>
       <c r="AM44" s="55"/>
       <c r="AN44" s="56"/>
-      <c r="AO44" s="55" t="s">
-        <v>136</v>
-      </c>
+      <c r="AO44" s="55"/>
       <c r="AP44" s="55"/>
       <c r="AQ44" s="55"/>
       <c r="AR44" s="55"/>
@@ -17769,584 +17518,694 @@
     </row>
     <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75" t="s">
-        <v>124</v>
+      <c r="B45" s="26"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="57" t="s">
+        <v>119</v>
       </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="75" t="s">
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="58"/>
+      <c r="AV45" s="58"/>
+      <c r="AW45" s="58"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="25"/>
+    </row>
+    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP46" s="55"/>
+      <c r="AQ46" s="55"/>
+      <c r="AR46" s="55"/>
+      <c r="AS46" s="55"/>
+      <c r="AT46" s="55"/>
+      <c r="AU46" s="55"/>
+      <c r="AV46" s="55"/>
+      <c r="AW46" s="55"/>
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="56"/>
+      <c r="AZ46" s="25"/>
+    </row>
+    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="27"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-      <c r="AK45" s="76"/>
-      <c r="AL45" s="76"/>
-      <c r="AM45" s="76"/>
-      <c r="AN45" s="77"/>
-      <c r="AO45" s="76"/>
-      <c r="AP45" s="76"/>
-      <c r="AQ45" s="76"/>
-      <c r="AR45" s="76"/>
-      <c r="AS45" s="76"/>
-      <c r="AT45" s="76"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="76"/>
-      <c r="AW45" s="76"/>
-      <c r="AX45" s="76"/>
-      <c r="AY45" s="77"/>
-      <c r="AZ45" s="25"/>
-    </row>
-    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="72" t="s">
-        <v>125</v>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="72" t="s">
+        <v>116</v>
       </c>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="72"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="72"/>
-      <c r="AM46" s="72"/>
-      <c r="AN46" s="74"/>
-      <c r="AO46" s="72"/>
-      <c r="AP46" s="72"/>
-      <c r="AQ46" s="72"/>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72"/>
-      <c r="AY46" s="74"/>
-      <c r="AZ46" s="25"/>
-    </row>
-    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="81" t="s">
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="73"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="73"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="73"/>
+      <c r="AT47" s="73"/>
+      <c r="AU47" s="73"/>
+      <c r="AV47" s="73"/>
+      <c r="AW47" s="73"/>
+      <c r="AX47" s="73"/>
+      <c r="AY47" s="74"/>
+      <c r="AZ47" s="25"/>
+    </row>
+    <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="27"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="69"/>
+      <c r="AF48" s="69"/>
+      <c r="AG48" s="69"/>
+      <c r="AH48" s="69"/>
+      <c r="AI48" s="69"/>
+      <c r="AJ48" s="69"/>
+      <c r="AK48" s="69"/>
+      <c r="AL48" s="69"/>
+      <c r="AM48" s="69"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="69"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="69"/>
+      <c r="AR48" s="69"/>
+      <c r="AS48" s="69"/>
+      <c r="AT48" s="69"/>
+      <c r="AU48" s="69"/>
+      <c r="AV48" s="69"/>
+      <c r="AW48" s="69"/>
+      <c r="AX48" s="69"/>
+      <c r="AY48" s="71"/>
+      <c r="AZ48" s="25"/>
+    </row>
+    <row r="49" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="27"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="78"/>
+      <c r="AD49" s="78"/>
+      <c r="AE49" s="78"/>
+      <c r="AF49" s="78"/>
+      <c r="AG49" s="78"/>
+      <c r="AH49" s="78"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="78"/>
+      <c r="AK49" s="78"/>
+      <c r="AL49" s="78"/>
+      <c r="AM49" s="78"/>
+      <c r="AN49" s="79"/>
+      <c r="AO49" s="78"/>
+      <c r="AP49" s="78"/>
+      <c r="AQ49" s="78"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="78"/>
+      <c r="AT49" s="78"/>
+      <c r="AU49" s="78"/>
+      <c r="AV49" s="78"/>
+      <c r="AW49" s="78"/>
+      <c r="AX49" s="78"/>
+      <c r="AY49" s="79"/>
+      <c r="AZ49" s="25"/>
+    </row>
+    <row r="50" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="68"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="81"/>
-      <c r="AM47" s="81"/>
-      <c r="AN47" s="82"/>
-      <c r="AO47" s="81"/>
-      <c r="AP47" s="81"/>
-      <c r="AQ47" s="81"/>
-      <c r="AR47" s="81"/>
-      <c r="AS47" s="81"/>
-      <c r="AT47" s="81"/>
-      <c r="AU47" s="81"/>
-      <c r="AV47" s="81"/>
-      <c r="AW47" s="81"/>
-      <c r="AX47" s="81"/>
-      <c r="AY47" s="82"/>
-      <c r="AZ47" s="25"/>
-    </row>
-    <row r="48" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="65" t="s">
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="66"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-      <c r="Y48" s="66"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="66"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="66"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="66"/>
-      <c r="AQ48" s="66"/>
-      <c r="AR48" s="66"/>
-      <c r="AS48" s="66"/>
-      <c r="AT48" s="66"/>
-      <c r="AU48" s="66"/>
-      <c r="AV48" s="66"/>
-      <c r="AW48" s="66"/>
-      <c r="AX48" s="66"/>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="78"/>
-    </row>
-    <row r="49" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-      <c r="AC49" s="55"/>
-      <c r="AD49" s="55"/>
-      <c r="AE49" s="55"/>
-      <c r="AF49" s="55"/>
-      <c r="AG49" s="55"/>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="55"/>
-      <c r="AP49" s="55"/>
-      <c r="AQ49" s="55"/>
-      <c r="AR49" s="55"/>
-      <c r="AS49" s="55"/>
-      <c r="AT49" s="55"/>
-      <c r="AU49" s="55"/>
-      <c r="AV49" s="55"/>
-      <c r="AW49" s="55"/>
-      <c r="AX49" s="55"/>
-      <c r="AY49" s="56"/>
-      <c r="AZ49" s="78"/>
-    </row>
-    <row r="50" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
-      <c r="AQ50" s="39"/>
-      <c r="AR50" s="39"/>
-      <c r="AS50" s="39"/>
-      <c r="AT50" s="39"/>
-      <c r="AU50" s="39"/>
-      <c r="AV50" s="39"/>
-      <c r="AW50" s="39"/>
-      <c r="AX50" s="39"/>
-      <c r="AY50" s="40"/>
-      <c r="AZ50" s="78"/>
-    </row>
-    <row r="51" spans="1:52" s="79" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="71"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="64"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="64"/>
+      <c r="AZ50" s="75"/>
+    </row>
+    <row r="51" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="68"/>
       <c r="B51" s="26"/>
       <c r="C51" s="60"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39"/>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="39"/>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39"/>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
-      <c r="AW51" s="39"/>
-      <c r="AX51" s="39"/>
-      <c r="AY51" s="40"/>
-      <c r="AZ51" s="78"/>
-    </row>
-    <row r="52" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="41" t="s">
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="41" t="s">
-        <v>144</v>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="55"/>
+      <c r="AJ51" s="55"/>
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="55"/>
+      <c r="AX51" s="55"/>
+      <c r="AY51" s="56"/>
+      <c r="AZ51" s="75"/>
+    </row>
+    <row r="52" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="68"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="38" t="s">
+        <v>128</v>
       </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="42"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="43"/>
-      <c r="AO52" s="42"/>
-      <c r="AP52" s="42"/>
-      <c r="AQ52" s="42"/>
-      <c r="AR52" s="42"/>
-      <c r="AS52" s="42"/>
-      <c r="AT52" s="42"/>
-      <c r="AU52" s="42"/>
-      <c r="AV52" s="42"/>
-      <c r="AW52" s="42"/>
-      <c r="AX52" s="42"/>
-      <c r="AY52" s="43"/>
-      <c r="AZ52" s="25"/>
-    </row>
-    <row r="53" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="39"/>
+      <c r="AP52" s="39"/>
+      <c r="AQ52" s="39"/>
+      <c r="AR52" s="39"/>
+      <c r="AS52" s="39"/>
+      <c r="AT52" s="39"/>
+      <c r="AU52" s="39"/>
+      <c r="AV52" s="39"/>
+      <c r="AW52" s="39"/>
+      <c r="AX52" s="39"/>
+      <c r="AY52" s="40"/>
+      <c r="AZ52" s="75"/>
+    </row>
+    <row r="53" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="68"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="68" t="s">
+      <c r="C53" s="60"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="69"/>
-      <c r="AH53" s="69"/>
-      <c r="AI53" s="69"/>
-      <c r="AJ53" s="69"/>
-      <c r="AK53" s="69"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="69"/>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="69"/>
-      <c r="AP53" s="69"/>
-      <c r="AQ53" s="69"/>
-      <c r="AR53" s="69"/>
-      <c r="AS53" s="69"/>
-      <c r="AT53" s="69"/>
-      <c r="AU53" s="69"/>
-      <c r="AV53" s="69"/>
-      <c r="AW53" s="69"/>
-      <c r="AX53" s="69"/>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="25"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="39"/>
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="39"/>
+      <c r="AT53" s="39"/>
+      <c r="AU53" s="39"/>
+      <c r="AV53" s="39"/>
+      <c r="AW53" s="39"/>
+      <c r="AX53" s="39"/>
+      <c r="AY53" s="40"/>
+      <c r="AZ53" s="75"/>
     </row>
     <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="26"/>
-      <c r="AO54" s="26"/>
-      <c r="AP54" s="26"/>
-      <c r="AQ54" s="26"/>
-      <c r="AR54" s="26"/>
-      <c r="AS54" s="26"/>
-      <c r="AT54" s="26"/>
-      <c r="AU54" s="26"/>
-      <c r="AV54" s="26"/>
-      <c r="AW54" s="26"/>
-      <c r="AX54" s="26"/>
-      <c r="AY54" s="26"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="43"/>
+      <c r="AO54" s="42"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="42"/>
+      <c r="AR54" s="42"/>
+      <c r="AS54" s="42"/>
+      <c r="AT54" s="42"/>
+      <c r="AU54" s="42"/>
+      <c r="AV54" s="42"/>
+      <c r="AW54" s="42"/>
+      <c r="AX54" s="42"/>
+      <c r="AY54" s="43"/>
       <c r="AZ54" s="25"/>
     </row>
     <row r="55" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="66"/>
+      <c r="Z55" s="66"/>
+      <c r="AA55" s="66"/>
+      <c r="AB55" s="66"/>
+      <c r="AC55" s="66"/>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="66"/>
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
+      <c r="AK55" s="66"/>
+      <c r="AL55" s="66"/>
+      <c r="AM55" s="66"/>
+      <c r="AN55" s="67"/>
+      <c r="AO55" s="66"/>
+      <c r="AP55" s="66"/>
+      <c r="AQ55" s="66"/>
+      <c r="AR55" s="66"/>
+      <c r="AS55" s="66"/>
+      <c r="AT55" s="66"/>
+      <c r="AU55" s="66"/>
+      <c r="AV55" s="66"/>
+      <c r="AW55" s="66"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="67"/>
       <c r="AZ55" s="25"/>
     </row>
     <row r="56" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="26"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="26"/>
+      <c r="AP56" s="26"/>
+      <c r="AQ56" s="26"/>
+      <c r="AR56" s="26"/>
+      <c r="AS56" s="26"/>
+      <c r="AT56" s="26"/>
+      <c r="AU56" s="26"/>
+      <c r="AV56" s="26"/>
+      <c r="AW56" s="26"/>
+      <c r="AX56" s="26"/>
+      <c r="AY56" s="26"/>
       <c r="AZ56" s="25"/>
     </row>
     <row r="57" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18459,7 +18318,7 @@
     <row r="59" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -20782,8 +20641,6 @@
     </row>
     <row r="102" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
@@ -20836,8 +20693,6 @@
     </row>
     <row r="103" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -20998,6 +20853,8 @@
     </row>
     <row r="106" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
@@ -21048,281 +20905,62 @@
       <c r="AY106" s="26"/>
       <c r="AZ106" s="25"/>
     </row>
-    <row r="107" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="26"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="26"/>
-      <c r="AH107" s="26"/>
-      <c r="AI107" s="26"/>
-      <c r="AJ107" s="26"/>
-      <c r="AK107" s="26"/>
-      <c r="AL107" s="26"/>
-      <c r="AM107" s="26"/>
-      <c r="AN107" s="26"/>
-      <c r="AO107" s="26"/>
-      <c r="AP107" s="26"/>
-      <c r="AQ107" s="26"/>
-      <c r="AR107" s="26"/>
-      <c r="AS107" s="26"/>
-      <c r="AT107" s="26"/>
-      <c r="AU107" s="26"/>
-      <c r="AV107" s="26"/>
-      <c r="AW107" s="26"/>
-      <c r="AX107" s="26"/>
-      <c r="AY107" s="26"/>
-      <c r="AZ107" s="25"/>
-    </row>
-    <row r="108" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="27"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26"/>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26"/>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26"/>
-      <c r="AM108" s="26"/>
-      <c r="AN108" s="26"/>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26"/>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="26"/>
-      <c r="AS108" s="26"/>
-      <c r="AT108" s="26"/>
-      <c r="AU108" s="26"/>
-      <c r="AV108" s="26"/>
-      <c r="AW108" s="26"/>
-      <c r="AX108" s="26"/>
-      <c r="AY108" s="26"/>
-      <c r="AZ108" s="25"/>
-    </row>
-    <row r="109" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="27"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
-      <c r="Z109" s="26"/>
-      <c r="AA109" s="26"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="26"/>
-      <c r="AD109" s="26"/>
-      <c r="AE109" s="26"/>
-      <c r="AF109" s="26"/>
-      <c r="AG109" s="26"/>
-      <c r="AH109" s="26"/>
-      <c r="AI109" s="26"/>
-      <c r="AJ109" s="26"/>
-      <c r="AK109" s="26"/>
-      <c r="AL109" s="26"/>
-      <c r="AM109" s="26"/>
-      <c r="AN109" s="26"/>
-      <c r="AO109" s="26"/>
-      <c r="AP109" s="26"/>
-      <c r="AQ109" s="26"/>
-      <c r="AR109" s="26"/>
-      <c r="AS109" s="26"/>
-      <c r="AT109" s="26"/>
-      <c r="AU109" s="26"/>
-      <c r="AV109" s="26"/>
-      <c r="AW109" s="26"/>
-      <c r="AX109" s="26"/>
-      <c r="AY109" s="26"/>
-      <c r="AZ109" s="25"/>
-    </row>
-    <row r="110" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="27"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
-      <c r="T110" s="26"/>
-      <c r="U110" s="26"/>
-      <c r="V110" s="26"/>
-      <c r="W110" s="26"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="26"/>
-      <c r="Z110" s="26"/>
-      <c r="AA110" s="26"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="26"/>
-      <c r="AD110" s="26"/>
-      <c r="AE110" s="26"/>
-      <c r="AF110" s="26"/>
-      <c r="AG110" s="26"/>
-      <c r="AH110" s="26"/>
-      <c r="AI110" s="26"/>
-      <c r="AJ110" s="26"/>
-      <c r="AK110" s="26"/>
-      <c r="AL110" s="26"/>
-      <c r="AM110" s="26"/>
-      <c r="AN110" s="26"/>
-      <c r="AO110" s="26"/>
-      <c r="AP110" s="26"/>
-      <c r="AQ110" s="26"/>
-      <c r="AR110" s="26"/>
-      <c r="AS110" s="26"/>
-      <c r="AT110" s="26"/>
-      <c r="AU110" s="26"/>
-      <c r="AV110" s="26"/>
-      <c r="AW110" s="26"/>
-      <c r="AX110" s="26"/>
-      <c r="AY110" s="26"/>
-      <c r="AZ110" s="25"/>
-    </row>
-    <row r="111" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
-      <c r="V111" s="23"/>
-      <c r="W111" s="23"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="23"/>
-      <c r="Z111" s="23"/>
-      <c r="AA111" s="23"/>
-      <c r="AB111" s="23"/>
-      <c r="AC111" s="23"/>
-      <c r="AD111" s="23"/>
-      <c r="AE111" s="23"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="23"/>
-      <c r="AH111" s="23"/>
-      <c r="AI111" s="23"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="23"/>
-      <c r="AL111" s="23"/>
-      <c r="AM111" s="23"/>
-      <c r="AN111" s="23"/>
-      <c r="AO111" s="23"/>
-      <c r="AP111" s="23"/>
-      <c r="AQ111" s="23"/>
-      <c r="AR111" s="23"/>
-      <c r="AS111" s="23"/>
-      <c r="AT111" s="23"/>
-      <c r="AU111" s="23"/>
-      <c r="AV111" s="23"/>
-      <c r="AW111" s="23"/>
-      <c r="AX111" s="23"/>
-      <c r="AY111" s="23"/>
-      <c r="AZ111" s="22"/>
+    <row r="107" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="23"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="23"/>
+      <c r="S107" s="23"/>
+      <c r="T107" s="23"/>
+      <c r="U107" s="23"/>
+      <c r="V107" s="23"/>
+      <c r="W107" s="23"/>
+      <c r="X107" s="23"/>
+      <c r="Y107" s="23"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="23"/>
+      <c r="AF107" s="23"/>
+      <c r="AG107" s="23"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="23"/>
+      <c r="AJ107" s="23"/>
+      <c r="AK107" s="23"/>
+      <c r="AL107" s="23"/>
+      <c r="AM107" s="23"/>
+      <c r="AN107" s="23"/>
+      <c r="AO107" s="23"/>
+      <c r="AP107" s="23"/>
+      <c r="AQ107" s="23"/>
+      <c r="AR107" s="23"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="23"/>
+      <c r="AU107" s="23"/>
+      <c r="AV107" s="23"/>
+      <c r="AW107" s="23"/>
+      <c r="AX107" s="23"/>
+      <c r="AY107" s="23"/>
+      <c r="AZ107" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -21335,6 +20973,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21367,201 +21010,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="112" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="130" t="str">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="112" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="143"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="140"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="114" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115" t="str">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="113">
         <v>42608</v>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="118" t="s">
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="115"/>
-      <c r="AZ2" s="119"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="116" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="116" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="120"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="118"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -26805,6 +26448,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -26817,11 +26465,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -26882,7 +26525,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>新規作成</t>
     <rPh sb="0" eb="2">
@@ -853,28 +853,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Serviceクラス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Entityクラス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Daoクラス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務処理を行うクラス。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -883,10 +862,6 @@
   </si>
   <si>
     <t>Helperクラスを作成する必要は無い。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務仕様に関わる値の整合性チェックも実施する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -999,19 +974,6 @@
       <t>ホジ</t>
     </rPh>
     <rPh sb="45" eb="46">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java→sqlへの呼び出しを行うクラス。</t>
-    <rPh sb="10" eb="11">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1223,6 +1185,74 @@
   </si>
   <si>
     <t>データ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java→sqlへの呼び出しを行うインタフェース。</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Serviceインタフェースの実装クラス</t>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Serviceインタフェース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ServiceImplクラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Daoインタフェース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Daoの実装はDoma2が自動的に行う。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリケーション層からドメイン層への呼び出しを行うインタフェース。</t>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務処理を行う。業務仕様に関わる値の整合性チェックも実施する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1904,7 +1934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2129,23 +2159,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2163,6 +2184,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,117 +2348,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2339,11 +2375,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4557,14 +4596,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94133</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78589</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4573,7 +4612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610102" y="2615457"/>
+          <a:off x="4610102" y="2402543"/>
           <a:ext cx="1075765" cy="488720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4618,14 +4657,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130131</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4634,7 +4673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3854824" y="1658470"/>
+          <a:off x="3854824" y="1445556"/>
           <a:ext cx="1075765" cy="488720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4679,14 +4718,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130131</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4695,7 +4734,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5401236" y="1658470"/>
+          <a:off x="5401236" y="1445556"/>
           <a:ext cx="1075765" cy="488720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4740,14 +4779,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>138954</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>188260</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4756,7 +4795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3635189" y="1344706"/>
+          <a:off x="3635189" y="1131792"/>
           <a:ext cx="3007659" cy="1870770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4796,14 +4835,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>265274</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4812,7 +4851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1075765" y="1344706"/>
+          <a:off x="1075765" y="1131792"/>
           <a:ext cx="2147862" cy="1870770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4852,14 +4891,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62756</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47211</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2386</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4868,14 +4907,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1564340" y="2079815"/>
+          <a:off x="1564340" y="1866901"/>
           <a:ext cx="1075765" cy="488720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent3">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -4883,13 +4922,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -4913,14 +4952,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134473</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100846</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>15688</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4929,7 +4968,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3630708" y="3462611"/>
+          <a:off x="3630708" y="3249697"/>
           <a:ext cx="6604745" cy="1696578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4969,14 +5008,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>235318</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>15683</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4985,7 +5024,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7227789" y="1344706"/>
+          <a:off x="7227789" y="1131792"/>
           <a:ext cx="3007659" cy="1870770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5025,14 +5064,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>80679</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62756</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>80679</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47211</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2386</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5041,14 +5080,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8417855" y="2079815"/>
+          <a:off x="8417855" y="1866901"/>
           <a:ext cx="1075765" cy="488720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent3">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -5056,13 +5095,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -5084,16 +5123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>235325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88622</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>210668</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67982</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>53793</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5102,7 +5141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5883090" y="3618475"/>
+          <a:off x="6533038" y="3403832"/>
           <a:ext cx="1320049" cy="483625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5136,7 +5175,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Service</a:t>
+            <a:t>ServiceImpl</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5145,16 +5184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>235325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>135078</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>210668</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119534</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>53793</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5163,7 +5202,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5883090" y="4505372"/>
+          <a:off x="6533038" y="4292458"/>
           <a:ext cx="1320049" cy="488721"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5213,77 +5252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>35852</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>149953</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>35852</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134407</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="角丸四角形 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8104087" y="3847894"/>
-          <a:ext cx="1075765" cy="488719"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Dao</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219634</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139028</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2317</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5295,7 +5273,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2640105" y="2324175"/>
+          <a:off x="2640105" y="2111261"/>
           <a:ext cx="1969997" cy="535642"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5332,14 +5310,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38104</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130131</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>22414</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94133</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49308</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5351,7 +5329,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5309419" y="1985757"/>
+          <a:off x="5309419" y="1772843"/>
           <a:ext cx="468267" cy="791134"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5389,14 +5367,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>89649</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130131</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38104</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94133</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49308</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5408,7 +5386,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4536213" y="2003685"/>
+          <a:off x="4536213" y="1790771"/>
           <a:ext cx="468267" cy="755278"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5446,14 +5424,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50935</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50935</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5465,7 +5443,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4930589" y="1899906"/>
+          <a:off x="4930589" y="1686992"/>
           <a:ext cx="470647" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5501,27 +5479,27 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38103</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78588</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>235325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162346</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29134</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="102" name="カギ線コネクタ 101"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="2"/>
-          <a:endCxn id="95" idx="1"/>
+          <a:endCxn id="114" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5137482" y="3114679"/>
-          <a:ext cx="756111" cy="735105"/>
+          <a:off x="4900781" y="3138466"/>
+          <a:ext cx="754381" cy="259973"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5555,14 +5533,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78589</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43262</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78449</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5574,8 +5552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4692759" y="3559402"/>
-          <a:ext cx="1645556" cy="735105"/>
+          <a:off x="5017733" y="3021514"/>
+          <a:ext cx="1645556" cy="1385053"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5607,33 +5585,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>35853</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47211</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>80680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>149953</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42067</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="104" name="カギ線コネクタ 103"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="97" idx="0"/>
+          <a:stCxn id="2" idx="0"/>
           <a:endCxn id="94" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8159175" y="3051331"/>
-          <a:ext cx="1279359" cy="313768"/>
+          <a:off x="8256822" y="2704916"/>
+          <a:ext cx="1048211" cy="349622"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 39489"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -5663,16 +5641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>88527</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67982</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200592</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>88527</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>135078</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200592</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5684,8 +5662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543115" y="4102100"/>
-          <a:ext cx="0" cy="403272"/>
+          <a:off x="7193063" y="3887457"/>
+          <a:ext cx="0" cy="405001"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5718,34 +5696,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>210668</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162347</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>53793</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>35852</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58136</xdr:rowOff>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115792</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
-          <a:endCxn id="97" idx="1"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7203139" y="3860288"/>
-          <a:ext cx="900948" cy="231966"/>
+        <a:xfrm flipV="1">
+          <a:off x="7853087" y="3645032"/>
+          <a:ext cx="472882" cy="613"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
           <a:solidFill>
@@ -5775,29 +5751,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>210668</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134408</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>53794</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>35852</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43263</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="107" name="カギ線コネクタ 106"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="97" idx="2"/>
+          <a:stCxn id="2" idx="4"/>
           <a:endCxn id="96" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7715995" y="3823758"/>
-          <a:ext cx="413120" cy="1438831"/>
+          <a:off x="7904309" y="3835011"/>
+          <a:ext cx="650587" cy="753029"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5833,13 +5809,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>136073</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5848,8 +5824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="544287" y="1061357"/>
-          <a:ext cx="10477500" cy="4640036"/>
+          <a:off x="537883" y="1008530"/>
+          <a:ext cx="10355837" cy="4078942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10527,6 +10503,212 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8325969" y="3403832"/>
+          <a:ext cx="560294" cy="482400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="46800" rIns="46800" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dao</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29134</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="円/楕円 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5407958" y="3404444"/>
+          <a:ext cx="755277" cy="482400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="46800" rIns="46800" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="カギ線コネクタ 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="6"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6163235" y="3645644"/>
+          <a:ext cx="369803" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10554,7 +10736,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7213"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$61" spid="_x0000_s7216"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10901,201 +11083,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="108" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="110"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="111" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="113">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="117"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="116" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="122" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="118"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
@@ -11263,1098 +11445,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="123" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="123" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="124"/>
-      <c r="AY7" s="125"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
       <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="137"/>
-      <c r="AH8" s="137"/>
-      <c r="AI8" s="137"/>
-      <c r="AJ8" s="137"/>
-      <c r="AK8" s="137"/>
-      <c r="AL8" s="137"/>
-      <c r="AM8" s="137"/>
-      <c r="AN8" s="137"/>
-      <c r="AO8" s="137"/>
-      <c r="AP8" s="137"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="137"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="137"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="137"/>
-      <c r="AW8" s="137"/>
-      <c r="AX8" s="137"/>
-      <c r="AY8" s="138"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="108"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="109"/>
       <c r="AZ8" s="11"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="86">
+      <c r="B9" s="83">
         <v>1</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86">
         <v>42604</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="129" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="83" t="s">
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="85"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="100"/>
       <c r="AZ9" s="11"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="85"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="100"/>
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="85"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="100"/>
       <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="85"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="100"/>
       <c r="AZ12" s="11"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="100"/>
       <c r="AZ13" s="11"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="85"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="100"/>
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="85"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="99"/>
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="100"/>
       <c r="AZ15" s="11"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="85"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="100"/>
       <c r="AZ16" s="11"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="85"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="100"/>
       <c r="AZ17" s="11"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="85"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="100"/>
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="85"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="100"/>
       <c r="AZ19" s="11"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="85"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="100"/>
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="85"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="99"/>
+      <c r="AY21" s="100"/>
       <c r="AZ21" s="11"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="85"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="100"/>
       <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="84"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="84"/>
-      <c r="AU23" s="84"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
-      <c r="AX23" s="84"/>
-      <c r="AY23" s="85"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="100"/>
       <c r="AZ23" s="11"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="85"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="100"/>
       <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="85"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
+      <c r="AU25" s="99"/>
+      <c r="AV25" s="99"/>
+      <c r="AW25" s="99"/>
+      <c r="AX25" s="99"/>
+      <c r="AY25" s="100"/>
       <c r="AZ25" s="11"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="102"/>
-      <c r="AK26" s="102"/>
-      <c r="AL26" s="102"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="102"/>
-      <c r="AT26" s="102"/>
-      <c r="AU26" s="102"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="102"/>
-      <c r="AX26" s="102"/>
-      <c r="AY26" s="103"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="141"/>
+      <c r="AI26" s="141"/>
+      <c r="AJ26" s="141"/>
+      <c r="AK26" s="141"/>
+      <c r="AL26" s="141"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="141"/>
+      <c r="AO26" s="141"/>
+      <c r="AP26" s="141"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="141"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="141"/>
+      <c r="AW26" s="141"/>
+      <c r="AX26" s="141"/>
+      <c r="AY26" s="142"/>
       <c r="AZ26" s="9"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12467,87 +12649,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:AY20"/>
     <mergeCell ref="K21:P21"/>
@@ -12564,6 +12665,87 @@
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12595,201 +12777,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="108" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="140"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="154"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="111" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="113">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="117"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="116" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="122" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="118"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -14494,57 +14676,57 @@
     <row r="39" spans="1:52" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="150" t="s">
-        <v>149</v>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="153" t="s">
+        <v>144</v>
       </c>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="142"/>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="142"/>
-      <c r="R39" s="142"/>
-      <c r="S39" s="142"/>
-      <c r="T39" s="142"/>
-      <c r="U39" s="142"/>
-      <c r="V39" s="142"/>
-      <c r="W39" s="142"/>
-      <c r="X39" s="142"/>
-      <c r="Y39" s="142"/>
-      <c r="Z39" s="142"/>
-      <c r="AA39" s="142"/>
-      <c r="AB39" s="142"/>
-      <c r="AC39" s="142"/>
-      <c r="AD39" s="142"/>
-      <c r="AE39" s="143"/>
-      <c r="AF39" s="141"/>
-      <c r="AG39" s="142"/>
-      <c r="AH39" s="142"/>
-      <c r="AI39" s="142"/>
-      <c r="AJ39" s="142"/>
-      <c r="AK39" s="142"/>
-      <c r="AL39" s="142"/>
-      <c r="AM39" s="142"/>
-      <c r="AN39" s="142"/>
-      <c r="AO39" s="142"/>
-      <c r="AP39" s="142"/>
-      <c r="AQ39" s="142"/>
-      <c r="AR39" s="142"/>
-      <c r="AS39" s="142"/>
-      <c r="AT39" s="142"/>
-      <c r="AU39" s="142"/>
-      <c r="AV39" s="142"/>
-      <c r="AW39" s="143"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="144"/>
+      <c r="T39" s="144"/>
+      <c r="U39" s="144"/>
+      <c r="V39" s="144"/>
+      <c r="W39" s="144"/>
+      <c r="X39" s="144"/>
+      <c r="Y39" s="144"/>
+      <c r="Z39" s="144"/>
+      <c r="AA39" s="144"/>
+      <c r="AB39" s="144"/>
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="144"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="144"/>
+      <c r="AH39" s="144"/>
+      <c r="AI39" s="144"/>
+      <c r="AJ39" s="144"/>
+      <c r="AK39" s="144"/>
+      <c r="AL39" s="144"/>
+      <c r="AM39" s="144"/>
+      <c r="AN39" s="144"/>
+      <c r="AO39" s="144"/>
+      <c r="AP39" s="144"/>
+      <c r="AQ39" s="144"/>
+      <c r="AR39" s="144"/>
+      <c r="AS39" s="144"/>
+      <c r="AT39" s="144"/>
+      <c r="AU39" s="144"/>
+      <c r="AV39" s="144"/>
+      <c r="AW39" s="145"/>
       <c r="AX39" s="26"/>
       <c r="AY39" s="26"/>
       <c r="AZ39" s="25"/>
@@ -14552,59 +14734,59 @@
     <row r="40" spans="1:52" s="21" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="151" t="s">
-        <v>150</v>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="152" t="s">
+        <v>145</v>
       </c>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="145"/>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
-      <c r="Q40" s="145"/>
-      <c r="R40" s="145"/>
-      <c r="S40" s="145"/>
-      <c r="T40" s="145"/>
-      <c r="U40" s="145"/>
-      <c r="V40" s="145"/>
-      <c r="W40" s="145"/>
-      <c r="X40" s="145"/>
-      <c r="Y40" s="145"/>
-      <c r="Z40" s="145"/>
-      <c r="AA40" s="145"/>
-      <c r="AB40" s="145"/>
-      <c r="AC40" s="145"/>
-      <c r="AD40" s="145"/>
-      <c r="AE40" s="146"/>
-      <c r="AF40" s="144" t="s">
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147"/>
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="147"/>
+      <c r="W40" s="147"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="147"/>
+      <c r="AA40" s="147"/>
+      <c r="AB40" s="147"/>
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="147"/>
+      <c r="AE40" s="148"/>
+      <c r="AF40" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="AG40" s="145"/>
-      <c r="AH40" s="145"/>
-      <c r="AI40" s="145"/>
-      <c r="AJ40" s="145"/>
-      <c r="AK40" s="145"/>
-      <c r="AL40" s="145"/>
-      <c r="AM40" s="145"/>
-      <c r="AN40" s="145"/>
-      <c r="AO40" s="145"/>
-      <c r="AP40" s="145"/>
-      <c r="AQ40" s="145"/>
-      <c r="AR40" s="145"/>
-      <c r="AS40" s="145"/>
-      <c r="AT40" s="145"/>
-      <c r="AU40" s="145"/>
-      <c r="AV40" s="145"/>
-      <c r="AW40" s="146"/>
+      <c r="AG40" s="147"/>
+      <c r="AH40" s="147"/>
+      <c r="AI40" s="147"/>
+      <c r="AJ40" s="147"/>
+      <c r="AK40" s="147"/>
+      <c r="AL40" s="147"/>
+      <c r="AM40" s="147"/>
+      <c r="AN40" s="147"/>
+      <c r="AO40" s="147"/>
+      <c r="AP40" s="147"/>
+      <c r="AQ40" s="147"/>
+      <c r="AR40" s="147"/>
+      <c r="AS40" s="147"/>
+      <c r="AT40" s="147"/>
+      <c r="AU40" s="147"/>
+      <c r="AV40" s="147"/>
+      <c r="AW40" s="148"/>
       <c r="AX40" s="26"/>
       <c r="AY40" s="26"/>
       <c r="AZ40" s="25"/>
@@ -14612,59 +14794,59 @@
     <row r="41" spans="1:52" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="151" t="s">
-        <v>151</v>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="152" t="s">
+        <v>146</v>
       </c>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
-      <c r="T41" s="145"/>
-      <c r="U41" s="145"/>
-      <c r="V41" s="145"/>
-      <c r="W41" s="145"/>
-      <c r="X41" s="145"/>
-      <c r="Y41" s="145"/>
-      <c r="Z41" s="145"/>
-      <c r="AA41" s="145"/>
-      <c r="AB41" s="145"/>
-      <c r="AC41" s="145"/>
-      <c r="AD41" s="145"/>
-      <c r="AE41" s="146"/>
-      <c r="AF41" s="144" t="s">
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="147"/>
+      <c r="Y41" s="147"/>
+      <c r="Z41" s="147"/>
+      <c r="AA41" s="147"/>
+      <c r="AB41" s="147"/>
+      <c r="AC41" s="147"/>
+      <c r="AD41" s="147"/>
+      <c r="AE41" s="148"/>
+      <c r="AF41" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="AG41" s="145"/>
-      <c r="AH41" s="145"/>
-      <c r="AI41" s="145"/>
-      <c r="AJ41" s="145"/>
-      <c r="AK41" s="145"/>
-      <c r="AL41" s="145"/>
-      <c r="AM41" s="145"/>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="145"/>
-      <c r="AP41" s="145"/>
-      <c r="AQ41" s="145"/>
-      <c r="AR41" s="145"/>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="145"/>
-      <c r="AU41" s="145"/>
-      <c r="AV41" s="145"/>
-      <c r="AW41" s="146"/>
+      <c r="AG41" s="147"/>
+      <c r="AH41" s="147"/>
+      <c r="AI41" s="147"/>
+      <c r="AJ41" s="147"/>
+      <c r="AK41" s="147"/>
+      <c r="AL41" s="147"/>
+      <c r="AM41" s="147"/>
+      <c r="AN41" s="147"/>
+      <c r="AO41" s="147"/>
+      <c r="AP41" s="147"/>
+      <c r="AQ41" s="147"/>
+      <c r="AR41" s="147"/>
+      <c r="AS41" s="147"/>
+      <c r="AT41" s="147"/>
+      <c r="AU41" s="147"/>
+      <c r="AV41" s="147"/>
+      <c r="AW41" s="148"/>
       <c r="AX41" s="26"/>
       <c r="AY41" s="26"/>
       <c r="AZ41" s="25"/>
@@ -14672,59 +14854,59 @@
     <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="147" t="s">
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="148"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="148"/>
-      <c r="S42" s="148"/>
-      <c r="T42" s="148"/>
-      <c r="U42" s="148"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
-      <c r="AC42" s="148"/>
-      <c r="AD42" s="148"/>
-      <c r="AE42" s="149"/>
-      <c r="AF42" s="147" t="s">
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="150"/>
+      <c r="P42" s="150"/>
+      <c r="Q42" s="150"/>
+      <c r="R42" s="150"/>
+      <c r="S42" s="150"/>
+      <c r="T42" s="150"/>
+      <c r="U42" s="150"/>
+      <c r="V42" s="150"/>
+      <c r="W42" s="150"/>
+      <c r="X42" s="150"/>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="150"/>
+      <c r="AA42" s="150"/>
+      <c r="AB42" s="150"/>
+      <c r="AC42" s="150"/>
+      <c r="AD42" s="150"/>
+      <c r="AE42" s="151"/>
+      <c r="AF42" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="148"/>
-      <c r="AH42" s="148"/>
-      <c r="AI42" s="148"/>
-      <c r="AJ42" s="148"/>
-      <c r="AK42" s="148"/>
-      <c r="AL42" s="148"/>
-      <c r="AM42" s="148"/>
-      <c r="AN42" s="148"/>
-      <c r="AO42" s="148"/>
-      <c r="AP42" s="148"/>
-      <c r="AQ42" s="148"/>
-      <c r="AR42" s="148"/>
-      <c r="AS42" s="148"/>
-      <c r="AT42" s="148"/>
-      <c r="AU42" s="148"/>
-      <c r="AV42" s="148"/>
-      <c r="AW42" s="149"/>
+      <c r="AG42" s="150"/>
+      <c r="AH42" s="150"/>
+      <c r="AI42" s="150"/>
+      <c r="AJ42" s="150"/>
+      <c r="AK42" s="150"/>
+      <c r="AL42" s="150"/>
+      <c r="AM42" s="150"/>
+      <c r="AN42" s="150"/>
+      <c r="AO42" s="150"/>
+      <c r="AP42" s="150"/>
+      <c r="AQ42" s="150"/>
+      <c r="AR42" s="150"/>
+      <c r="AS42" s="150"/>
+      <c r="AT42" s="150"/>
+      <c r="AU42" s="150"/>
+      <c r="AV42" s="150"/>
+      <c r="AW42" s="151"/>
       <c r="AX42" s="26"/>
       <c r="AY42" s="26"/>
       <c r="AZ42" s="25"/>
@@ -15001,22 +15183,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AF39:AW39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="J40:AE40"/>
-    <mergeCell ref="J41:AE41"/>
-    <mergeCell ref="J42:AE42"/>
-    <mergeCell ref="AF40:AW40"/>
-    <mergeCell ref="AF41:AW41"/>
-    <mergeCell ref="AF42:AW42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="J39:AE39"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -15030,6 +15196,22 @@
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="J39:AE39"/>
+    <mergeCell ref="AF39:AW39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J40:AE40"/>
+    <mergeCell ref="J41:AE41"/>
+    <mergeCell ref="J42:AE42"/>
+    <mergeCell ref="AF40:AW40"/>
+    <mergeCell ref="AF41:AW41"/>
+    <mergeCell ref="AF42:AW42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15053,7 +15235,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15062,201 +15244,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="108" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="140"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="154"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="111" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="113">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="117"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="116" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="122" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="118"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -16882,7 +17064,9 @@
     </row>
     <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -16936,9 +17120,7 @@
     </row>
     <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
-      <c r="B35" s="26" t="s">
-        <v>114</v>
-      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -16993,355 +17175,359 @@
     <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
+      <c r="C36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="32"/>
+      <c r="AY36" s="33"/>
       <c r="AZ36" s="25"/>
     </row>
     <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="31" t="s">
-        <v>28</v>
+      <c r="C37" s="62" t="s">
+        <v>24</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="34" t="s">
-        <v>115</v>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="62" t="s">
+        <v>137</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="34" t="s">
-        <v>29</v>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="35" t="s">
+        <v>139</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="32"/>
-      <c r="AW37" s="32"/>
-      <c r="AX37" s="32"/>
-      <c r="AY37" s="33"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="37"/>
       <c r="AZ37" s="25"/>
     </row>
     <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="62" t="s">
-        <v>24</v>
+      <c r="C38" s="60"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="60" t="s">
+        <v>149</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="62" t="s">
-        <v>142</v>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="38" t="s">
+        <v>147</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="36"/>
-      <c r="AY38" s="37"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="40"/>
       <c r="AZ38" s="25"/>
     </row>
     <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="60" t="s">
-        <v>154</v>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65" t="s">
+        <v>148</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="38" t="s">
-        <v>152</v>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="41" t="s">
+        <v>150</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="39"/>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39"/>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39"/>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="40"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+      <c r="AH39" s="42"/>
+      <c r="AI39" s="42"/>
+      <c r="AJ39" s="42"/>
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
+      <c r="AU39" s="42"/>
+      <c r="AV39" s="42"/>
+      <c r="AW39" s="42"/>
+      <c r="AX39" s="42"/>
+      <c r="AY39" s="43"/>
       <c r="AZ39" s="25"/>
     </row>
     <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="65" t="s">
-        <v>153</v>
+      <c r="C40" s="62" t="s">
+        <v>25</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="41" t="s">
-        <v>155</v>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="62" t="s">
+        <v>117</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="43"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="63"/>
+      <c r="AY40" s="64"/>
       <c r="AZ40" s="25"/>
     </row>
     <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="62" t="s">
-        <v>25</v>
+      <c r="C41" s="60"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="54" t="s">
+        <v>124</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="62" t="s">
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="55"/>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="55"/>
+      <c r="AJ41" s="55"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="63"/>
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="64"/>
-      <c r="AO41" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP41" s="63"/>
-      <c r="AQ41" s="63"/>
-      <c r="AR41" s="63"/>
-      <c r="AS41" s="63"/>
-      <c r="AT41" s="63"/>
-      <c r="AU41" s="63"/>
-      <c r="AV41" s="63"/>
-      <c r="AW41" s="63"/>
-      <c r="AX41" s="63"/>
-      <c r="AY41" s="64"/>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="55"/>
+      <c r="AW41" s="55"/>
+      <c r="AX41" s="55"/>
+      <c r="AY41" s="56"/>
       <c r="AZ41" s="25"/>
     </row>
     <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17352,54 +17538,54 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="61"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="54" t="s">
-        <v>124</v>
+      <c r="H42" s="57" t="s">
+        <v>118</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="56"/>
-      <c r="AO42" s="55" t="s">
-        <v>138</v>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="57" t="s">
+        <v>131</v>
       </c>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55"/>
-      <c r="AX42" s="55"/>
-      <c r="AY42" s="56"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58"/>
+      <c r="AW42" s="58"/>
+      <c r="AX42" s="58"/>
+      <c r="AY42" s="59"/>
       <c r="AZ42" s="25"/>
     </row>
     <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17410,54 +17596,52 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="61"/>
-      <c r="H43" s="57" t="s">
-        <v>118</v>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="54" t="s">
+        <v>125</v>
       </c>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="58"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="59"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="58"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="59"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="55"/>
+      <c r="AQ43" s="55"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55"/>
+      <c r="AT43" s="55"/>
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="55"/>
+      <c r="AY43" s="56"/>
       <c r="AZ43" s="25"/>
     </row>
     <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17468,52 +17652,56 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="61"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="54" t="s">
-        <v>125</v>
+      <c r="H44" s="57" t="s">
+        <v>119</v>
       </c>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="56"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="55"/>
-      <c r="AY44" s="56"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="58"/>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP44" s="58"/>
+      <c r="AQ44" s="58"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="58"/>
+      <c r="AT44" s="58"/>
+      <c r="AU44" s="58"/>
+      <c r="AV44" s="58"/>
+      <c r="AW44" s="58"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="59"/>
       <c r="AZ44" s="25"/>
     </row>
     <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17524,114 +17712,112 @@
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="61"/>
-      <c r="H45" s="57" t="s">
-        <v>119</v>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="55" t="s">
+        <v>123</v>
       </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="57" t="s">
-        <v>136</v>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="55"/>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="55"/>
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="55" t="s">
+        <v>129</v>
       </c>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="58"/>
-      <c r="AI45" s="58"/>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="58"/>
-      <c r="AN45" s="59"/>
-      <c r="AO45" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP45" s="58"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="58"/>
-      <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
-      <c r="AW45" s="58"/>
-      <c r="AX45" s="58"/>
-      <c r="AY45" s="59"/>
+      <c r="AP45" s="55"/>
+      <c r="AQ45" s="55"/>
+      <c r="AR45" s="55"/>
+      <c r="AS45" s="55"/>
+      <c r="AT45" s="55"/>
+      <c r="AU45" s="55"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="55"/>
+      <c r="AX45" s="55"/>
+      <c r="AY45" s="56"/>
       <c r="AZ45" s="25"/>
     </row>
     <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="55" t="s">
-        <v>123</v>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72" t="s">
+        <v>120</v>
       </c>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55"/>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="55" t="s">
-        <v>132</v>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="72" t="s">
+        <v>116</v>
       </c>
-      <c r="AP46" s="55"/>
-      <c r="AQ46" s="55"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="55"/>
-      <c r="AT46" s="55"/>
-      <c r="AU46" s="55"/>
-      <c r="AV46" s="55"/>
-      <c r="AW46" s="55"/>
-      <c r="AX46" s="55"/>
-      <c r="AY46" s="56"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="74"/>
+      <c r="AO46" s="73"/>
+      <c r="AP46" s="73"/>
+      <c r="AQ46" s="73"/>
+      <c r="AR46" s="73"/>
+      <c r="AS46" s="73"/>
+      <c r="AT46" s="73"/>
+      <c r="AU46" s="73"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="74"/>
       <c r="AZ46" s="25"/>
     </row>
     <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17642,226 +17828,226 @@
       <c r="E47" s="69"/>
       <c r="F47" s="69"/>
       <c r="G47" s="71"/>
-      <c r="H47" s="72" t="s">
-        <v>120</v>
+      <c r="H47" s="70"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="69" t="s">
+        <v>121</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-      <c r="W47" s="73"/>
-      <c r="X47" s="73"/>
-      <c r="Y47" s="73"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="73"/>
-      <c r="AB47" s="73"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="73"/>
-      <c r="AE47" s="73"/>
-      <c r="AF47" s="73"/>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="73"/>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="73"/>
-      <c r="AM47" s="73"/>
-      <c r="AN47" s="74"/>
-      <c r="AO47" s="73"/>
-      <c r="AP47" s="73"/>
-      <c r="AQ47" s="73"/>
-      <c r="AR47" s="73"/>
-      <c r="AS47" s="73"/>
-      <c r="AT47" s="73"/>
-      <c r="AU47" s="73"/>
-      <c r="AV47" s="73"/>
-      <c r="AW47" s="73"/>
-      <c r="AX47" s="73"/>
-      <c r="AY47" s="74"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="69"/>
+      <c r="AA47" s="69"/>
+      <c r="AB47" s="69"/>
+      <c r="AC47" s="69"/>
+      <c r="AD47" s="69"/>
+      <c r="AE47" s="69"/>
+      <c r="AF47" s="69"/>
+      <c r="AG47" s="69"/>
+      <c r="AH47" s="69"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="69"/>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="71"/>
+      <c r="AO47" s="69"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="71"/>
       <c r="AZ47" s="25"/>
     </row>
     <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
       <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="69"/>
-      <c r="W48" s="69"/>
-      <c r="X48" s="69"/>
-      <c r="Y48" s="69"/>
-      <c r="Z48" s="69"/>
-      <c r="AA48" s="69"/>
-      <c r="AB48" s="69"/>
-      <c r="AC48" s="69"/>
-      <c r="AD48" s="69"/>
-      <c r="AE48" s="69"/>
-      <c r="AF48" s="69"/>
-      <c r="AG48" s="69"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="69"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="69"/>
-      <c r="AM48" s="69"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="69"/>
-      <c r="AP48" s="69"/>
-      <c r="AQ48" s="69"/>
-      <c r="AR48" s="69"/>
-      <c r="AS48" s="69"/>
-      <c r="AT48" s="69"/>
-      <c r="AU48" s="69"/>
-      <c r="AV48" s="69"/>
-      <c r="AW48" s="69"/>
-      <c r="AX48" s="69"/>
-      <c r="AY48" s="71"/>
-      <c r="AZ48" s="25"/>
-    </row>
-    <row r="49" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="78" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="78"/>
-      <c r="AH49" s="78"/>
-      <c r="AI49" s="78"/>
-      <c r="AJ49" s="78"/>
-      <c r="AK49" s="78"/>
-      <c r="AL49" s="78"/>
-      <c r="AM49" s="78"/>
-      <c r="AN49" s="79"/>
-      <c r="AO49" s="78"/>
-      <c r="AP49" s="78"/>
-      <c r="AQ49" s="78"/>
-      <c r="AR49" s="78"/>
-      <c r="AS49" s="78"/>
-      <c r="AT49" s="78"/>
-      <c r="AU49" s="78"/>
-      <c r="AV49" s="78"/>
-      <c r="AW49" s="78"/>
-      <c r="AX49" s="78"/>
-      <c r="AY49" s="79"/>
-      <c r="AZ49" s="25"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="78"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="78"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="78"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="78"/>
+      <c r="AM48" s="78"/>
+      <c r="AN48" s="79"/>
+      <c r="AO48" s="78"/>
+      <c r="AP48" s="78"/>
+      <c r="AQ48" s="78"/>
+      <c r="AR48" s="78"/>
+      <c r="AS48" s="78"/>
+      <c r="AT48" s="78"/>
+      <c r="AU48" s="78"/>
+      <c r="AV48" s="78"/>
+      <c r="AW48" s="78"/>
+      <c r="AX48" s="78"/>
+      <c r="AY48" s="79"/>
+      <c r="AZ48" s="25"/>
+    </row>
+    <row r="49" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="68"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
+      <c r="Z49" s="81"/>
+      <c r="AA49" s="81"/>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="81"/>
+      <c r="AD49" s="81"/>
+      <c r="AE49" s="81"/>
+      <c r="AF49" s="81"/>
+      <c r="AG49" s="81"/>
+      <c r="AH49" s="81"/>
+      <c r="AI49" s="81"/>
+      <c r="AJ49" s="81"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="81"/>
+      <c r="AM49" s="81"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="81"/>
+      <c r="AP49" s="81"/>
+      <c r="AQ49" s="81"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="81"/>
+      <c r="AT49" s="81"/>
+      <c r="AU49" s="81"/>
+      <c r="AV49" s="81"/>
+      <c r="AW49" s="81"/>
+      <c r="AX49" s="81"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="75"/>
     </row>
     <row r="50" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="68"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="62" t="s">
-        <v>126</v>
+      <c r="C50" s="60"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="57" t="s">
+        <v>154</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="62" t="s">
-        <v>127</v>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="57" t="s">
+        <v>152</v>
       </c>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="63"/>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="63"/>
-      <c r="AT50" s="63"/>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="63"/>
-      <c r="AX50" s="63"/>
-      <c r="AY50" s="64"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="58"/>
+      <c r="AT50" s="58"/>
+      <c r="AU50" s="58"/>
+      <c r="AV50" s="58"/>
+      <c r="AW50" s="58"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="59"/>
       <c r="AZ50" s="75"/>
     </row>
     <row r="51" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17878,7 +18064,7 @@
       <c r="K51" s="55"/>
       <c r="L51" s="55"/>
       <c r="M51" s="54" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
@@ -17929,14 +18115,14 @@
       <c r="F52" s="26"/>
       <c r="G52" s="61"/>
       <c r="H52" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
       <c r="M52" s="38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
@@ -17987,14 +18173,14 @@
       <c r="F53" s="26"/>
       <c r="G53" s="61"/>
       <c r="H53" s="38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
       <c r="M53" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
@@ -18045,14 +18231,14 @@
       <c r="F54" s="66"/>
       <c r="G54" s="67"/>
       <c r="H54" s="41" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="42"/>
       <c r="M54" s="41" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
@@ -18081,7 +18267,9 @@
       <c r="AL54" s="42"/>
       <c r="AM54" s="42"/>
       <c r="AN54" s="43"/>
-      <c r="AO54" s="42"/>
+      <c r="AO54" s="42" t="s">
+        <v>156</v>
+      </c>
       <c r="AP54" s="42"/>
       <c r="AQ54" s="42"/>
       <c r="AR54" s="42"/>
@@ -18105,14 +18293,14 @@
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
       <c r="H55" s="65" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="66"/>
       <c r="K55" s="66"/>
       <c r="L55" s="66"/>
       <c r="M55" s="65" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N55" s="66"/>
       <c r="O55" s="66"/>
@@ -18318,7 +18506,7 @@
     <row r="59" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -20961,6 +21149,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -20973,11 +21166,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21010,201 +21198,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="str">
+      <c r="A1" s="126" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="108" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="130" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="108" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="140"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="154"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="111" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="113">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42608</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="117"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="119"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="116" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="122" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>Webアプリケーション構成図</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="118"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="120"/>
     </row>
     <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -26448,11 +26636,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -26465,6 +26648,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -26525,7 +26713,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/Webアプリケーション構成図.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14808" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="4" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="work" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション構成図!$A$1:$AZ$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス構成図!$A$1:$AZ$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション構成図!$A$1:$AZ$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス構成図!$A$1:$AZ$106</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">プロジェクト構成図!$A$1:$AZ$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">設定情報!$A$1</definedName>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">プロジェクト構成図!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.0&quot;版&quot;\ "/>
@@ -2062,7 +2062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2521,10 +2521,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2555,6 +2567,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2576,7 +2591,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="角丸四角形 72"/>
+        <xdr:cNvPr id="73" name="角丸四角形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2685,7 +2706,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="角丸四角形 73"/>
+        <xdr:cNvPr id="74" name="角丸四角形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2766,7 +2793,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="角丸四角形 74"/>
+        <xdr:cNvPr id="75" name="角丸四角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2847,7 +2880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="角丸四角形 75"/>
+        <xdr:cNvPr id="76" name="角丸四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2928,7 +2967,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="角丸四角形 76"/>
+        <xdr:cNvPr id="77" name="角丸四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2989,7 +3034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="角丸四角形 77"/>
+        <xdr:cNvPr id="78" name="角丸四角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3050,7 +3101,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="角丸四角形 78"/>
+        <xdr:cNvPr id="79" name="角丸四角形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3111,7 +3168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="角丸四角形 79"/>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3179,7 +3242,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="角丸四角形 80"/>
+        <xdr:cNvPr id="81" name="角丸四角形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3240,7 +3309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="角丸四角形 81"/>
+        <xdr:cNvPr id="82" name="角丸四角形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3301,7 +3376,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvPr id="83" name="角丸四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3362,7 +3443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="角丸四角形 83"/>
+        <xdr:cNvPr id="84" name="角丸四角形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3423,7 +3510,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3478,7 +3571,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3533,7 +3632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3588,7 +3693,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3643,7 +3754,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="角丸四角形 88"/>
+        <xdr:cNvPr id="89" name="角丸四角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3704,7 +3821,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線コネクタ 89"/>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3748,7 +3871,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線コネクタ 90"/>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3792,7 +3921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="右中かっこ 91"/>
+        <xdr:cNvPr id="92" name="右中かっこ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3844,7 +3979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3909,7 +4050,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="右中かっこ 93"/>
+        <xdr:cNvPr id="94" name="右中かっこ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3961,7 +4108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4026,7 +4179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="右中かっこ 95"/>
+        <xdr:cNvPr id="96" name="右中かっこ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4078,7 +4237,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4136,7 +4301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4189,7 +4360,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4251,7 +4428,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4313,7 +4496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4375,7 +4564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4449,7 +4644,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4493,7 +4694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="右中かっこ 32"/>
+        <xdr:cNvPr id="33" name="右中かっこ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4545,7 +4752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4597,18 +4810,24 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>30974</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>107370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>30974</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>3129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="316" name="直線コネクタ 315"/>
+        <xdr:cNvPr id="316" name="直線コネクタ 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4644,18 +4863,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>138</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>110978</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="379" name="直線コネクタ 378"/>
+        <xdr:cNvPr id="379" name="直線コネクタ 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4691,18 +4916,24 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="正方形/長方形 387"/>
+        <xdr:cNvPr id="388" name="正方形/長方形 387">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4760,7 +4991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="角丸四角形 85"/>
+        <xdr:cNvPr id="86" name="角丸四角形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4821,7 +5058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="角丸四角形 86"/>
+        <xdr:cNvPr id="87" name="角丸四角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4882,7 +5125,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="角丸四角形 87"/>
+        <xdr:cNvPr id="88" name="角丸四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4943,7 +5192,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4999,7 +5254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5055,7 +5316,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="角丸四角形 90"/>
+        <xdr:cNvPr id="91" name="角丸四角形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5116,7 +5383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5172,7 +5445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5228,7 +5507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="角丸四角形 93"/>
+        <xdr:cNvPr id="94" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5289,7 +5574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="角丸四角形 94"/>
+        <xdr:cNvPr id="95" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5350,7 +5641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="角丸四角形 95"/>
+        <xdr:cNvPr id="96" name="角丸四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5418,7 +5715,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="カギ線コネクタ 97"/>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="91" idx="3"/>
           <a:endCxn id="86" idx="1"/>
@@ -5474,7 +5777,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="カギ線コネクタ 98"/>
+        <xdr:cNvPr id="99" name="カギ線コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="0"/>
           <a:endCxn id="88" idx="2"/>
@@ -5531,7 +5840,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="カギ線コネクタ 99"/>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="0"/>
           <a:endCxn id="87" idx="2"/>
@@ -5588,7 +5903,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="カギ線コネクタ 37"/>
+        <xdr:cNvPr id="101" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="88" idx="1"/>
           <a:endCxn id="87" idx="3"/>
@@ -5643,7 +5964,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="カギ線コネクタ 101"/>
+        <xdr:cNvPr id="102" name="カギ線コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="2"/>
           <a:endCxn id="114" idx="2"/>
@@ -5697,7 +6024,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="カギ線コネクタ 102"/>
+        <xdr:cNvPr id="103" name="カギ線コネクタ 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="2"/>
           <a:endCxn id="96" idx="1"/>
@@ -5751,7 +6084,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="カギ線コネクタ 103"/>
+        <xdr:cNvPr id="104" name="カギ線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
           <a:endCxn id="94" idx="2"/>
@@ -5807,7 +6146,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="カギ線コネクタ 52"/>
+        <xdr:cNvPr id="105" name="カギ線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="96" idx="0"/>
@@ -5862,7 +6207,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
           <a:endCxn id="2" idx="2"/>
@@ -5917,7 +6268,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="カギ線コネクタ 106"/>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="96" idx="3"/>
@@ -5972,7 +6329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvPr id="115" name="正方形/長方形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6014,18 +6377,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>80696</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>54736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81245</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>57528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="302" name="角丸四角形 301"/>
+        <xdr:cNvPr id="302" name="角丸四角形 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6075,18 +6444,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>80698</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>93501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81246</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>78347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="角丸四角形 302"/>
+        <xdr:cNvPr id="303" name="角丸四角形 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6136,18 +6511,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>180354</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>84176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>53289</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>78348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="304" name="角丸四角形 303"/>
+        <xdr:cNvPr id="304" name="角丸四角形 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6197,18 +6578,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>103563</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>63710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>243947</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="305" name="角丸四角形 304"/>
+        <xdr:cNvPr id="305" name="角丸四角形 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6258,18 +6645,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>34974</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>63710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>177427</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="306" name="角丸四角形 305"/>
+        <xdr:cNvPr id="306" name="角丸四角形 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6319,18 +6712,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>204687</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>93502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>65806</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>78347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="307" name="角丸四角形 306"/>
+        <xdr:cNvPr id="307" name="角丸四角形 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6380,18 +6779,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>34974</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>93502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>177427</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>78347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="308" name="角丸四角形 307"/>
+        <xdr:cNvPr id="308" name="角丸四角形 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6441,18 +6846,24 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>58611</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>63710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>192306</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="角丸四角形 308"/>
+        <xdr:cNvPr id="309" name="角丸四角形 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6502,18 +6913,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>34719</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>107370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>34719</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>3129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="310" name="直線コネクタ 309"/>
+        <xdr:cNvPr id="310" name="直線コネクタ 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6549,18 +6966,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>231489</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>109722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>218717</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>98793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="テキスト ボックス 310"/>
+        <xdr:cNvPr id="311" name="テキスト ボックス 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6607,18 +7030,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>86922</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>120694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>74148</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>109765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="テキスト ボックス 311"/>
+        <xdr:cNvPr id="312" name="テキスト ボックス 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6665,18 +7094,24 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>232704</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>136682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>219932</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>125753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="313" name="テキスト ボックス 312"/>
+        <xdr:cNvPr id="313" name="テキスト ボックス 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6723,18 +7158,24 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>169940</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>139346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>157168</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>128417</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="テキスト ボックス 313"/>
+        <xdr:cNvPr id="314" name="テキスト ボックス 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6781,18 +7222,24 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>221790</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>107370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>221790</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>3129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="315" name="直線コネクタ 314"/>
+        <xdr:cNvPr id="315" name="直線コネクタ 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6828,18 +7275,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168941</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>106046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>106046</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="317" name="直線コネクタ 316"/>
+        <xdr:cNvPr id="317" name="直線コネクタ 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6875,18 +7328,24 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>151466</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>54736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>152015</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>57528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="角丸四角形 317"/>
+        <xdr:cNvPr id="318" name="角丸四角形 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6936,18 +7395,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33890</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>16794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33890</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>147307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="直線コネクタ 318"/>
+        <xdr:cNvPr id="319" name="直線コネクタ 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6983,18 +7448,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52687</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>4765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>39913</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>163386</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="テキスト ボックス 319"/>
+        <xdr:cNvPr id="320" name="テキスト ボックス 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7046,18 +7517,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>80970</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>57528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>80971</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>67637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="321" name="直線コネクタ 320"/>
+        <xdr:cNvPr id="321" name="直線コネクタ 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="302" idx="2"/>
           <a:endCxn id="303" idx="0"/>
@@ -7093,18 +7570,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>116822</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>30318</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>58312</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="322" name="直線コネクタ 321"/>
+        <xdr:cNvPr id="322" name="直線コネクタ 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="304" idx="0"/>
           <a:endCxn id="305" idx="2"/>
@@ -7140,18 +7623,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>39490</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>120167</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>67638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="323" name="直線コネクタ 322"/>
+        <xdr:cNvPr id="323" name="直線コネクタ 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="307" idx="0"/>
           <a:endCxn id="305" idx="2"/>
@@ -7187,18 +7676,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81245</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>103563</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="324" name="直線コネクタ 323"/>
+        <xdr:cNvPr id="324" name="直線コネクタ 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="305" idx="1"/>
           <a:endCxn id="302" idx="3"/>
@@ -7234,18 +7729,24 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>243947</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>34974</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="325" name="直線コネクタ 324"/>
+        <xdr:cNvPr id="325" name="直線コネクタ 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="305" idx="3"/>
           <a:endCxn id="306" idx="1"/>
@@ -7281,18 +7782,24 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>177427</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>58610</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="326" name="直線コネクタ 325"/>
+        <xdr:cNvPr id="326" name="直線コネクタ 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="309" idx="1"/>
           <a:endCxn id="306" idx="3"/>
@@ -7328,18 +7835,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>192306</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>151466</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="327" name="直線コネクタ 326"/>
+        <xdr:cNvPr id="327" name="直線コネクタ 326">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="309" idx="3"/>
           <a:endCxn id="318" idx="1"/>
@@ -7375,18 +7888,24 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>236087</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>236087</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>93502</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="328" name="直線コネクタ 327"/>
+        <xdr:cNvPr id="328" name="直線コネクタ 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="306" idx="2"/>
           <a:endCxn id="308" idx="0"/>
@@ -7422,18 +7941,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81878</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>131604</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="テキスト ボックス 328"/>
+        <xdr:cNvPr id="329" name="テキスト ボックス 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7483,18 +8008,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>126192</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>169138</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="テキスト ボックス 329"/>
+        <xdr:cNvPr id="330" name="テキスト ボックス 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7544,18 +8075,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>15759</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>65485</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="テキスト ボックス 330"/>
+        <xdr:cNvPr id="331" name="テキスト ボックス 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7605,18 +8142,24 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>55683</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>98628</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="テキスト ボックス 331"/>
+        <xdr:cNvPr id="332" name="テキスト ボックス 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7666,18 +8209,24 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>155146</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>198093</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="テキスト ボックス 332"/>
+        <xdr:cNvPr id="333" name="テキスト ボックス 332">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7727,18 +8276,24 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>111105</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>154052</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="テキスト ボックス 333"/>
+        <xdr:cNvPr id="334" name="テキスト ボックス 333">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7788,18 +8343,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>179503</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>222449</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="テキスト ボックス 334"/>
+        <xdr:cNvPr id="335" name="テキスト ボックス 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7849,18 +8410,24 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>165636</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>40813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>208583</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="テキスト ボックス 335"/>
+        <xdr:cNvPr id="336" name="テキスト ボックス 335">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7910,18 +8477,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>103501</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>22777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>153227</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>108639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="テキスト ボックス 336"/>
+        <xdr:cNvPr id="337" name="テキスト ボックス 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7971,18 +8544,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>103501</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>135382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>153227</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>48061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="テキスト ボックス 337"/>
+        <xdr:cNvPr id="338" name="テキスト ボックス 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8032,18 +8611,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>72791</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>22777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>122517</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>108639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="339" name="テキスト ボックス 338"/>
+        <xdr:cNvPr id="339" name="テキスト ボックス 338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8093,18 +8678,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>177012</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>135382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>226738</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>48061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="テキスト ボックス 339"/>
+        <xdr:cNvPr id="340" name="テキスト ボックス 339">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8154,18 +8745,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>52683</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>135382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>102409</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>48061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="テキスト ボックス 340"/>
+        <xdr:cNvPr id="341" name="テキスト ボックス 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8215,18 +8812,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>132982</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>57417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>182709</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>143279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="テキスト ボックス 341"/>
+        <xdr:cNvPr id="342" name="テキスト ボックス 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8276,18 +8879,24 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>216148</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>22777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>256777</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>108639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="テキスト ボックス 342"/>
+        <xdr:cNvPr id="343" name="テキスト ボックス 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8337,18 +8946,24 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>216148</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>135382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>6101</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>48061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="テキスト ボックス 343"/>
+        <xdr:cNvPr id="344" name="テキスト ボックス 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8398,18 +9013,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83058</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>168971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>83607</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="角丸四角形 344"/>
+        <xdr:cNvPr id="345" name="角丸四角形 344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8459,18 +9080,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83060</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>34555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>83608</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="角丸四角形 345"/>
+        <xdr:cNvPr id="346" name="角丸四角形 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8520,18 +9147,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>182715</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>25230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>55650</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="角丸四角形 346"/>
+        <xdr:cNvPr id="347" name="角丸四角形 346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8581,18 +9214,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>105925</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>246309</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="角丸四角形 347"/>
+        <xdr:cNvPr id="348" name="角丸四角形 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8642,18 +9281,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>37336</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>179789</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="角丸四角形 348"/>
+        <xdr:cNvPr id="349" name="角丸四角形 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8703,18 +9348,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>207049</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>34556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>68168</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="角丸四角形 349"/>
+        <xdr:cNvPr id="350" name="角丸四角形 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8764,18 +9415,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>37336</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>34556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>179789</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="角丸四角形 350"/>
+        <xdr:cNvPr id="351" name="角丸四角形 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8832,18 +9489,24 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>60972</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>194667</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="角丸四角形 351"/>
+        <xdr:cNvPr id="352" name="角丸四角形 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8893,18 +9556,24 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>153828</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>168971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>154377</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="角丸四角形 352"/>
+        <xdr:cNvPr id="353" name="角丸四角形 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8954,18 +9623,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>55049</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>119000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>42275</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>104438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="テキスト ボックス 353"/>
+        <xdr:cNvPr id="354" name="テキスト ボックス 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9017,18 +9692,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83333</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83334</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>18567</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="355" name="直線コネクタ 354"/>
+        <xdr:cNvPr id="355" name="直線コネクタ 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="345" idx="2"/>
           <a:endCxn id="346" idx="0"/>
@@ -9064,18 +9745,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>119184</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>32680</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>172547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="356" name="直線コネクタ 355"/>
+        <xdr:cNvPr id="356" name="直線コネクタ 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="347" idx="0"/>
           <a:endCxn id="348" idx="2"/>
@@ -9111,18 +9798,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>41851</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>122528</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>8692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="357" name="直線コネクタ 356"/>
+        <xdr:cNvPr id="357" name="直線コネクタ 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="350" idx="0"/>
           <a:endCxn id="348" idx="2"/>
@@ -9158,18 +9851,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>83607</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>105925</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="358" name="直線コネクタ 357"/>
+        <xdr:cNvPr id="358" name="直線コネクタ 357">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="348" idx="1"/>
           <a:endCxn id="345" idx="3"/>
@@ -9205,18 +9904,24 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>246309</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>37336</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="359" name="直線コネクタ 358"/>
+        <xdr:cNvPr id="359" name="直線コネクタ 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="348" idx="3"/>
           <a:endCxn id="349" idx="1"/>
@@ -9252,18 +9957,24 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>179789</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>86441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>50576</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>86441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="360" name="直線コネクタ 359"/>
+        <xdr:cNvPr id="360" name="直線コネクタ 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="352" idx="1"/>
           <a:endCxn id="349" idx="3"/>
@@ -9299,18 +10010,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>194668</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>153828</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="361" name="直線コネクタ 360"/>
+        <xdr:cNvPr id="361" name="直線コネクタ 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="352" idx="3"/>
           <a:endCxn id="353" idx="1"/>
@@ -9346,18 +10063,24 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>238450</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>162790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>238450</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>18568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="362" name="直線コネクタ 361"/>
+        <xdr:cNvPr id="362" name="直線コネクタ 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="349" idx="2"/>
           <a:endCxn id="351" idx="0"/>
@@ -9393,18 +10116,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133966</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="テキスト ボックス 362"/>
+        <xdr:cNvPr id="363" name="テキスト ボックス 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9454,18 +10183,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>128554</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="テキスト ボックス 363"/>
+        <xdr:cNvPr id="364" name="テキスト ボックス 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9515,18 +10250,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>18120</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>67846</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="365" name="テキスト ボックス 364"/>
+        <xdr:cNvPr id="365" name="テキスト ボックス 364">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9576,18 +10317,24 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>58045</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>100990</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="テキスト ボックス 365"/>
+        <xdr:cNvPr id="366" name="テキスト ボックス 365">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9637,18 +10384,24 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>157508</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200455</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="テキスト ボックス 366"/>
+        <xdr:cNvPr id="367" name="テキスト ボックス 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9698,18 +10451,24 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>113467</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>156414</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="テキスト ボックス 367"/>
+        <xdr:cNvPr id="368" name="テキスト ボックス 367">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9759,18 +10518,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>181865</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>224811</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="テキスト ボックス 368"/>
+        <xdr:cNvPr id="369" name="テキスト ボックス 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9820,18 +10585,24 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>177094</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>155048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>220041</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="テキスト ボックス 369"/>
+        <xdr:cNvPr id="370" name="テキスト ボックス 369">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9881,18 +10652,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105863</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>137013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155589</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>49692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="テキスト ボックス 370"/>
+        <xdr:cNvPr id="371" name="テキスト ボックス 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9942,18 +10719,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>105863</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>155589</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>162296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="テキスト ボックス 371"/>
+        <xdr:cNvPr id="372" name="テキスト ボックス 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10003,18 +10786,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>75152</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>137013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>124878</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>49692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="テキスト ボックス 372"/>
+        <xdr:cNvPr id="373" name="テキスト ボックス 372">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10064,18 +10853,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>179373</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>229099</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>162296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="テキスト ボックス 373"/>
+        <xdr:cNvPr id="374" name="テキスト ボックス 373">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10125,18 +10920,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>55045</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>104771</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>162296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="テキスト ボックス 374"/>
+        <xdr:cNvPr id="375" name="テキスト ボックス 374">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10186,18 +10987,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>135343</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>185070</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>84332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="テキスト ボックス 375"/>
+        <xdr:cNvPr id="376" name="テキスト ボックス 375">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10247,18 +11054,24 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>218510</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>137013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>259139</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>49692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="テキスト ボックス 376"/>
+        <xdr:cNvPr id="377" name="テキスト ボックス 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10308,18 +11121,24 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>218510</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>8463</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>162296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="テキスト ボックス 377"/>
+        <xdr:cNvPr id="378" name="テキスト ボックス 377">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10369,18 +11188,24 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>30162</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>127155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>172614</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>111999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="角丸四角形 379"/>
+        <xdr:cNvPr id="380" name="角丸四角形 379">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10430,18 +11255,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>186777</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>127155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>69457</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>111999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="角丸四角形 380"/>
+        <xdr:cNvPr id="381" name="角丸四角形 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10491,18 +11322,24 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>30162</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>113897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>172614</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>98742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="角丸四角形 381"/>
+        <xdr:cNvPr id="382" name="角丸四角形 381">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10552,18 +11389,24 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>186777</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>113897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>69457</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>98742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="角丸四角形 382"/>
+        <xdr:cNvPr id="383" name="角丸四角形 382">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10613,18 +11456,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>51956</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="384" name="正方形/長方形 383"/>
+        <xdr:cNvPr id="384" name="正方形/長方形 383">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10678,7 +11527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10754,7 +11609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="円/楕円 113"/>
+        <xdr:cNvPr id="114" name="円/楕円 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10830,7 +11691,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="カギ線コネクタ 116"/>
+        <xdr:cNvPr id="117" name="カギ線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="114" idx="6"/>
           <a:endCxn id="95" idx="1"/>
@@ -10891,12 +11758,18 @@
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="図 29"/>
+            <xdr:cNvPr id="30" name="図 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="work!$B$2:$S$65" spid="_x0000_s7228"/>
+                  <a14:cameraTool cellRange="work!$B$2:$S$65" spid="_x0000_s7230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10939,7 +11812,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10981,7 +11854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11014,9 +11887,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11049,6 +11939,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11234,15 +12141,16 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="3.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
@@ -11312,7 +12220,7 @@
       <c r="AY1" s="118"/>
       <c r="AZ1" s="119"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -11375,7 +12283,7 @@
       <c r="AY2" s="121"/>
       <c r="AZ2" s="125"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
@@ -11439,7 +12347,7 @@
       <c r="AY3" s="97"/>
       <c r="AZ3" s="126"/>
     </row>
-    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -11493,7 +12401,7 @@
       <c r="AY4" s="15"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="13" t="s">
         <v>6</v>
@@ -11549,7 +12457,7 @@
       <c r="AY5" s="13"/>
       <c r="AZ5" s="12"/>
     </row>
-    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -11603,7 +12511,7 @@
       <c r="AY6" s="13"/>
       <c r="AZ6" s="12"/>
     </row>
-    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="98" t="s">
         <v>5</v>
@@ -11665,7 +12573,7 @@
       <c r="AY7" s="100"/>
       <c r="AZ7" s="12"/>
     </row>
-    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108"/>
@@ -11719,7 +12627,7 @@
       <c r="AY8" s="115"/>
       <c r="AZ8" s="11"/>
     </row>
-    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="89">
         <v>1</v>
@@ -11781,7 +12689,7 @@
       <c r="AY9" s="106"/>
       <c r="AZ9" s="11"/>
     </row>
-    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="89"/>
       <c r="C10" s="90"/>
@@ -11835,7 +12743,7 @@
       <c r="AY10" s="106"/>
       <c r="AZ10" s="11"/>
     </row>
-    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="89"/>
       <c r="C11" s="90"/>
@@ -11889,7 +12797,7 @@
       <c r="AY11" s="106"/>
       <c r="AZ11" s="11"/>
     </row>
-    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -11943,7 +12851,7 @@
       <c r="AY12" s="106"/>
       <c r="AZ12" s="11"/>
     </row>
-    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="89"/>
       <c r="C13" s="90"/>
@@ -11997,7 +12905,7 @@
       <c r="AY13" s="106"/>
       <c r="AZ13" s="11"/>
     </row>
-    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -12051,7 +12959,7 @@
       <c r="AY14" s="106"/>
       <c r="AZ14" s="11"/>
     </row>
-    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="89"/>
       <c r="C15" s="90"/>
@@ -12105,7 +13013,7 @@
       <c r="AY15" s="106"/>
       <c r="AZ15" s="11"/>
     </row>
-    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="89"/>
       <c r="C16" s="90"/>
@@ -12159,7 +13067,7 @@
       <c r="AY16" s="106"/>
       <c r="AZ16" s="11"/>
     </row>
-    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="89"/>
       <c r="C17" s="90"/>
@@ -12213,7 +13121,7 @@
       <c r="AY17" s="106"/>
       <c r="AZ17" s="11"/>
     </row>
-    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="89"/>
       <c r="C18" s="90"/>
@@ -12267,7 +13175,7 @@
       <c r="AY18" s="106"/>
       <c r="AZ18" s="11"/>
     </row>
-    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="89"/>
       <c r="C19" s="90"/>
@@ -12321,7 +13229,7 @@
       <c r="AY19" s="106"/>
       <c r="AZ19" s="11"/>
     </row>
-    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="89"/>
       <c r="C20" s="90"/>
@@ -12375,7 +13283,7 @@
       <c r="AY20" s="106"/>
       <c r="AZ20" s="11"/>
     </row>
-    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="89"/>
       <c r="C21" s="90"/>
@@ -12429,7 +13337,7 @@
       <c r="AY21" s="106"/>
       <c r="AZ21" s="11"/>
     </row>
-    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="89"/>
       <c r="C22" s="90"/>
@@ -12483,7 +13391,7 @@
       <c r="AY22" s="106"/>
       <c r="AZ22" s="11"/>
     </row>
-    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="89"/>
       <c r="C23" s="90"/>
@@ -12537,7 +13445,7 @@
       <c r="AY23" s="106"/>
       <c r="AZ23" s="11"/>
     </row>
-    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="89"/>
       <c r="C24" s="90"/>
@@ -12591,7 +13499,7 @@
       <c r="AY24" s="106"/>
       <c r="AZ24" s="11"/>
     </row>
-    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="89"/>
       <c r="C25" s="90"/>
@@ -12645,7 +13553,7 @@
       <c r="AY25" s="106"/>
       <c r="AZ25" s="11"/>
     </row>
-    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="137"/>
       <c r="C26" s="138"/>
@@ -12699,7 +13607,7 @@
       <c r="AY26" s="148"/>
       <c r="AZ26" s="9"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -12753,7 +13661,7 @@
       <c r="AY27" s="6"/>
       <c r="AZ27" s="5"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -12923,20 +13831,21 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ47"/>
+  <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="3.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>アプリケーション構成図</v>
@@ -13004,9 +13913,9 @@
         <v>11</v>
       </c>
       <c r="AY1" s="118"/>
-      <c r="AZ1" s="160"/>
-    </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AZ1" s="164"/>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -13069,7 +13978,7 @@
       <c r="AY2" s="121"/>
       <c r="AZ2" s="125"/>
     </row>
-    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
@@ -13133,7 +14042,7 @@
       <c r="AY3" s="97"/>
       <c r="AZ3" s="126"/>
     </row>
-    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -13187,7 +14096,7 @@
       <c r="AY4" s="26"/>
       <c r="AZ4" s="25"/>
     </row>
-    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
         <v>22</v>
@@ -13243,7 +14152,7 @@
       <c r="AY5" s="26"/>
       <c r="AZ5" s="25"/>
     </row>
-    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -13297,7 +14206,7 @@
       <c r="AY6" s="26"/>
       <c r="AZ6" s="25"/>
     </row>
-    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -13351,7 +14260,7 @@
       <c r="AY7" s="26"/>
       <c r="AZ7" s="25"/>
     </row>
-    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -13405,7 +14314,7 @@
       <c r="AY8" s="26"/>
       <c r="AZ8" s="25"/>
     </row>
-    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -13459,7 +14368,7 @@
       <c r="AY9" s="26"/>
       <c r="AZ9" s="25"/>
     </row>
-    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -13513,7 +14422,7 @@
       <c r="AY10" s="26"/>
       <c r="AZ10" s="25"/>
     </row>
-    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -13567,7 +14476,7 @@
       <c r="AY11" s="26"/>
       <c r="AZ11" s="25"/>
     </row>
-    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -13621,7 +14530,7 @@
       <c r="AY12" s="26"/>
       <c r="AZ12" s="25"/>
     </row>
-    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -13675,7 +14584,7 @@
       <c r="AY13" s="26"/>
       <c r="AZ13" s="25"/>
     </row>
-    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -13729,7 +14638,7 @@
       <c r="AY14" s="26"/>
       <c r="AZ14" s="25"/>
     </row>
-    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -13783,7 +14692,7 @@
       <c r="AY15" s="26"/>
       <c r="AZ15" s="25"/>
     </row>
-    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -13837,7 +14746,7 @@
       <c r="AY16" s="26"/>
       <c r="AZ16" s="25"/>
     </row>
-    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -13891,7 +14800,7 @@
       <c r="AY17" s="26"/>
       <c r="AZ17" s="25"/>
     </row>
-    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -13945,7 +14854,7 @@
       <c r="AY18" s="26"/>
       <c r="AZ18" s="25"/>
     </row>
-    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -13999,7 +14908,7 @@
       <c r="AY19" s="26"/>
       <c r="AZ19" s="25"/>
     </row>
-    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -14053,7 +14962,7 @@
       <c r="AY20" s="26"/>
       <c r="AZ20" s="25"/>
     </row>
-    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -14107,7 +15016,7 @@
       <c r="AY21" s="26"/>
       <c r="AZ21" s="25"/>
     </row>
-    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -14161,7 +15070,7 @@
       <c r="AY22" s="26"/>
       <c r="AZ22" s="25"/>
     </row>
-    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -14215,7 +15124,7 @@
       <c r="AY23" s="26"/>
       <c r="AZ23" s="25"/>
     </row>
-    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -14269,7 +15178,7 @@
       <c r="AY24" s="26"/>
       <c r="AZ24" s="25"/>
     </row>
-    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -14323,7 +15232,7 @@
       <c r="AY25" s="26"/>
       <c r="AZ25" s="25"/>
     </row>
-    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -14377,7 +15286,7 @@
       <c r="AY26" s="26"/>
       <c r="AZ26" s="25"/>
     </row>
-    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -14431,7 +15340,7 @@
       <c r="AY27" s="26"/>
       <c r="AZ27" s="25"/>
     </row>
-    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -14485,7 +15394,7 @@
       <c r="AY28" s="26"/>
       <c r="AZ28" s="25"/>
     </row>
-    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -14539,7 +15448,7 @@
       <c r="AY29" s="26"/>
       <c r="AZ29" s="25"/>
     </row>
-    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -14591,7 +15500,7 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="25"/>
     </row>
-    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -14643,27 +15552,27 @@
       <c r="AY31" s="26"/>
       <c r="AZ31" s="25"/>
     </row>
-    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="AY32" s="26"/>
       <c r="AZ32" s="25"/>
     </row>
-    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="AY33" s="26"/>
       <c r="AZ33" s="25"/>
     </row>
-    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="AY34" s="26"/>
       <c r="AZ34" s="25"/>
     </row>
-    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="AY35" s="26"/>
       <c r="AZ35" s="25"/>
     </row>
-    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="26" t="s">
         <v>23</v>
@@ -14719,7 +15628,7 @@
       <c r="AY36" s="26"/>
       <c r="AZ36" s="25"/>
     </row>
-    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -14773,7 +15682,7 @@
       <c r="AY37" s="26"/>
       <c r="AZ37" s="25"/>
     </row>
-    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
       <c r="C38" s="31" t="s">
@@ -14808,11 +15717,11 @@
       <c r="AB38" s="32"/>
       <c r="AC38" s="32"/>
       <c r="AD38" s="32"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="32" t="s">
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="32"/>
@@ -14828,12 +15737,12 @@
       <c r="AT38" s="32"/>
       <c r="AU38" s="32"/>
       <c r="AV38" s="32"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="26"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="33"/>
       <c r="AY38" s="26"/>
       <c r="AZ38" s="25"/>
     </row>
-    <row r="39" spans="1:52" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
       <c r="C39" s="149" t="s">
@@ -14845,32 +15754,32 @@
       <c r="G39" s="150"/>
       <c r="H39" s="150"/>
       <c r="I39" s="151"/>
-      <c r="J39" s="159" t="s">
+      <c r="J39" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="150"/>
-      <c r="T39" s="150"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="150"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="149"/>
-      <c r="AG39" s="150"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="159"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="159"/>
+      <c r="T39" s="159"/>
+      <c r="U39" s="159"/>
+      <c r="V39" s="159"/>
+      <c r="W39" s="159"/>
+      <c r="X39" s="159"/>
+      <c r="Y39" s="159"/>
+      <c r="Z39" s="159"/>
+      <c r="AA39" s="159"/>
+      <c r="AB39" s="159"/>
+      <c r="AC39" s="159"/>
+      <c r="AD39" s="159"/>
+      <c r="AE39" s="159"/>
+      <c r="AF39" s="160"/>
+      <c r="AG39" s="149"/>
       <c r="AH39" s="150"/>
       <c r="AI39" s="150"/>
       <c r="AJ39" s="150"/>
@@ -14886,12 +15795,12 @@
       <c r="AT39" s="150"/>
       <c r="AU39" s="150"/>
       <c r="AV39" s="150"/>
-      <c r="AW39" s="151"/>
-      <c r="AX39" s="26"/>
+      <c r="AW39" s="150"/>
+      <c r="AX39" s="151"/>
       <c r="AY39" s="26"/>
       <c r="AZ39" s="25"/>
     </row>
-    <row r="40" spans="1:52" s="21" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" s="21" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
       <c r="C40" s="152" t="s">
@@ -14903,34 +15812,34 @@
       <c r="G40" s="153"/>
       <c r="H40" s="153"/>
       <c r="I40" s="154"/>
-      <c r="J40" s="158" t="s">
+      <c r="J40" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="153"/>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153"/>
-      <c r="W40" s="153"/>
-      <c r="X40" s="153"/>
-      <c r="Y40" s="153"/>
-      <c r="Z40" s="153"/>
-      <c r="AA40" s="153"/>
-      <c r="AB40" s="153"/>
-      <c r="AC40" s="153"/>
-      <c r="AD40" s="153"/>
-      <c r="AE40" s="154"/>
-      <c r="AF40" s="152" t="s">
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="162"/>
+      <c r="S40" s="162"/>
+      <c r="T40" s="162"/>
+      <c r="U40" s="162"/>
+      <c r="V40" s="162"/>
+      <c r="W40" s="162"/>
+      <c r="X40" s="162"/>
+      <c r="Y40" s="162"/>
+      <c r="Z40" s="162"/>
+      <c r="AA40" s="162"/>
+      <c r="AB40" s="162"/>
+      <c r="AC40" s="162"/>
+      <c r="AD40" s="162"/>
+      <c r="AE40" s="162"/>
+      <c r="AF40" s="163"/>
+      <c r="AG40" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="AG40" s="153"/>
       <c r="AH40" s="153"/>
       <c r="AI40" s="153"/>
       <c r="AJ40" s="153"/>
@@ -14946,12 +15855,12 @@
       <c r="AT40" s="153"/>
       <c r="AU40" s="153"/>
       <c r="AV40" s="153"/>
-      <c r="AW40" s="154"/>
-      <c r="AX40" s="26"/>
+      <c r="AW40" s="153"/>
+      <c r="AX40" s="154"/>
       <c r="AY40" s="26"/>
       <c r="AZ40" s="25"/>
     </row>
-    <row r="41" spans="1:52" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" s="21" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
       <c r="C41" s="152" t="s">
@@ -14963,34 +15872,34 @@
       <c r="G41" s="153"/>
       <c r="H41" s="153"/>
       <c r="I41" s="154"/>
-      <c r="J41" s="158" t="s">
+      <c r="J41" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153"/>
-      <c r="W41" s="153"/>
-      <c r="X41" s="153"/>
-      <c r="Y41" s="153"/>
-      <c r="Z41" s="153"/>
-      <c r="AA41" s="153"/>
-      <c r="AB41" s="153"/>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="153"/>
-      <c r="AE41" s="154"/>
-      <c r="AF41" s="152" t="s">
+      <c r="K41" s="162"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
+      <c r="R41" s="162"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="162"/>
+      <c r="U41" s="162"/>
+      <c r="V41" s="162"/>
+      <c r="W41" s="162"/>
+      <c r="X41" s="162"/>
+      <c r="Y41" s="162"/>
+      <c r="Z41" s="162"/>
+      <c r="AA41" s="162"/>
+      <c r="AB41" s="162"/>
+      <c r="AC41" s="162"/>
+      <c r="AD41" s="162"/>
+      <c r="AE41" s="162"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="AG41" s="153"/>
       <c r="AH41" s="153"/>
       <c r="AI41" s="153"/>
       <c r="AJ41" s="153"/>
@@ -15006,12 +15915,12 @@
       <c r="AT41" s="153"/>
       <c r="AU41" s="153"/>
       <c r="AV41" s="153"/>
-      <c r="AW41" s="154"/>
-      <c r="AX41" s="26"/>
+      <c r="AW41" s="153"/>
+      <c r="AX41" s="154"/>
       <c r="AY41" s="26"/>
       <c r="AZ41" s="25"/>
     </row>
-    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
       <c r="C42" s="155" t="s">
@@ -15046,11 +15955,11 @@
       <c r="AB42" s="156"/>
       <c r="AC42" s="156"/>
       <c r="AD42" s="156"/>
-      <c r="AE42" s="157"/>
-      <c r="AF42" s="155" t="s">
+      <c r="AE42" s="156"/>
+      <c r="AF42" s="157"/>
+      <c r="AG42" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="AG42" s="156"/>
       <c r="AH42" s="156"/>
       <c r="AI42" s="156"/>
       <c r="AJ42" s="156"/>
@@ -15066,12 +15975,12 @@
       <c r="AT42" s="156"/>
       <c r="AU42" s="156"/>
       <c r="AV42" s="156"/>
-      <c r="AW42" s="157"/>
-      <c r="AX42" s="26"/>
+      <c r="AW42" s="156"/>
+      <c r="AX42" s="157"/>
       <c r="AY42" s="26"/>
       <c r="AZ42" s="25"/>
     </row>
-    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -15125,7 +16034,7 @@
       <c r="AY43" s="26"/>
       <c r="AZ43" s="25"/>
     </row>
-    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -15179,7 +16088,7 @@
       <c r="AY44" s="26"/>
       <c r="AZ44" s="25"/>
     </row>
-    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -15233,113 +16142,59 @@
       <c r="AY45" s="26"/>
       <c r="AZ45" s="25"/>
     </row>
-    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="26"/>
-      <c r="AO46" s="26"/>
-      <c r="AP46" s="26"/>
-      <c r="AQ46" s="26"/>
-      <c r="AR46" s="26"/>
-      <c r="AS46" s="26"/>
-      <c r="AT46" s="26"/>
-      <c r="AU46" s="26"/>
-      <c r="AV46" s="26"/>
-      <c r="AW46" s="26"/>
-      <c r="AX46" s="26"/>
-      <c r="AY46" s="26"/>
-      <c r="AZ46" s="25"/>
-    </row>
-    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23"/>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="22"/>
+    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="23"/>
+      <c r="AX46" s="23"/>
+      <c r="AY46" s="23"/>
+      <c r="AZ46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -15361,17 +16216,17 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="C39:I39"/>
-    <mergeCell ref="J39:AE39"/>
-    <mergeCell ref="AF39:AW39"/>
+    <mergeCell ref="AG39:AX39"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C41:I41"/>
     <mergeCell ref="C42:I42"/>
-    <mergeCell ref="J40:AE40"/>
-    <mergeCell ref="J41:AE41"/>
-    <mergeCell ref="J42:AE42"/>
-    <mergeCell ref="AF40:AW40"/>
-    <mergeCell ref="AF41:AW41"/>
-    <mergeCell ref="AF42:AW42"/>
+    <mergeCell ref="AG40:AX40"/>
+    <mergeCell ref="AG41:AX41"/>
+    <mergeCell ref="AG42:AX42"/>
+    <mergeCell ref="J39:AF39"/>
+    <mergeCell ref="J40:AF40"/>
+    <mergeCell ref="J41:AF41"/>
+    <mergeCell ref="J42:AF42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -15390,20 +16245,21 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ107"/>
+  <dimension ref="A1:AZ106"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="3.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>クラス構成図</v>
@@ -15471,9 +16327,9 @@
         <v>11</v>
       </c>
       <c r="AY1" s="118"/>
-      <c r="AZ1" s="160"/>
-    </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AZ1" s="164"/>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -15536,7 +16392,7 @@
       <c r="AY2" s="121"/>
       <c r="AZ2" s="125"/>
     </row>
-    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
@@ -15600,7 +16456,7 @@
       <c r="AY3" s="97"/>
       <c r="AZ3" s="126"/>
     </row>
-    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -15654,7 +16510,7 @@
       <c r="AY4" s="26"/>
       <c r="AZ4" s="25"/>
     </row>
-    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
         <v>110</v>
@@ -15710,7 +16566,7 @@
       <c r="AY5" s="26"/>
       <c r="AZ5" s="25"/>
     </row>
-    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -15764,7 +16620,7 @@
       <c r="AY6" s="26"/>
       <c r="AZ6" s="25"/>
     </row>
-    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -15818,7 +16674,7 @@
       <c r="AY7" s="26"/>
       <c r="AZ7" s="25"/>
     </row>
-    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -15872,7 +16728,7 @@
       <c r="AY8" s="26"/>
       <c r="AZ8" s="25"/>
     </row>
-    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -15926,7 +16782,7 @@
       <c r="AY9" s="26"/>
       <c r="AZ9" s="25"/>
     </row>
-    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -15980,7 +16836,7 @@
       <c r="AY10" s="26"/>
       <c r="AZ10" s="25"/>
     </row>
-    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -16034,7 +16890,7 @@
       <c r="AY11" s="26"/>
       <c r="AZ11" s="25"/>
     </row>
-    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -16088,7 +16944,7 @@
       <c r="AY12" s="26"/>
       <c r="AZ12" s="25"/>
     </row>
-    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -16142,7 +16998,7 @@
       <c r="AY13" s="26"/>
       <c r="AZ13" s="25"/>
     </row>
-    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -16196,7 +17052,7 @@
       <c r="AY14" s="26"/>
       <c r="AZ14" s="25"/>
     </row>
-    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -16250,7 +17106,7 @@
       <c r="AY15" s="26"/>
       <c r="AZ15" s="25"/>
     </row>
-    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -16304,7 +17160,7 @@
       <c r="AY16" s="26"/>
       <c r="AZ16" s="25"/>
     </row>
-    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -16358,7 +17214,7 @@
       <c r="AY17" s="26"/>
       <c r="AZ17" s="25"/>
     </row>
-    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -16412,7 +17268,7 @@
       <c r="AY18" s="26"/>
       <c r="AZ18" s="25"/>
     </row>
-    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -16466,7 +17322,7 @@
       <c r="AY19" s="26"/>
       <c r="AZ19" s="25"/>
     </row>
-    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -16520,7 +17376,7 @@
       <c r="AY20" s="26"/>
       <c r="AZ20" s="25"/>
     </row>
-    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -16574,7 +17430,7 @@
       <c r="AY21" s="26"/>
       <c r="AZ21" s="25"/>
     </row>
-    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -16628,7 +17484,7 @@
       <c r="AY22" s="26"/>
       <c r="AZ22" s="25"/>
     </row>
-    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -16682,7 +17538,7 @@
       <c r="AY23" s="26"/>
       <c r="AZ23" s="25"/>
     </row>
-    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -16736,7 +17592,7 @@
       <c r="AY24" s="26"/>
       <c r="AZ24" s="25"/>
     </row>
-    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -16790,7 +17646,7 @@
       <c r="AY25" s="26"/>
       <c r="AZ25" s="25"/>
     </row>
-    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -16844,7 +17700,7 @@
       <c r="AY26" s="26"/>
       <c r="AZ26" s="25"/>
     </row>
-    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -16898,7 +17754,7 @@
       <c r="AY27" s="26"/>
       <c r="AZ27" s="25"/>
     </row>
-    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -16952,7 +17808,7 @@
       <c r="AY28" s="26"/>
       <c r="AZ28" s="25"/>
     </row>
-    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -17006,7 +17862,7 @@
       <c r="AY29" s="26"/>
       <c r="AZ29" s="25"/>
     </row>
-    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -17060,7 +17916,7 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="25"/>
     </row>
-    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -17114,7 +17970,7 @@
       <c r="AY31" s="26"/>
       <c r="AZ31" s="25"/>
     </row>
-    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -17168,9 +18024,11 @@
       <c r="AY32" s="26"/>
       <c r="AZ32" s="25"/>
     </row>
-    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -17222,11 +18080,9 @@
       <c r="AY33" s="26"/>
       <c r="AZ33" s="25"/>
     </row>
-    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
-      <c r="B34" s="26" t="s">
-        <v>111</v>
-      </c>
+      <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -17278,361 +18134,365 @@
       <c r="AY34" s="26"/>
       <c r="AZ34" s="25"/>
     </row>
-    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
+      <c r="C35" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="33"/>
       <c r="AZ35" s="25"/>
     </row>
-    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="31" t="s">
-        <v>28</v>
+      <c r="C36" s="62" t="s">
+        <v>24</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="34" t="s">
-        <v>150</v>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="62" t="s">
+        <v>151</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="34" t="s">
-        <v>29</v>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="35" t="s">
+        <v>133</v>
       </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="33"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="83"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="37"/>
       <c r="AZ36" s="25"/>
     </row>
-    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="62" t="s">
-        <v>24</v>
+      <c r="C37" s="60"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="60" t="s">
+        <v>152</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="62" t="s">
-        <v>151</v>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="38" t="s">
+        <v>140</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="83"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="37"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="85"/>
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="40"/>
       <c r="AZ37" s="25"/>
     </row>
-    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="60" t="s">
-        <v>152</v>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65" t="s">
+        <v>153</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="38" t="s">
-        <v>140</v>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="41" t="s">
+        <v>141</v>
       </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="85"/>
-      <c r="AP38" s="39"/>
-      <c r="AQ38" s="39"/>
-      <c r="AR38" s="39"/>
-      <c r="AS38" s="39"/>
-      <c r="AT38" s="39"/>
-      <c r="AU38" s="39"/>
-      <c r="AV38" s="39"/>
-      <c r="AW38" s="39"/>
-      <c r="AX38" s="39"/>
-      <c r="AY38" s="40"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="87"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42"/>
+      <c r="AY38" s="43"/>
       <c r="AZ38" s="25"/>
     </row>
-    <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="65" t="s">
-        <v>153</v>
+      <c r="C39" s="62" t="s">
+        <v>25</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="41" t="s">
-        <v>141</v>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="62" t="s">
+        <v>113</v>
       </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
-      <c r="AJ39" s="42"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="87"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
-      <c r="AU39" s="42"/>
-      <c r="AV39" s="42"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="43"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO39" s="63"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="63"/>
+      <c r="AV39" s="63"/>
+      <c r="AW39" s="63"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="64"/>
       <c r="AZ39" s="25"/>
     </row>
-    <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="62" t="s">
-        <v>25</v>
+      <c r="C40" s="60"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="54" t="s">
+        <v>119</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="62" t="s">
-        <v>113</v>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="55" t="s">
+        <v>129</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="63"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="63"/>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="63"/>
-      <c r="AL40" s="63"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO40" s="63"/>
-      <c r="AP40" s="63"/>
-      <c r="AQ40" s="63"/>
-      <c r="AR40" s="63"/>
-      <c r="AS40" s="63"/>
-      <c r="AT40" s="63"/>
-      <c r="AU40" s="63"/>
-      <c r="AV40" s="63"/>
-      <c r="AW40" s="63"/>
-      <c r="AX40" s="63"/>
-      <c r="AY40" s="64"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="56"/>
       <c r="AZ40" s="25"/>
     </row>
-    <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
       <c r="C41" s="60"/>
@@ -17640,57 +18500,57 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="61"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="54" t="s">
-        <v>119</v>
+      <c r="H41" s="57" t="s">
+        <v>114</v>
       </c>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
-      <c r="AN41" s="55" t="s">
-        <v>129</v>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="57" t="s">
+        <v>126</v>
       </c>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
-      <c r="AW41" s="55"/>
-      <c r="AX41" s="55"/>
-      <c r="AY41" s="56"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="59"/>
       <c r="AZ41" s="25"/>
     </row>
-    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
       <c r="C42" s="60"/>
@@ -17698,57 +18558,55 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="61"/>
-      <c r="H42" s="57" t="s">
-        <v>114</v>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="54" t="s">
+        <v>120</v>
       </c>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="58"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
-      <c r="AJ42" s="58"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="59"/>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="59"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55"/>
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="55"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55"/>
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="56"/>
       <c r="AZ42" s="25"/>
     </row>
-    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="26"/>
       <c r="C43" s="60"/>
@@ -17756,55 +18614,59 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="61"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="54" t="s">
-        <v>120</v>
+      <c r="H43" s="57" t="s">
+        <v>115</v>
       </c>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="55"/>
-      <c r="AU43" s="55"/>
-      <c r="AV43" s="55"/>
-      <c r="AW43" s="55"/>
-      <c r="AX43" s="55"/>
-      <c r="AY43" s="56"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="59"/>
       <c r="AZ43" s="25"/>
     </row>
-    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="26"/>
       <c r="C44" s="60"/>
@@ -17812,117 +18674,115 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="61"/>
-      <c r="H44" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="58"/>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="58"/>
-      <c r="AJ44" s="58"/>
-      <c r="AK44" s="58"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="59"/>
-      <c r="AN44" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="58"/>
-      <c r="AQ44" s="58"/>
-      <c r="AR44" s="58"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="59"/>
-      <c r="AZ44" s="25"/>
-    </row>
-    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="55" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="55"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="55"/>
-      <c r="AJ45" s="55"/>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="56"/>
-      <c r="AN45" s="55" t="s">
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="55"/>
-      <c r="AQ45" s="55"/>
-      <c r="AR45" s="55"/>
-      <c r="AS45" s="55"/>
-      <c r="AT45" s="55"/>
-      <c r="AU45" s="55"/>
-      <c r="AV45" s="55"/>
-      <c r="AW45" s="55"/>
-      <c r="AX45" s="55"/>
-      <c r="AY45" s="56"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="25"/>
+    </row>
+    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="73"/>
+      <c r="AO45" s="73"/>
+      <c r="AP45" s="73"/>
+      <c r="AQ45" s="73"/>
+      <c r="AR45" s="73"/>
+      <c r="AS45" s="73"/>
+      <c r="AT45" s="73"/>
+      <c r="AU45" s="73"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="74"/>
       <c r="AZ45" s="25"/>
     </row>
-    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="69"/>
       <c r="C46" s="70"/>
@@ -17930,229 +18790,229 @@
       <c r="E46" s="69"/>
       <c r="F46" s="69"/>
       <c r="G46" s="71"/>
-      <c r="H46" s="72" t="s">
-        <v>116</v>
+      <c r="H46" s="70"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="69" t="s">
+        <v>117</v>
       </c>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="73"/>
-      <c r="AB46" s="73"/>
-      <c r="AC46" s="73"/>
-      <c r="AD46" s="73"/>
-      <c r="AE46" s="73"/>
-      <c r="AF46" s="73"/>
-      <c r="AG46" s="73"/>
-      <c r="AH46" s="73"/>
-      <c r="AI46" s="73"/>
-      <c r="AJ46" s="73"/>
-      <c r="AK46" s="73"/>
-      <c r="AL46" s="73"/>
-      <c r="AM46" s="74"/>
-      <c r="AN46" s="73"/>
-      <c r="AO46" s="73"/>
-      <c r="AP46" s="73"/>
-      <c r="AQ46" s="73"/>
-      <c r="AR46" s="73"/>
-      <c r="AS46" s="73"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="73"/>
-      <c r="AV46" s="73"/>
-      <c r="AW46" s="73"/>
-      <c r="AX46" s="73"/>
-      <c r="AY46" s="74"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="69"/>
+      <c r="AC46" s="69"/>
+      <c r="AD46" s="69"/>
+      <c r="AE46" s="69"/>
+      <c r="AF46" s="69"/>
+      <c r="AG46" s="69"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="69"/>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="71"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="71"/>
       <c r="AZ46" s="25"/>
     </row>
-    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="69"/>
-      <c r="AC47" s="69"/>
-      <c r="AD47" s="69"/>
-      <c r="AE47" s="69"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="69"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
-      <c r="AS47" s="69"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="69"/>
-      <c r="AV47" s="69"/>
-      <c r="AW47" s="69"/>
-      <c r="AX47" s="69"/>
-      <c r="AY47" s="71"/>
-      <c r="AZ47" s="25"/>
-    </row>
-    <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="78" t="s">
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78"/>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="78"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="78"/>
-      <c r="AF48" s="78"/>
-      <c r="AG48" s="78"/>
-      <c r="AH48" s="78"/>
-      <c r="AI48" s="78"/>
-      <c r="AJ48" s="78"/>
-      <c r="AK48" s="78"/>
-      <c r="AL48" s="78"/>
-      <c r="AM48" s="79"/>
-      <c r="AN48" s="78"/>
-      <c r="AO48" s="78"/>
-      <c r="AP48" s="78"/>
-      <c r="AQ48" s="78"/>
-      <c r="AR48" s="78"/>
-      <c r="AS48" s="78"/>
-      <c r="AT48" s="78"/>
-      <c r="AU48" s="78"/>
-      <c r="AV48" s="78"/>
-      <c r="AW48" s="78"/>
-      <c r="AX48" s="78"/>
-      <c r="AY48" s="79"/>
-      <c r="AZ48" s="25"/>
-    </row>
-    <row r="49" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="78"/>
+      <c r="AB47" s="78"/>
+      <c r="AC47" s="78"/>
+      <c r="AD47" s="78"/>
+      <c r="AE47" s="78"/>
+      <c r="AF47" s="78"/>
+      <c r="AG47" s="78"/>
+      <c r="AH47" s="78"/>
+      <c r="AI47" s="78"/>
+      <c r="AJ47" s="78"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="78"/>
+      <c r="AM47" s="79"/>
+      <c r="AN47" s="78"/>
+      <c r="AO47" s="78"/>
+      <c r="AP47" s="78"/>
+      <c r="AQ47" s="78"/>
+      <c r="AR47" s="78"/>
+      <c r="AS47" s="78"/>
+      <c r="AT47" s="78"/>
+      <c r="AU47" s="78"/>
+      <c r="AV47" s="78"/>
+      <c r="AW47" s="78"/>
+      <c r="AX47" s="78"/>
+      <c r="AY47" s="79"/>
+      <c r="AZ47" s="25"/>
+    </row>
+    <row r="48" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="81"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="81"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="81"/>
+      <c r="AK48" s="81"/>
+      <c r="AL48" s="81"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="81"/>
+      <c r="AO48" s="83"/>
+      <c r="AP48" s="81"/>
+      <c r="AQ48" s="81"/>
+      <c r="AR48" s="81"/>
+      <c r="AS48" s="81"/>
+      <c r="AT48" s="81"/>
+      <c r="AU48" s="81"/>
+      <c r="AV48" s="81"/>
+      <c r="AW48" s="81"/>
+      <c r="AX48" s="81"/>
+      <c r="AY48" s="82"/>
+      <c r="AZ48" s="75"/>
+    </row>
+    <row r="49" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="62" t="s">
-        <v>121</v>
+      <c r="C49" s="60"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="57" t="s">
+        <v>145</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="80" t="s">
-        <v>144</v>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="57" t="s">
+        <v>143</v>
       </c>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="81"/>
-      <c r="AE49" s="81"/>
-      <c r="AF49" s="81"/>
-      <c r="AG49" s="81"/>
-      <c r="AH49" s="81"/>
-      <c r="AI49" s="81"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="81"/>
-      <c r="AL49" s="81"/>
-      <c r="AM49" s="82"/>
-      <c r="AN49" s="81"/>
-      <c r="AO49" s="83"/>
-      <c r="AP49" s="81"/>
-      <c r="AQ49" s="81"/>
-      <c r="AR49" s="81"/>
-      <c r="AS49" s="81"/>
-      <c r="AT49" s="81"/>
-      <c r="AU49" s="81"/>
-      <c r="AV49" s="81"/>
-      <c r="AW49" s="81"/>
-      <c r="AX49" s="81"/>
-      <c r="AY49" s="82"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="58"/>
+      <c r="AM49" s="59"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="58"/>
+      <c r="AP49" s="58"/>
+      <c r="AQ49" s="58"/>
+      <c r="AR49" s="58"/>
+      <c r="AS49" s="58"/>
+      <c r="AT49" s="58"/>
+      <c r="AU49" s="58"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="59"/>
       <c r="AZ49" s="75"/>
     </row>
-    <row r="50" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="68"/>
       <c r="B50" s="26"/>
       <c r="C50" s="60"/>
@@ -18160,57 +19020,55 @@
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="61"/>
-      <c r="H50" s="57" t="s">
-        <v>145</v>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="54" t="s">
+        <v>149</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="59"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="59"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="55"/>
+      <c r="AX50" s="55"/>
+      <c r="AY50" s="56"/>
       <c r="AZ50" s="75"/>
     </row>
-    <row r="51" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68"/>
       <c r="B51" s="26"/>
       <c r="C51" s="60"/>
@@ -18218,55 +19076,57 @@
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="54" t="s">
-        <v>149</v>
+      <c r="H51" s="84" t="s">
+        <v>155</v>
       </c>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="55"/>
-      <c r="AJ51" s="55"/>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="55"/>
-      <c r="AS51" s="55"/>
-      <c r="AT51" s="55"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="55"/>
-      <c r="AW51" s="55"/>
-      <c r="AX51" s="55"/>
-      <c r="AY51" s="56"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
+      <c r="AH51" s="85"/>
+      <c r="AI51" s="85"/>
+      <c r="AJ51" s="85"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="85"/>
+      <c r="AM51" s="86"/>
+      <c r="AN51" s="85"/>
+      <c r="AO51" s="85"/>
+      <c r="AP51" s="85"/>
+      <c r="AQ51" s="85"/>
+      <c r="AR51" s="85"/>
+      <c r="AS51" s="85"/>
+      <c r="AT51" s="85"/>
+      <c r="AU51" s="85"/>
+      <c r="AV51" s="85"/>
+      <c r="AW51" s="85"/>
+      <c r="AX51" s="85"/>
+      <c r="AY51" s="86"/>
       <c r="AZ51" s="75"/>
     </row>
-    <row r="52" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68"/>
       <c r="B52" s="26"/>
       <c r="C52" s="60"/>
@@ -18274,57 +19134,57 @@
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="61"/>
-      <c r="H52" s="84" t="s">
-        <v>155</v>
+      <c r="H52" s="38" t="s">
+        <v>122</v>
       </c>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="84" t="s">
-        <v>130</v>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38" t="s">
+        <v>156</v>
       </c>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="85"/>
-      <c r="AA52" s="85"/>
-      <c r="AB52" s="85"/>
-      <c r="AC52" s="85"/>
-      <c r="AD52" s="85"/>
-      <c r="AE52" s="85"/>
-      <c r="AF52" s="85"/>
-      <c r="AG52" s="85"/>
-      <c r="AH52" s="85"/>
-      <c r="AI52" s="85"/>
-      <c r="AJ52" s="85"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="85"/>
-      <c r="AM52" s="86"/>
-      <c r="AN52" s="85"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="40"/>
+      <c r="AN52" s="39"/>
       <c r="AO52" s="85"/>
-      <c r="AP52" s="85"/>
-      <c r="AQ52" s="85"/>
-      <c r="AR52" s="85"/>
-      <c r="AS52" s="85"/>
-      <c r="AT52" s="85"/>
-      <c r="AU52" s="85"/>
-      <c r="AV52" s="85"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="85"/>
-      <c r="AY52" s="86"/>
+      <c r="AP52" s="39"/>
+      <c r="AQ52" s="39"/>
+      <c r="AR52" s="39"/>
+      <c r="AS52" s="39"/>
+      <c r="AT52" s="39"/>
+      <c r="AU52" s="39"/>
+      <c r="AV52" s="39"/>
+      <c r="AW52" s="39"/>
+      <c r="AX52" s="39"/>
+      <c r="AY52" s="40"/>
       <c r="AZ52" s="75"/>
     </row>
-    <row r="53" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="68"/>
       <c r="B53" s="26"/>
       <c r="C53" s="60"/>
@@ -18333,14 +19193,14 @@
       <c r="F53" s="26"/>
       <c r="G53" s="61"/>
       <c r="H53" s="38" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
       <c r="M53" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
@@ -18382,240 +19242,238 @@
       <c r="AY53" s="40"/>
       <c r="AZ53" s="75"/>
     </row>
-    <row r="54" spans="1:52" s="76" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
+    <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="38" t="s">
-        <v>134</v>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="41" t="s">
+        <v>146</v>
       </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="38" t="s">
-        <v>157</v>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41" t="s">
+        <v>142</v>
       </c>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="40"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="85"/>
-      <c r="AP54" s="39"/>
-      <c r="AQ54" s="39"/>
-      <c r="AR54" s="39"/>
-      <c r="AS54" s="39"/>
-      <c r="AT54" s="39"/>
-      <c r="AU54" s="39"/>
-      <c r="AV54" s="39"/>
-      <c r="AW54" s="39"/>
-      <c r="AX54" s="39"/>
-      <c r="AY54" s="40"/>
-      <c r="AZ54" s="75"/>
-    </row>
-    <row r="55" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="43"/>
+      <c r="AN54" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO54" s="87"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="42"/>
+      <c r="AR54" s="42"/>
+      <c r="AS54" s="42"/>
+      <c r="AT54" s="42"/>
+      <c r="AU54" s="42"/>
+      <c r="AV54" s="42"/>
+      <c r="AW54" s="42"/>
+      <c r="AX54" s="42"/>
+      <c r="AY54" s="43"/>
+      <c r="AZ54" s="25"/>
+    </row>
+    <row r="55" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="65"/>
+      <c r="C55" s="65" t="s">
+        <v>27</v>
+      </c>
       <c r="D55" s="66"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="42"/>
-      <c r="AB55" s="42"/>
-      <c r="AC55" s="42"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
-      <c r="AI55" s="42"/>
-      <c r="AJ55" s="42"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="43"/>
-      <c r="AN55" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="42"/>
-      <c r="AQ55" s="42"/>
-      <c r="AR55" s="42"/>
-      <c r="AS55" s="42"/>
-      <c r="AT55" s="42"/>
-      <c r="AU55" s="42"/>
-      <c r="AV55" s="42"/>
-      <c r="AW55" s="42"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="43"/>
-      <c r="AZ55" s="25"/>
-    </row>
-    <row r="56" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="65" t="s">
+      <c r="G55" s="66"/>
+      <c r="H55" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="65" t="s">
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
-      <c r="X56" s="66"/>
-      <c r="Y56" s="66"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="66"/>
-      <c r="AB56" s="66"/>
-      <c r="AC56" s="66"/>
-      <c r="AD56" s="66"/>
-      <c r="AE56" s="66"/>
-      <c r="AF56" s="66"/>
-      <c r="AG56" s="66"/>
-      <c r="AH56" s="66"/>
-      <c r="AI56" s="66"/>
-      <c r="AJ56" s="66"/>
-      <c r="AK56" s="66"/>
-      <c r="AL56" s="66"/>
-      <c r="AM56" s="67"/>
-      <c r="AN56" s="66"/>
-      <c r="AO56" s="66"/>
-      <c r="AP56" s="66"/>
-      <c r="AQ56" s="66"/>
-      <c r="AR56" s="66"/>
-      <c r="AS56" s="66"/>
-      <c r="AT56" s="66"/>
-      <c r="AU56" s="66"/>
-      <c r="AV56" s="66"/>
-      <c r="AW56" s="66"/>
-      <c r="AX56" s="66"/>
-      <c r="AY56" s="67"/>
-      <c r="AZ56" s="25"/>
-    </row>
-    <row r="57" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="23"/>
-      <c r="AD57" s="23"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="23"/>
-      <c r="AG57" s="23"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="23"/>
-      <c r="AJ57" s="23"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="23"/>
-      <c r="AP57" s="23"/>
-      <c r="AQ57" s="23"/>
-      <c r="AR57" s="23"/>
-      <c r="AS57" s="23"/>
-      <c r="AT57" s="23"/>
-      <c r="AU57" s="23"/>
-      <c r="AV57" s="23"/>
-      <c r="AW57" s="23"/>
-      <c r="AX57" s="23"/>
-      <c r="AY57" s="23"/>
-      <c r="AZ57" s="22"/>
-    </row>
-    <row r="58" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="66"/>
+      <c r="Z55" s="66"/>
+      <c r="AA55" s="66"/>
+      <c r="AB55" s="66"/>
+      <c r="AC55" s="66"/>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="66"/>
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
+      <c r="AK55" s="66"/>
+      <c r="AL55" s="66"/>
+      <c r="AM55" s="67"/>
+      <c r="AN55" s="66"/>
+      <c r="AO55" s="66"/>
+      <c r="AP55" s="66"/>
+      <c r="AQ55" s="66"/>
+      <c r="AR55" s="66"/>
+      <c r="AS55" s="66"/>
+      <c r="AT55" s="66"/>
+      <c r="AU55" s="66"/>
+      <c r="AV55" s="66"/>
+      <c r="AW55" s="66"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="67"/>
+      <c r="AZ55" s="25"/>
+    </row>
+    <row r="56" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
+      <c r="AG56" s="23"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="23"/>
+      <c r="AO56" s="23"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="23"/>
+      <c r="AS56" s="23"/>
+      <c r="AT56" s="23"/>
+      <c r="AU56" s="23"/>
+      <c r="AV56" s="23"/>
+      <c r="AW56" s="23"/>
+      <c r="AX56" s="23"/>
+      <c r="AY56" s="23"/>
+      <c r="AZ56" s="22"/>
+    </row>
+    <row r="57" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="26"/>
+      <c r="AN57" s="26"/>
+      <c r="AO57" s="26"/>
+      <c r="AP57" s="26"/>
+      <c r="AQ57" s="26"/>
+      <c r="AR57" s="26"/>
+      <c r="AS57" s="26"/>
+      <c r="AT57" s="26"/>
+      <c r="AU57" s="26"/>
+      <c r="AV57" s="26"/>
+      <c r="AW57" s="26"/>
+      <c r="AX57" s="26"/>
+      <c r="AY57" s="26"/>
+      <c r="AZ57" s="25"/>
+    </row>
+    <row r="58" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
+      <c r="B58" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -18667,11 +19525,9 @@
       <c r="AY58" s="26"/>
       <c r="AZ58" s="25"/>
     </row>
-    <row r="59" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
-      <c r="B59" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="B59" s="26"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -18723,7 +19579,7 @@
       <c r="AY59" s="26"/>
       <c r="AZ59" s="25"/>
     </row>
-    <row r="60" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -18777,7 +19633,7 @@
       <c r="AY60" s="26"/>
       <c r="AZ60" s="25"/>
     </row>
-    <row r="61" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -18831,7 +19687,7 @@
       <c r="AY61" s="26"/>
       <c r="AZ61" s="25"/>
     </row>
-    <row r="62" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -18885,7 +19741,7 @@
       <c r="AY62" s="26"/>
       <c r="AZ62" s="25"/>
     </row>
-    <row r="63" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -18939,7 +19795,7 @@
       <c r="AY63" s="26"/>
       <c r="AZ63" s="25"/>
     </row>
-    <row r="64" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -18993,7 +19849,7 @@
       <c r="AY64" s="26"/>
       <c r="AZ64" s="25"/>
     </row>
-    <row r="65" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -19047,7 +19903,7 @@
       <c r="AY65" s="26"/>
       <c r="AZ65" s="25"/>
     </row>
-    <row r="66" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -19101,7 +19957,7 @@
       <c r="AY66" s="26"/>
       <c r="AZ66" s="25"/>
     </row>
-    <row r="67" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -19155,7 +20011,7 @@
       <c r="AY67" s="26"/>
       <c r="AZ67" s="25"/>
     </row>
-    <row r="68" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -19209,7 +20065,7 @@
       <c r="AY68" s="26"/>
       <c r="AZ68" s="25"/>
     </row>
-    <row r="69" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -19263,7 +20119,7 @@
       <c r="AY69" s="26"/>
       <c r="AZ69" s="25"/>
     </row>
-    <row r="70" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -19317,7 +20173,7 @@
       <c r="AY70" s="26"/>
       <c r="AZ70" s="25"/>
     </row>
-    <row r="71" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -19371,7 +20227,7 @@
       <c r="AY71" s="26"/>
       <c r="AZ71" s="25"/>
     </row>
-    <row r="72" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -19425,7 +20281,7 @@
       <c r="AY72" s="26"/>
       <c r="AZ72" s="25"/>
     </row>
-    <row r="73" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -19479,7 +20335,7 @@
       <c r="AY73" s="26"/>
       <c r="AZ73" s="25"/>
     </row>
-    <row r="74" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -19533,7 +20389,7 @@
       <c r="AY74" s="26"/>
       <c r="AZ74" s="25"/>
     </row>
-    <row r="75" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -19587,7 +20443,7 @@
       <c r="AY75" s="26"/>
       <c r="AZ75" s="25"/>
     </row>
-    <row r="76" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -19641,7 +20497,7 @@
       <c r="AY76" s="26"/>
       <c r="AZ76" s="25"/>
     </row>
-    <row r="77" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -19695,7 +20551,7 @@
       <c r="AY77" s="26"/>
       <c r="AZ77" s="25"/>
     </row>
-    <row r="78" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -19749,7 +20605,7 @@
       <c r="AY78" s="26"/>
       <c r="AZ78" s="25"/>
     </row>
-    <row r="79" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -19803,7 +20659,7 @@
       <c r="AY79" s="26"/>
       <c r="AZ79" s="25"/>
     </row>
-    <row r="80" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -19857,7 +20713,7 @@
       <c r="AY80" s="26"/>
       <c r="AZ80" s="25"/>
     </row>
-    <row r="81" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -19911,7 +20767,7 @@
       <c r="AY81" s="26"/>
       <c r="AZ81" s="25"/>
     </row>
-    <row r="82" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -19965,7 +20821,7 @@
       <c r="AY82" s="26"/>
       <c r="AZ82" s="25"/>
     </row>
-    <row r="83" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -20019,7 +20875,7 @@
       <c r="AY83" s="26"/>
       <c r="AZ83" s="25"/>
     </row>
-    <row r="84" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -20073,7 +20929,7 @@
       <c r="AY84" s="26"/>
       <c r="AZ84" s="25"/>
     </row>
-    <row r="85" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -20127,7 +20983,7 @@
       <c r="AY85" s="26"/>
       <c r="AZ85" s="25"/>
     </row>
-    <row r="86" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -20181,7 +21037,7 @@
       <c r="AY86" s="26"/>
       <c r="AZ86" s="25"/>
     </row>
-    <row r="87" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -20235,7 +21091,7 @@
       <c r="AY87" s="26"/>
       <c r="AZ87" s="25"/>
     </row>
-    <row r="88" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -20289,7 +21145,7 @@
       <c r="AY88" s="26"/>
       <c r="AZ88" s="25"/>
     </row>
-    <row r="89" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -20343,7 +21199,7 @@
       <c r="AY89" s="26"/>
       <c r="AZ89" s="25"/>
     </row>
-    <row r="90" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -20397,7 +21253,7 @@
       <c r="AY90" s="26"/>
       <c r="AZ90" s="25"/>
     </row>
-    <row r="91" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -20451,7 +21307,7 @@
       <c r="AY91" s="26"/>
       <c r="AZ91" s="25"/>
     </row>
-    <row r="92" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -20505,7 +21361,7 @@
       <c r="AY92" s="26"/>
       <c r="AZ92" s="25"/>
     </row>
-    <row r="93" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -20559,7 +21415,7 @@
       <c r="AY93" s="26"/>
       <c r="AZ93" s="25"/>
     </row>
-    <row r="94" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -20613,7 +21469,7 @@
       <c r="AY94" s="26"/>
       <c r="AZ94" s="25"/>
     </row>
-    <row r="95" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -20667,7 +21523,7 @@
       <c r="AY95" s="26"/>
       <c r="AZ95" s="25"/>
     </row>
-    <row r="96" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -20721,7 +21577,7 @@
       <c r="AY96" s="26"/>
       <c r="AZ96" s="25"/>
     </row>
-    <row r="97" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -20775,7 +21631,7 @@
       <c r="AY97" s="26"/>
       <c r="AZ97" s="25"/>
     </row>
-    <row r="98" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -20829,7 +21685,7 @@
       <c r="AY98" s="26"/>
       <c r="AZ98" s="25"/>
     </row>
-    <row r="99" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -20883,7 +21739,7 @@
       <c r="AY99" s="26"/>
       <c r="AZ99" s="25"/>
     </row>
-    <row r="100" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -20937,10 +21793,8 @@
       <c r="AY100" s="26"/>
       <c r="AZ100" s="25"/>
     </row>
-    <row r="101" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
@@ -20991,7 +21845,7 @@
       <c r="AY101" s="26"/>
       <c r="AZ101" s="25"/>
     </row>
-    <row r="102" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -21043,8 +21897,10 @@
       <c r="AY102" s="26"/>
       <c r="AZ102" s="25"/>
     </row>
-    <row r="103" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -21095,7 +21951,7 @@
       <c r="AY103" s="26"/>
       <c r="AZ103" s="25"/>
     </row>
-    <row r="104" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -21149,7 +22005,7 @@
       <c r="AY104" s="26"/>
       <c r="AZ104" s="25"/>
     </row>
-    <row r="105" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
@@ -21203,113 +22059,59 @@
       <c r="AY105" s="26"/>
       <c r="AZ105" s="25"/>
     </row>
-    <row r="106" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="27"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26"/>
-      <c r="V106" s="26"/>
-      <c r="W106" s="26"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="26"/>
-      <c r="Z106" s="26"/>
-      <c r="AA106" s="26"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="26"/>
-      <c r="AD106" s="26"/>
-      <c r="AE106" s="26"/>
-      <c r="AF106" s="26"/>
-      <c r="AG106" s="26"/>
-      <c r="AH106" s="26"/>
-      <c r="AI106" s="26"/>
-      <c r="AJ106" s="26"/>
-      <c r="AK106" s="26"/>
-      <c r="AL106" s="26"/>
-      <c r="AM106" s="26"/>
-      <c r="AN106" s="26"/>
-      <c r="AO106" s="26"/>
-      <c r="AP106" s="26"/>
-      <c r="AQ106" s="26"/>
-      <c r="AR106" s="26"/>
-      <c r="AS106" s="26"/>
-      <c r="AT106" s="26"/>
-      <c r="AU106" s="26"/>
-      <c r="AV106" s="26"/>
-      <c r="AW106" s="26"/>
-      <c r="AX106" s="26"/>
-      <c r="AY106" s="26"/>
-      <c r="AZ106" s="25"/>
-    </row>
-    <row r="107" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="23"/>
-      <c r="R107" s="23"/>
-      <c r="S107" s="23"/>
-      <c r="T107" s="23"/>
-      <c r="U107" s="23"/>
-      <c r="V107" s="23"/>
-      <c r="W107" s="23"/>
-      <c r="X107" s="23"/>
-      <c r="Y107" s="23"/>
-      <c r="Z107" s="23"/>
-      <c r="AA107" s="23"/>
-      <c r="AB107" s="23"/>
-      <c r="AC107" s="23"/>
-      <c r="AD107" s="23"/>
-      <c r="AE107" s="23"/>
-      <c r="AF107" s="23"/>
-      <c r="AG107" s="23"/>
-      <c r="AH107" s="23"/>
-      <c r="AI107" s="23"/>
-      <c r="AJ107" s="23"/>
-      <c r="AK107" s="23"/>
-      <c r="AL107" s="23"/>
-      <c r="AM107" s="23"/>
-      <c r="AN107" s="23"/>
-      <c r="AO107" s="23"/>
-      <c r="AP107" s="23"/>
-      <c r="AQ107" s="23"/>
-      <c r="AR107" s="23"/>
-      <c r="AS107" s="23"/>
-      <c r="AT107" s="23"/>
-      <c r="AU107" s="23"/>
-      <c r="AV107" s="23"/>
-      <c r="AW107" s="23"/>
-      <c r="AX107" s="23"/>
-      <c r="AY107" s="23"/>
-      <c r="AZ107" s="22"/>
+    <row r="106" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="23"/>
+      <c r="P106" s="23"/>
+      <c r="Q106" s="23"/>
+      <c r="R106" s="23"/>
+      <c r="S106" s="23"/>
+      <c r="T106" s="23"/>
+      <c r="U106" s="23"/>
+      <c r="V106" s="23"/>
+      <c r="W106" s="23"/>
+      <c r="X106" s="23"/>
+      <c r="Y106" s="23"/>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="23"/>
+      <c r="AF106" s="23"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="23"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="23"/>
+      <c r="AL106" s="23"/>
+      <c r="AM106" s="23"/>
+      <c r="AN106" s="23"/>
+      <c r="AO106" s="23"/>
+      <c r="AP106" s="23"/>
+      <c r="AQ106" s="23"/>
+      <c r="AR106" s="23"/>
+      <c r="AS106" s="23"/>
+      <c r="AT106" s="23"/>
+      <c r="AU106" s="23"/>
+      <c r="AV106" s="23"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -21356,12 +22158,13 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="3.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プロジェクト構成図</v>
@@ -21429,9 +22232,9 @@
         <v>11</v>
       </c>
       <c r="AY1" s="118"/>
-      <c r="AZ1" s="160"/>
-    </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AZ1" s="164"/>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -21494,7 +22297,7 @@
       <c r="AY2" s="121"/>
       <c r="AZ2" s="125"/>
     </row>
-    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
@@ -21558,7 +22361,7 @@
       <c r="AY3" s="97"/>
       <c r="AZ3" s="126"/>
     </row>
-    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -21612,7 +22415,7 @@
       <c r="AY4" s="26"/>
       <c r="AZ4" s="25"/>
     </row>
-    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
         <v>107</v>
@@ -21668,7 +22471,7 @@
       <c r="AY5" s="26"/>
       <c r="AZ5" s="25"/>
     </row>
-    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -21722,7 +22525,7 @@
       <c r="AY6" s="26"/>
       <c r="AZ6" s="25"/>
     </row>
-    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -21776,7 +22579,7 @@
       <c r="AY7" s="26"/>
       <c r="AZ7" s="25"/>
     </row>
-    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -21830,7 +22633,7 @@
       <c r="AY8" s="26"/>
       <c r="AZ8" s="25"/>
     </row>
-    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -21884,7 +22687,7 @@
       <c r="AY9" s="26"/>
       <c r="AZ9" s="25"/>
     </row>
-    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -21938,7 +22741,7 @@
       <c r="AY10" s="26"/>
       <c r="AZ10" s="25"/>
     </row>
-    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -21992,7 +22795,7 @@
       <c r="AY11" s="26"/>
       <c r="AZ11" s="25"/>
     </row>
-    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -22046,7 +22849,7 @@
       <c r="AY12" s="26"/>
       <c r="AZ12" s="25"/>
     </row>
-    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -22100,7 +22903,7 @@
       <c r="AY13" s="26"/>
       <c r="AZ13" s="25"/>
     </row>
-    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -22154,7 +22957,7 @@
       <c r="AY14" s="26"/>
       <c r="AZ14" s="25"/>
     </row>
-    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -22208,7 +23011,7 @@
       <c r="AY15" s="26"/>
       <c r="AZ15" s="25"/>
     </row>
-    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -22262,7 +23065,7 @@
       <c r="AY16" s="26"/>
       <c r="AZ16" s="25"/>
     </row>
-    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -22316,7 +23119,7 @@
       <c r="AY17" s="26"/>
       <c r="AZ17" s="25"/>
     </row>
-    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -22370,7 +23173,7 @@
       <c r="AY18" s="26"/>
       <c r="AZ18" s="25"/>
     </row>
-    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -22424,7 +23227,7 @@
       <c r="AY19" s="26"/>
       <c r="AZ19" s="25"/>
     </row>
-    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -22478,7 +23281,7 @@
       <c r="AY20" s="26"/>
       <c r="AZ20" s="25"/>
     </row>
-    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -22532,7 +23335,7 @@
       <c r="AY21" s="26"/>
       <c r="AZ21" s="25"/>
     </row>
-    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -22586,7 +23389,7 @@
       <c r="AY22" s="26"/>
       <c r="AZ22" s="25"/>
     </row>
-    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -22640,7 +23443,7 @@
       <c r="AY23" s="26"/>
       <c r="AZ23" s="25"/>
     </row>
-    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -22694,7 +23497,7 @@
       <c r="AY24" s="26"/>
       <c r="AZ24" s="25"/>
     </row>
-    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -22748,7 +23551,7 @@
       <c r="AY25" s="26"/>
       <c r="AZ25" s="25"/>
     </row>
-    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -22802,7 +23605,7 @@
       <c r="AY26" s="26"/>
       <c r="AZ26" s="25"/>
     </row>
-    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -22856,7 +23659,7 @@
       <c r="AY27" s="26"/>
       <c r="AZ27" s="25"/>
     </row>
-    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -22910,7 +23713,7 @@
       <c r="AY28" s="26"/>
       <c r="AZ28" s="25"/>
     </row>
-    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -22964,7 +23767,7 @@
       <c r="AY29" s="26"/>
       <c r="AZ29" s="25"/>
     </row>
-    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -23018,7 +23821,7 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="25"/>
     </row>
-    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -23072,7 +23875,7 @@
       <c r="AY31" s="26"/>
       <c r="AZ31" s="25"/>
     </row>
-    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -23126,7 +23929,7 @@
       <c r="AY32" s="26"/>
       <c r="AZ32" s="25"/>
     </row>
-    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -23180,7 +23983,7 @@
       <c r="AY33" s="26"/>
       <c r="AZ33" s="25"/>
     </row>
-    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -23234,7 +24037,7 @@
       <c r="AY34" s="26"/>
       <c r="AZ34" s="25"/>
     </row>
-    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -23288,7 +24091,7 @@
       <c r="AY35" s="26"/>
       <c r="AZ35" s="25"/>
     </row>
-    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -23342,7 +24145,7 @@
       <c r="AY36" s="26"/>
       <c r="AZ36" s="25"/>
     </row>
-    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -23396,7 +24199,7 @@
       <c r="AY37" s="26"/>
       <c r="AZ37" s="25"/>
     </row>
-    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -23450,7 +24253,7 @@
       <c r="AY38" s="26"/>
       <c r="AZ38" s="25"/>
     </row>
-    <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -23504,7 +24307,7 @@
       <c r="AY39" s="26"/>
       <c r="AZ39" s="25"/>
     </row>
-    <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -23558,7 +24361,7 @@
       <c r="AY40" s="26"/>
       <c r="AZ40" s="25"/>
     </row>
-    <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -23612,7 +24415,7 @@
       <c r="AY41" s="26"/>
       <c r="AZ41" s="25"/>
     </row>
-    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -23666,7 +24469,7 @@
       <c r="AY42" s="26"/>
       <c r="AZ42" s="25"/>
     </row>
-    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -23720,7 +24523,7 @@
       <c r="AY43" s="26"/>
       <c r="AZ43" s="25"/>
     </row>
-    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -23774,7 +24577,7 @@
       <c r="AY44" s="26"/>
       <c r="AZ44" s="25"/>
     </row>
-    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -23828,7 +24631,7 @@
       <c r="AY45" s="26"/>
       <c r="AZ45" s="25"/>
     </row>
-    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -23882,7 +24685,7 @@
       <c r="AY46" s="26"/>
       <c r="AZ46" s="25"/>
     </row>
-    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -23936,7 +24739,7 @@
       <c r="AY47" s="26"/>
       <c r="AZ47" s="25"/>
     </row>
-    <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -23990,7 +24793,7 @@
       <c r="AY48" s="26"/>
       <c r="AZ48" s="25"/>
     </row>
-    <row r="49" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -24044,7 +24847,7 @@
       <c r="AY49" s="26"/>
       <c r="AZ49" s="25"/>
     </row>
-    <row r="50" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -24098,7 +24901,7 @@
       <c r="AY50" s="26"/>
       <c r="AZ50" s="25"/>
     </row>
-    <row r="51" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -24152,7 +24955,7 @@
       <c r="AY51" s="26"/>
       <c r="AZ51" s="25"/>
     </row>
-    <row r="52" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -24206,7 +25009,7 @@
       <c r="AY52" s="26"/>
       <c r="AZ52" s="25"/>
     </row>
-    <row r="53" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -24260,7 +25063,7 @@
       <c r="AY53" s="26"/>
       <c r="AZ53" s="25"/>
     </row>
-    <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -24314,7 +25117,7 @@
       <c r="AY54" s="26"/>
       <c r="AZ54" s="25"/>
     </row>
-    <row r="55" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -24368,7 +25171,7 @@
       <c r="AY55" s="47"/>
       <c r="AZ55" s="50"/>
     </row>
-    <row r="56" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -24422,7 +25225,7 @@
       <c r="AY56" s="47"/>
       <c r="AZ56" s="50"/>
     </row>
-    <row r="57" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="49"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
@@ -24476,7 +25279,7 @@
       <c r="AY57" s="47"/>
       <c r="AZ57" s="50"/>
     </row>
-    <row r="58" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="49"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -24530,7 +25333,7 @@
       <c r="AY58" s="47"/>
       <c r="AZ58" s="50"/>
     </row>
-    <row r="59" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -24584,7 +25387,7 @@
       <c r="AY59" s="47"/>
       <c r="AZ59" s="50"/>
     </row>
-    <row r="60" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -24638,7 +25441,7 @@
       <c r="AY60" s="47"/>
       <c r="AZ60" s="50"/>
     </row>
-    <row r="61" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -24692,7 +25495,7 @@
       <c r="AY61" s="47"/>
       <c r="AZ61" s="50"/>
     </row>
-    <row r="62" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -24746,7 +25549,7 @@
       <c r="AY62" s="47"/>
       <c r="AZ62" s="50"/>
     </row>
-    <row r="63" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -24800,7 +25603,7 @@
       <c r="AY63" s="47"/>
       <c r="AZ63" s="50"/>
     </row>
-    <row r="64" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -24854,7 +25657,7 @@
       <c r="AY64" s="47"/>
       <c r="AZ64" s="50"/>
     </row>
-    <row r="65" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="49"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
@@ -24908,7 +25711,7 @@
       <c r="AY65" s="47"/>
       <c r="AZ65" s="50"/>
     </row>
-    <row r="66" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49"/>
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
@@ -24962,7 +25765,7 @@
       <c r="AY66" s="47"/>
       <c r="AZ66" s="50"/>
     </row>
-    <row r="67" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="49"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -25016,7 +25819,7 @@
       <c r="AY67" s="47"/>
       <c r="AZ67" s="50"/>
     </row>
-    <row r="68" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
@@ -25070,7 +25873,7 @@
       <c r="AY68" s="47"/>
       <c r="AZ68" s="50"/>
     </row>
-    <row r="69" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="49"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -25124,7 +25927,7 @@
       <c r="AY69" s="47"/>
       <c r="AZ69" s="50"/>
     </row>
-    <row r="70" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -25178,7 +25981,7 @@
       <c r="AY70" s="47"/>
       <c r="AZ70" s="50"/>
     </row>
-    <row r="71" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -25232,7 +26035,7 @@
       <c r="AY71" s="47"/>
       <c r="AZ71" s="50"/>
     </row>
-    <row r="72" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="49"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
@@ -25286,7 +26089,7 @@
       <c r="AY72" s="47"/>
       <c r="AZ72" s="50"/>
     </row>
-    <row r="73" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="49"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -25340,7 +26143,7 @@
       <c r="AY73" s="47"/>
       <c r="AZ73" s="50"/>
     </row>
-    <row r="74" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="49"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
@@ -25394,7 +26197,7 @@
       <c r="AY74" s="47"/>
       <c r="AZ74" s="50"/>
     </row>
-    <row r="75" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="49"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
@@ -25448,7 +26251,7 @@
       <c r="AY75" s="47"/>
       <c r="AZ75" s="50"/>
     </row>
-    <row r="76" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="49"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
@@ -25502,7 +26305,7 @@
       <c r="AY76" s="47"/>
       <c r="AZ76" s="50"/>
     </row>
-    <row r="77" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="49"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -25556,7 +26359,7 @@
       <c r="AY77" s="47"/>
       <c r="AZ77" s="50"/>
     </row>
-    <row r="78" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="49"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -25610,7 +26413,7 @@
       <c r="AY78" s="47"/>
       <c r="AZ78" s="50"/>
     </row>
-    <row r="79" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="49"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -25664,7 +26467,7 @@
       <c r="AY79" s="47"/>
       <c r="AZ79" s="50"/>
     </row>
-    <row r="80" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="49"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
@@ -25718,7 +26521,7 @@
       <c r="AY80" s="47"/>
       <c r="AZ80" s="50"/>
     </row>
-    <row r="81" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="49"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -25772,7 +26575,7 @@
       <c r="AY81" s="47"/>
       <c r="AZ81" s="50"/>
     </row>
-    <row r="82" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
@@ -25826,7 +26629,7 @@
       <c r="AY82" s="47"/>
       <c r="AZ82" s="50"/>
     </row>
-    <row r="83" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="49"/>
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
@@ -25880,7 +26683,7 @@
       <c r="AY83" s="47"/>
       <c r="AZ83" s="50"/>
     </row>
-    <row r="84" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="49"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
@@ -25934,7 +26737,7 @@
       <c r="AY84" s="47"/>
       <c r="AZ84" s="50"/>
     </row>
-    <row r="85" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="49"/>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
@@ -25988,7 +26791,7 @@
       <c r="AY85" s="47"/>
       <c r="AZ85" s="50"/>
     </row>
-    <row r="86" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="49"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
@@ -26042,7 +26845,7 @@
       <c r="AY86" s="47"/>
       <c r="AZ86" s="50"/>
     </row>
-    <row r="87" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="49"/>
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
@@ -26096,7 +26899,7 @@
       <c r="AY87" s="47"/>
       <c r="AZ87" s="50"/>
     </row>
-    <row r="88" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="49"/>
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
@@ -26150,7 +26953,7 @@
       <c r="AY88" s="47"/>
       <c r="AZ88" s="50"/>
     </row>
-    <row r="89" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="49"/>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
@@ -26204,7 +27007,7 @@
       <c r="AY89" s="47"/>
       <c r="AZ89" s="50"/>
     </row>
-    <row r="90" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="49"/>
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
@@ -26258,7 +27061,7 @@
       <c r="AY90" s="47"/>
       <c r="AZ90" s="50"/>
     </row>
-    <row r="91" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="49"/>
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
@@ -26312,7 +27115,7 @@
       <c r="AY91" s="47"/>
       <c r="AZ91" s="50"/>
     </row>
-    <row r="92" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="49"/>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
@@ -26366,7 +27169,7 @@
       <c r="AY92" s="47"/>
       <c r="AZ92" s="50"/>
     </row>
-    <row r="93" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49"/>
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
@@ -26420,7 +27223,7 @@
       <c r="AY93" s="47"/>
       <c r="AZ93" s="50"/>
     </row>
-    <row r="94" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="49"/>
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
@@ -26474,7 +27277,7 @@
       <c r="AY94" s="47"/>
       <c r="AZ94" s="50"/>
     </row>
-    <row r="95" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="49"/>
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
@@ -26528,7 +27331,7 @@
       <c r="AY95" s="47"/>
       <c r="AZ95" s="50"/>
     </row>
-    <row r="96" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49"/>
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
@@ -26582,7 +27385,7 @@
       <c r="AY96" s="47"/>
       <c r="AZ96" s="50"/>
     </row>
-    <row r="97" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="49"/>
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
@@ -26636,7 +27439,7 @@
       <c r="AY97" s="47"/>
       <c r="AZ97" s="50"/>
     </row>
-    <row r="98" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="49"/>
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
@@ -26690,7 +27493,7 @@
       <c r="AY98" s="47"/>
       <c r="AZ98" s="50"/>
     </row>
-    <row r="99" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="49"/>
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
@@ -26744,7 +27547,7 @@
       <c r="AY99" s="47"/>
       <c r="AZ99" s="50"/>
     </row>
-    <row r="100" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="51"/>
       <c r="B100" s="52"/>
       <c r="C100" s="52"/>
@@ -26840,15 +27643,15 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
@@ -26856,7 +27659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
@@ -26864,7 +27667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -26872,7 +27675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -26903,17 +27706,18 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.2" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="45"/>
+    <col min="1" max="1" width="8.88671875" style="45" customWidth="1"/>
+    <col min="2" max="16384" width="3.44140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
         <v>34</v>
       </c>
@@ -26921,13 +27725,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C3" s="45" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D4" s="45" t="s">
         <v>37</v>
       </c>
@@ -26935,53 +27739,53 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E5" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E6" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E7" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E8" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E9" s="88" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E10" s="88" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E11" s="88" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E12" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E13" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D15" s="45" t="s">
         <v>45</v>
       </c>
@@ -26989,12 +27793,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E16" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F17" s="45" t="s">
         <v>48</v>
       </c>
@@ -27002,27 +27806,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G18" s="88" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G19" s="88" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G20" s="88" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G21" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F22" s="45" t="s">
         <v>51</v>
       </c>
@@ -27030,7 +27834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G23" s="45" t="s">
         <v>53</v>
       </c>
@@ -27038,7 +27842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G24" s="45" t="s">
         <v>55</v>
       </c>
@@ -27046,7 +27850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F25" s="45" t="s">
         <v>57</v>
       </c>
@@ -27054,7 +27858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G26" s="45" t="s">
         <v>59</v>
       </c>
@@ -27062,7 +27866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G27" s="45" t="s">
         <v>61</v>
       </c>
@@ -27070,7 +27874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F28" s="45" t="s">
         <v>63</v>
       </c>
@@ -27078,7 +27882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G29" s="45" t="s">
         <v>65</v>
       </c>
@@ -27086,7 +27890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G30" s="45" t="s">
         <v>67</v>
       </c>
@@ -27094,7 +27898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G31" s="45" t="s">
         <v>69</v>
       </c>
@@ -27102,7 +27906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G32" s="45" t="s">
         <v>71</v>
       </c>
@@ -27110,7 +27914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G33" s="88" t="s">
         <v>162</v>
       </c>
@@ -27118,7 +27922,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G34" s="45" t="s">
         <v>73</v>
       </c>
@@ -27126,8 +27930,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="4:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="4:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D36" s="45" t="s">
         <v>75</v>
       </c>
@@ -27135,12 +27939,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E37" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F38" s="45" t="s">
         <v>51</v>
       </c>
@@ -27148,7 +27952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G39" s="45" t="s">
         <v>77</v>
       </c>
@@ -27156,7 +27960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G40" s="45" t="s">
         <v>78</v>
       </c>
@@ -27164,7 +27968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F41" s="45" t="s">
         <v>57</v>
       </c>
@@ -27172,7 +27976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G42" s="45" t="s">
         <v>79</v>
       </c>
@@ -27180,7 +27984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G43" s="45" t="s">
         <v>80</v>
       </c>
@@ -27188,7 +27992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="F44" s="45" t="s">
         <v>63</v>
       </c>
@@ -27196,7 +28000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G45" s="45" t="s">
         <v>81</v>
       </c>
@@ -27204,7 +28008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G46" s="45" t="s">
         <v>82</v>
       </c>
@@ -27212,7 +28016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G47" s="45" t="s">
         <v>83</v>
       </c>
@@ -27220,7 +28024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G48" s="45" t="s">
         <v>84</v>
       </c>
@@ -27228,7 +28032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G49" s="88" t="s">
         <v>163</v>
       </c>
@@ -27236,7 +28040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="G50" s="45" t="s">
         <v>85</v>
       </c>
@@ -27244,9 +28048,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="44"/>
       <c r="B53" s="45" t="s">
         <v>86</v>
@@ -27255,7 +28059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="44"/>
       <c r="C54" s="45" t="s">
         <v>88</v>
@@ -27264,7 +28068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="45" t="s">
         <v>90</v>
       </c>
@@ -27272,7 +28076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="45" t="s">
         <v>92</v>
       </c>
@@ -27280,7 +28084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="45" t="s">
         <v>94</v>
       </c>
@@ -27288,7 +28092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D58" s="45" t="s">
         <v>96</v>
       </c>
@@ -27296,7 +28100,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D59" s="45" t="s">
         <v>98</v>
       </c>
@@ -27304,7 +28108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D60" s="45" t="s">
         <v>100</v>
       </c>
@@ -27312,7 +28116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D61" s="45" t="s">
         <v>102</v>
       </c>
@@ -27320,22 +28124,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E62" s="45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E63" s="45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E64" s="45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="65" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
